--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6840,11 +6840,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AB8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -910,7 +910,7 @@
     <numFmt numFmtId="181" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -981,12 +981,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF152122"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue Regular"/>
       <charset val="134"/>
@@ -995,12 +989,6 @@
       <sz val="12"/>
       <color rgb="FF152122"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1654,148 +1642,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1923,40 +1911,40 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2040,10 +2028,10 @@
     <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2097,7 +2085,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,16 +2121,16 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,22 +2178,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2214,10 +2202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2229,10 +2217,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2241,7 +2229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6839,12 +6827,12 @@
   <sheetPr/>
   <dimension ref="A1:BV552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -8698,7 +8686,7 @@
       <c r="AF18" s="34"/>
       <c r="AG18" s="16"/>
     </row>
-    <row r="19" ht="15" spans="1:33">
+    <row r="19" ht="14.8" spans="1:33">
       <c r="A19" s="32" t="s">
         <v>90</v>
       </c>
@@ -22708,6 +22696,9 @@
     <hyperlink ref="D14" r:id="rId10" display="振华科技"/>
     <hyperlink ref="D17" r:id="rId11" display="浙江新能"/>
     <hyperlink ref="D18" r:id="rId11" display="浙江新能"/>
+    <hyperlink ref="D19" r:id="rId12" display="健民集团"/>
+    <hyperlink ref="D21" r:id="rId13" display="明泰铝业"/>
+    <hyperlink ref="D20" r:id="rId14" display="东方嘉盛"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -22719,7 +22710,7 @@
   <sheetPr/>
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22767,8 +22758,8 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="11">
-        <f>SUM(交易计划及执行表!S4:S18)</f>
-        <v>2390.53426</v>
+        <f>SUM(交易计划及执行表!S4:S21)</f>
+        <v>3499.74196</v>
       </c>
       <c r="B2" s="11">
         <f>SUM(交易计划及执行表!AE4:AE16)</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6810,11 +6810,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6810,11 +6810,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -8053,11 +8053,11 @@
         <v>0.504273504273506</v>
       </c>
       <c r="R12" s="22">
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="S12" s="87">
         <f t="shared" ref="S9:S21" si="6">(F12-R12)*G12+H12+I12+5</f>
-        <v>620.150919999999</v>
+        <v>646.15092</v>
       </c>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
@@ -22783,7 +22783,7 @@
     <row r="2" spans="1:10">
       <c r="A2" s="11">
         <f>SUM(交易计划及执行表!S4:S21)</f>
-        <v>3499.74196</v>
+        <v>3525.74196</v>
       </c>
       <c r="B2" s="11">
         <f>SUM(交易计划及执行表!AE4:AE16)</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6810,11 +6810,11 @@
   <dimension ref="A1:BV552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AD12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="19940" windowHeight="10980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -902,16 +902,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1035,14 +1035,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,93 +1055,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,6 +1078,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -1171,7 +1171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,13 +1249,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,19 +1333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,31 +1357,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,97 +1423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,43 +1546,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,17 +1567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,9 +1593,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1645,94 +1645,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1741,52 +1741,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1800,16 +1800,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1821,16 +1821,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1845,16 +1845,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,82 +1941,82 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,10 +2073,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,22 +2088,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,14 +2397,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2429,6 +2429,9 @@
                 <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                   <c:v>44545</c:v>
                 </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                  <c:v>44552</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2437,14 +2440,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$B$2:$B$10</c15:sqref>
+                    <c15:sqref>资金曲线!$B$2:$B$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$10)</c:f>
+              <c:f>(资金曲线!$B$2:$B$5,资金曲线!$B$7:$B$11)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -2468,6 +2471,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99961.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2583,16 +2589,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2617,6 +2623,9 @@
                       <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                         <c:v>44545</c:v>
                       </c:pt>
+                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                        <c:v>44552</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2625,16 +2634,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$C$2:$C$10</c15:sqref>
+                          <c15:sqref>资金曲线!$C$2:$C$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -2658,6 +2667,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>994.12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>999.6116</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2760,16 +2772,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2794,6 +2806,9 @@
                       <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                         <c:v>44545</c:v>
                       </c:pt>
+                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                        <c:v>44552</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -2802,16 +2817,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$D$2:$D$10</c15:sqref>
+                          <c15:sqref>资金曲线!$D$2:$D$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>6000</c:v>
                       </c:pt>
@@ -2835,6 +2850,9 @@
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>5964.72</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5997.6696</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3009,6 +3027,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>每笔交易风险额度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3018,25 +3060,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3083,19 +3106,33 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3120,6 +3157,9 @@
                 <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                   <c:v>44545</c:v>
                 </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                  <c:v>44552</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3128,14 +3168,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$C$2:$C$10</c15:sqref>
+                    <c15:sqref>资金曲线!$C$2:$C$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$10)</c:f>
+              <c:f>(资金曲线!$C$2:$C$5,资金曲线!$C$7:$C$11)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -3159,6 +3199,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>994.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>999.6116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,16 +3263,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3253,6 +3296,9 @@
                       </c:pt>
                       <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                         <c:v>44545</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                        <c:v>44552</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3303,7 +3349,7 @@
         <c:axId val="307545957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44545"/>
+          <c:max val="44552"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3531,14 +3577,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                    <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c:f>
+              <c:f>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3563,6 +3609,9 @@
                 <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                   <c:v>44545</c:v>
                 </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                  <c:v>44552</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3571,14 +3620,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线!$D$2:$D$10</c15:sqref>
+                    <c15:sqref>资金曲线!$D$2:$D$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$10)</c:f>
+              <c:f>(资金曲线!$D$2:$D$5,资金曲线!$D$7:$D$11)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6000</c:v>
                 </c:pt>
@@ -3602,6 +3651,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5964.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5997.6696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,16 +3715,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3696,6 +3748,9 @@
                       </c:pt>
                       <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                         <c:v>44545</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                        <c:v>44552</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3780,16 +3835,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线!$A$2:$A$10</c15:sqref>
+                          <c15:sqref>资金曲线!$A$2:$A$11</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$10)</c15:sqref>
+                          <c15:sqref>(资金曲线!$A$2:$A$5,资金曲线!$A$7:$A$11)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0" c:formatCode="yyyy\-m\-d">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3813,6 +3868,9 @@
                       </c:pt>
                       <c:pt idx="7" c:formatCode="yyyy\-m\-d">
                         <c:v>44545</c:v>
+                      </c:pt>
+                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                        <c:v>44552</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5743,13 +5801,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>640715</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5757,7 +5815,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4733925" y="5983605"/>
+        <a:off x="4733925" y="5989955"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6809,7 +6867,7 @@
   <sheetPr/>
   <dimension ref="A1:BV552"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="AD12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7387,7 +7445,7 @@
         <v>0.06746</v>
       </c>
       <c r="J6" s="61">
-        <f t="shared" ref="J6:J21" si="2">F6*G6+H6+I6</f>
+        <f t="shared" ref="J6:J22" si="2">F6*G6+H6+I6</f>
         <v>3378.06746</v>
       </c>
       <c r="K6" s="61">
@@ -7403,14 +7461,14 @@
         <v>31.36</v>
       </c>
       <c r="O6" s="58">
-        <f t="shared" ref="O6:O21" si="3">M6-N6</f>
+        <f t="shared" ref="O6:O22" si="3">M6-N6</f>
         <v>4.12</v>
       </c>
       <c r="P6" s="66">
         <v>37.41</v>
       </c>
       <c r="Q6" s="86">
-        <f t="shared" ref="Q6:Q21" si="4">(K6-F6)/(K6-L6)</f>
+        <f t="shared" ref="Q6:Q22" si="4">(K6-F6)/(K6-L6)</f>
         <v>0.721238938053099</v>
       </c>
       <c r="R6" s="22">
@@ -8056,7 +8114,7 @@
         <v>34.55</v>
       </c>
       <c r="S12" s="87">
-        <f t="shared" ref="S9:S21" si="6">(F12-R12)*G12+H12+I12+5</f>
+        <f t="shared" ref="S9:S22" si="6">(F12-R12)*G12+H12+I12+5</f>
         <v>646.15092</v>
       </c>
       <c r="T12" s="34"/>
@@ -8929,7 +8987,7 @@
         <v>0.1556</v>
       </c>
       <c r="J22" s="74">
-        <f>F22*G22+H22+I22</f>
+        <f t="shared" si="2"/>
         <v>7785.1556</v>
       </c>
       <c r="K22" s="66">
@@ -8945,21 +9003,21 @@
         <v>32.08</v>
       </c>
       <c r="O22" s="66">
-        <f>M22-N22</f>
+        <f t="shared" si="3"/>
         <v>8.31</v>
       </c>
       <c r="P22" s="66">
         <v>41.56</v>
       </c>
       <c r="Q22" s="90">
-        <f>(K22-F22)/(K22-L22)</f>
+        <f t="shared" si="4"/>
         <v>0.0337837837837866</v>
       </c>
       <c r="R22" s="22">
         <v>37</v>
       </c>
       <c r="S22" s="87">
-        <f>(F22-R22)*G22+H22+I22+5</f>
+        <f t="shared" si="6"/>
         <v>390.1556</v>
       </c>
       <c r="T22" s="34"/>
@@ -22818,8 +22876,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -22992,9 +23050,17 @@
       <c r="A11" s="3">
         <v>44552</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4">
+        <v>99961.16</v>
+      </c>
+      <c r="C11" s="4">
+        <f>(VLOOKUP(A11,$A$1:$D108,2,FALSE)*0.01)</f>
+        <v>999.6116</v>
+      </c>
+      <c r="D11" s="4">
+        <f>(VLOOKUP(A11,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>5997.6696</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -22876,8 +22876,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6702,11 +6702,11 @@
   <dimension ref="A1:BV553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AD12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AC11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -7944,8 +7944,7 @@
         <v>34.55</v>
       </c>
       <c r="S12" s="81">
-        <f>(F12-R12)*G12+H12+I12+5</f>
-        <v>646.15092</v>
+        <v>0</v>
       </c>
       <c r="T12" s="53">
         <v>44554</v>
@@ -8057,8 +8056,7 @@
         <v>34.68</v>
       </c>
       <c r="S13" s="81">
-        <f>(F13-R13)*G13+H13+I13+5</f>
-        <v>672.15196</v>
+        <v>0</v>
       </c>
       <c r="T13" s="53">
         <v>44553</v>
@@ -8428,8 +8426,7 @@
         <v>58.51</v>
       </c>
       <c r="S17" s="81">
-        <f t="shared" ref="S15:S23" si="11">(F17-R17)*G17+H17+I17+5</f>
-        <v>589.1286</v>
+        <v>0</v>
       </c>
       <c r="T17" s="53">
         <v>44545</v>
@@ -8539,7 +8536,7 @@
         <v>15.5</v>
       </c>
       <c r="S18" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="S15:S23" si="11">(F18-R18)*G18+H18+I18+5</f>
         <v>161.03402</v>
       </c>
       <c r="T18" s="29"/>
@@ -8799,8 +8796,7 @@
         <v>26</v>
       </c>
       <c r="S21" s="81">
-        <f t="shared" si="11"/>
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="T21" s="53">
         <v>44553</v>
@@ -8996,8 +8992,7 @@
         <v>37</v>
       </c>
       <c r="S23" s="81">
-        <f t="shared" si="11"/>
-        <v>390.1556</v>
+        <v>0</v>
       </c>
       <c r="T23" s="53">
         <v>44554</v>
@@ -9103,8 +9098,13 @@
         <f>(K24-F24)/(K24-L24)</f>
         <v>0.793939393939395</v>
       </c>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
+      <c r="R24" s="80">
+        <v>59.3</v>
+      </c>
+      <c r="S24" s="81">
+        <f>(F24-R24)*G24+H24+I24+5</f>
+        <v>736.37032</v>
+      </c>
       <c r="T24" s="53"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
@@ -22466,7 +22466,7 @@
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -22513,12 +22513,12 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="11">
-        <f>SUM(交易计划及执行表!S4:S22)</f>
-        <v>3525.74196</v>
+        <f>SUM(交易计划及执行表!S4:S24)</f>
+        <v>2161.6808</v>
       </c>
       <c r="B2" s="11">
-        <f>SUM(交易计划及执行表!AD4:AD17)</f>
-        <v>-2436.24914</v>
+        <f>SUM(交易计划及执行表!AD4:AD24)</f>
+        <v>-1636.55954</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -831,12 +831,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#\ ??/100"/>
     <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -1688,10 +1688,10 @@
     <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1703,16 +1703,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1721,7 +1721,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1811,7 +1811,7 @@
     <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,7 +1820,7 @@
     <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,7 +1835,7 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1844,7 +1844,7 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,13 +1853,13 @@
     <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,13 +1868,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,7 +1955,7 @@
     <xf numFmtId="181" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1967,7 +1967,7 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22474,8 +22474,8 @@
   <sheetPr/>
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4" outlineLevelRow="1"/>
@@ -22555,8 +22555,8 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I2" s="17">
-        <f>F2*G2/(1-F2)*H2</f>
-        <v>0.0123456790123457</v>
+        <f>F2*G2/((1-F2)*H2)</f>
+        <v>1</v>
       </c>
       <c r="J2" s="18"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -22495,7 +22495,7 @@
   <dimension ref="A1:CZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -878,16 +878,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -951,6 +951,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF152122"/>
       <name val="Helvetica Neue Regular"/>
@@ -967,14 +975,6 @@
       <color rgb="FF152122"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1029,28 +1029,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,6 +1042,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1071,16 +1088,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1095,54 +1134,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,15 +1165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,49 +1229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,6 +1253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1301,7 +1271,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,13 +1313,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,25 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,49 +1403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,8 +1454,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,33 +1535,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,38 +1543,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,148 +1553,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,19 +1708,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1732,37 +1732,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1777,7 +1777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1795,13 +1795,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1834,25 +1834,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1864,79 +1864,79 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,10 +1990,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,22 +2005,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,7 +2104,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6765,7 +6765,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -8545,7 +8545,7 @@
       <c r="C18" s="41">
         <v>600032</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="65">
@@ -8632,7 +8632,7 @@
       <c r="C19" s="41">
         <v>600032</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="65">
@@ -8716,10 +8716,10 @@
       <c r="B20" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="46">
         <v>600976</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="65">
@@ -8800,13 +8800,13 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="50" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="65">
@@ -8908,13 +8908,13 @@
       <c r="A22" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="51">
         <v>601677</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="47" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="65">
@@ -8995,7 +8995,7 @@
       <c r="A23" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="48" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="41">
@@ -9111,7 +9111,7 @@
       <c r="C24" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="65">
@@ -22507,13 +22507,13 @@
     <hyperlink ref="D17" r:id="rId8" display="石英股份"/>
     <hyperlink ref="D16" r:id="rId9" display="明泰铝业"/>
     <hyperlink ref="D15" r:id="rId10" display="振华科技"/>
-    <hyperlink ref="D18" r:id="rId11" display="浙江新能"/>
-    <hyperlink ref="D19" r:id="rId11" display="浙江新能"/>
+    <hyperlink ref="D21" r:id="rId11" display="东方嘉盛"/>
+    <hyperlink ref="D23" r:id="rId2" display="同仁堂"/>
     <hyperlink ref="D20" r:id="rId12" display="健民集团"/>
     <hyperlink ref="D22" r:id="rId13" display="明泰铝业"/>
-    <hyperlink ref="D21" r:id="rId14" display="东方嘉盛"/>
-    <hyperlink ref="D23" r:id="rId2" display="同仁堂"/>
-    <hyperlink ref="D24" r:id="rId15" display="洽洽食品"/>
+    <hyperlink ref="D24" r:id="rId14" display="洽洽食品"/>
+    <hyperlink ref="D19" r:id="rId15" display="浙江新能"/>
+    <hyperlink ref="D18" r:id="rId15" display="浙江新能"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -977,14 +977,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1137,6 +1129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,145 +1553,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1855,7 +1855,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1864,13 +1864,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,10 +1882,10 @@
     <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,16 +1936,16 @@
     <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,7 +1957,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1993,22 +1993,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,43 +2032,43 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,7 +2080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,10 +2095,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6764,11 +6764,11 @@
   <dimension ref="A1:BV553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12880"/>
+    <workbookView windowWidth="26500" windowHeight="12880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -878,16 +878,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1035,10 +1035,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1049,11 +1050,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1065,7 +1081,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1081,76 +1097,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,6 +1114,58 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,13 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,19 +1241,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,37 +1295,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,55 +1367,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,37 +1409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,11 +1451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,32 +1497,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1534,8 +1514,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1543,8 +1534,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1556,145 +1556,145 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,7 +1717,7 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1732,7 +1732,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1741,7 +1741,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1750,7 +1750,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1759,7 +1759,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1777,7 +1777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2011,7 +2011,7 @@
     <xf numFmtId="178" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2023,7 +2023,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6763,12 +6763,12 @@
   <sheetPr/>
   <dimension ref="A1:BV553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -22528,8 +22528,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -22542,7 +22542,7 @@
     <col min="8" max="8" width="19.7857142857143" style="8" customWidth="1"/>
     <col min="9" max="9" width="20.8214285714286" style="9" customWidth="1"/>
     <col min="10" max="10" width="21.2767857142857" customWidth="1"/>
-    <col min="11" max="11" width="16.3660714285714" customWidth="1"/>
+    <col min="11" max="11" width="23.0625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:104">
@@ -23133,8 +23133,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12880" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -878,16 +878,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1035,6 +1035,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1050,24 +1080,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,6 +1105,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1105,55 +1150,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1165,7 +1165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,7 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1259,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,25 +1283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,13 +1301,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,61 +1337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,7 +1373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,19 +1409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,6 +1451,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1481,17 +1499,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1511,6 +1525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1519,182 +1548,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1708,7 +1708,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,7 +1720,7 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1735,7 +1735,7 @@
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1744,7 +1744,7 @@
     <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1753,7 +1753,7 @@
     <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1762,7 +1762,7 @@
     <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1777,7 +1777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1795,7 +1795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1867,79 +1867,79 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6763,12 +6763,12 @@
   <sheetPr/>
   <dimension ref="A1:BV553"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -22528,7 +22528,7 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6764,11 +6764,11 @@
   <dimension ref="A1:BV553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6764,11 +6764,11 @@
   <dimension ref="A1:BV553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6786,7 +6786,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T25" sqref="T25"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25:R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -9210,7 +9210,7 @@
       <c r="C25" s="51">
         <v>600587</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="47" t="s">
         <v>106</v>
       </c>
       <c r="E25" s="67">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6786,7 +6786,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25:R26"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6782,11 +6782,11 @@
   <dimension ref="A1:BV554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -9148,12 +9148,11 @@
         <v>5</v>
       </c>
       <c r="I24" s="73">
-        <f>F24*G24*0.2/10000</f>
-        <v>0.37032</v>
+        <v>0</v>
       </c>
       <c r="J24" s="71">
         <f t="shared" si="9"/>
-        <v>18521.37032</v>
+        <v>18521</v>
       </c>
       <c r="K24" s="73">
         <v>65.65</v>
@@ -9183,7 +9182,7 @@
       </c>
       <c r="S24" s="94">
         <f>(F24-R24)*G24+H24+I24+5</f>
-        <v>736.37032</v>
+        <v>736</v>
       </c>
       <c r="T24" s="67"/>
       <c r="U24" s="41"/>
@@ -22706,7 +22705,7 @@
       </c>
       <c r="B2" s="14">
         <f>SUM(交易计划及执行表!S4:S24)</f>
-        <v>2161.6808</v>
+        <v>2161.31048</v>
       </c>
       <c r="C2" s="14">
         <f>SUM(交易计划及执行表!AD4:AD24)</f>
@@ -22742,7 +22741,7 @@
       </c>
       <c r="K2" s="27">
         <f>B2/(100000*0.06)</f>
-        <v>0.360280133333333</v>
+        <v>0.360218413333333</v>
       </c>
     </row>
     <row r="3" ht="14.8" spans="1:11">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6782,11 +6782,11 @@
   <dimension ref="A1:BV554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="O11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -885,15 +885,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1057,23 +1057,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1086,37 +1072,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
@@ -1124,15 +1079,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1156,10 +1126,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,8 +1162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,19 +1241,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,19 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,109 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1325,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,6 +1490,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1501,6 +1516,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1530,177 +1554,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1717,16 +1717,16 @@
     <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1738,37 +1738,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1783,7 +1783,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1807,7 +1807,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1879,7 +1879,7 @@
     <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,7 +1888,7 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1903,7 +1903,7 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1912,7 +1912,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,25 +1921,25 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,10 +2002,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,22 +2017,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6786,7 +6786,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="71">
-        <f t="shared" ref="J15:J24" si="9">F15*G15+H15+I15</f>
+        <f t="shared" ref="J15:J25" si="9">F15*G15+H15+I15</f>
         <v>11602</v>
       </c>
       <c r="K15" s="73">
@@ -8270,14 +8270,14 @@
         <v>102.72</v>
       </c>
       <c r="O15" s="73">
-        <f t="shared" ref="O15:O24" si="10">M15-N15</f>
+        <f t="shared" ref="O15:O25" si="10">M15-N15</f>
         <v>25.89</v>
       </c>
       <c r="P15" s="73">
         <v>50.45</v>
       </c>
       <c r="Q15" s="96">
-        <f t="shared" ref="Q15:Q24" si="11">(K15-F15)/(K15-L15)</f>
+        <f t="shared" ref="Q15:Q25" si="11">(K15-F15)/(K15-L15)</f>
         <v>0.459276018099548</v>
       </c>
       <c r="R15" s="93">
@@ -9199,7 +9199,7 @@
       <c r="AF24" s="119"/>
       <c r="AG24" s="126"/>
     </row>
-    <row r="25" ht="15" spans="1:33">
+    <row r="25" ht="14.8" spans="1:33">
       <c r="A25" s="39" t="s">
         <v>104</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>0.35484</v>
       </c>
       <c r="J25" s="71">
-        <f>F25*G25+H25+I25</f>
+        <f t="shared" si="9"/>
         <v>17747.35484</v>
       </c>
       <c r="K25" s="73">
@@ -9245,14 +9245,14 @@
         <v>23.34</v>
       </c>
       <c r="O25" s="73">
-        <f>M25-N25</f>
+        <f t="shared" si="10"/>
         <v>8.51</v>
       </c>
       <c r="P25" s="73">
         <v>25.83</v>
       </c>
       <c r="Q25" s="96">
-        <f>(K25-F25)/(K25-L25)</f>
+        <f t="shared" si="11"/>
         <v>0.792951541850221</v>
       </c>
       <c r="R25" s="93">
@@ -9277,7 +9277,7 @@
       <c r="AF25" s="119"/>
       <c r="AG25" s="126"/>
     </row>
-    <row r="26" ht="14.8" spans="1:33">
+    <row r="26" spans="1:33">
       <c r="A26" s="39"/>
       <c r="B26" s="41"/>
       <c r="C26" s="51"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12880" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="12880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -900,15 +900,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1064,28 +1064,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,82 +1072,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,6 +1098,103 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1256,7 +1256,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,7 +1304,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1364,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,151 +1430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,8 +1481,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,21 +1561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1531,197 +1575,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1735,19 +1735,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1759,37 +1759,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1804,7 +1804,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1828,7 +1828,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1900,7 +1900,7 @@
     <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,7 +1909,7 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1924,7 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,7 +1933,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1942,25 +1942,25 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,10 +2026,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,22 +2041,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2583,31 +2583,31 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>998.8077</c:v>
+                        <c:v>1997.6154</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>998.1254</c:v>
+                        <c:v>1996.2508</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>998.0803</c:v>
+                        <c:v>1996.1606</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>998.3102</c:v>
+                        <c:v>1996.6204</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1002.95</c:v>
+                        <c:v>2005.9</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1002.3519</c:v>
+                        <c:v>2004.7038</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>994.12</c:v>
+                        <c:v>1988.24</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>999.6116</c:v>
+                        <c:v>1999.2232</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3115,31 +3115,31 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998.8077</c:v>
+                  <c:v>1997.6154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>998.1254</c:v>
+                  <c:v>1996.2508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998.0803</c:v>
+                  <c:v>1996.1606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>998.3102</c:v>
+                  <c:v>1996.6204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1002.95</c:v>
+                  <c:v>2005.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1002.3519</c:v>
+                  <c:v>2004.7038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>994.12</c:v>
+                  <c:v>1988.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>999.6116</c:v>
+                  <c:v>1999.2232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3829,22 +3829,22 @@
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>1000</c:v>
+                        <c:v>2000</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>998.8077</c:v>
+                        <c:v>1997.6154</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>998.1254</c:v>
+                        <c:v>1996.2508</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>998.0803</c:v>
+                        <c:v>1996.1606</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>998.3102</c:v>
+                        <c:v>1996.6204</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1002.95</c:v>
+                        <c:v>2005.9</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -22835,7 +22835,7 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23443,8 +23443,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -23477,8 +23477,8 @@
         <v>100000</v>
       </c>
       <c r="C2" s="4">
-        <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.01)</f>
-        <v>1000</v>
+        <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.02)</f>
+        <v>2000</v>
       </c>
       <c r="D2" s="4">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
@@ -23493,8 +23493,8 @@
         <v>99880.77</v>
       </c>
       <c r="C3" s="4">
-        <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.01)</f>
-        <v>998.8077</v>
+        <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.02)</f>
+        <v>1997.6154</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D9" si="0">(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
@@ -23509,8 +23509,8 @@
         <v>99812.54</v>
       </c>
       <c r="C4" s="4">
-        <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.01)</f>
-        <v>998.1254</v>
+        <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.02)</f>
+        <v>1996.2508</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -23525,8 +23525,8 @@
         <v>99808.03</v>
       </c>
       <c r="C5" s="4">
-        <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.01)</f>
-        <v>998.0803</v>
+        <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.02)</f>
+        <v>1996.1606</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.01)</f>
+        <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.02)</f>
         <v>0</v>
       </c>
       <c r="D6" s="4">
@@ -23557,8 +23557,8 @@
         <v>99831.02</v>
       </c>
       <c r="C7" s="4">
-        <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.01)</f>
-        <v>998.3102</v>
+        <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.02)</f>
+        <v>1996.6204</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
@@ -23573,8 +23573,8 @@
         <v>100295</v>
       </c>
       <c r="C8" s="4">
-        <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.01)</f>
-        <v>1002.95</v>
+        <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.02)</f>
+        <v>2005.9</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -23589,8 +23589,8 @@
         <v>100235.19</v>
       </c>
       <c r="C9" s="4">
-        <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.01)</f>
-        <v>1002.3519</v>
+        <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.02)</f>
+        <v>2004.7038</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -23605,8 +23605,8 @@
         <v>99412</v>
       </c>
       <c r="C10" s="4">
-        <f>(VLOOKUP(A10,$A$1:$D107,2,FALSE)*0.01)</f>
-        <v>994.12</v>
+        <f>(VLOOKUP(A10,$A$1:$D107,2,FALSE)*0.02)</f>
+        <v>1988.24</v>
       </c>
       <c r="D10" s="4">
         <f>(VLOOKUP(A10,$A$1:$D$99,2,FALSE)*0.06)</f>
@@ -23621,8 +23621,8 @@
         <v>99961.16</v>
       </c>
       <c r="C11" s="4">
-        <f>(VLOOKUP(A11,$A$1:$D108,2,FALSE)*0.01)</f>
-        <v>999.6116</v>
+        <f>(VLOOKUP(A11,$A$1:$D108,2,FALSE)*0.02)</f>
+        <v>1999.2232</v>
       </c>
       <c r="D11" s="4">
         <f>(VLOOKUP(A11,$A$1:$D$99,2,FALSE)*0.06)</f>
@@ -23633,9 +23633,17 @@
       <c r="A12" s="3">
         <v>44559</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="4">
+        <v>99314.83</v>
+      </c>
+      <c r="C12" s="4">
+        <f>(VLOOKUP(A12,$A$1:$D109,2,FALSE)*0.02)</f>
+        <v>1986.2966</v>
+      </c>
+      <c r="D12" s="4">
+        <f>(VLOOKUP(A12,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>5958.8898</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="12880" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -900,15 +900,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="181" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1064,6 +1064,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -1077,9 +1084,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1095,7 +1101,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,8 +1121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,10 +1137,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,37 +1178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,14 +1195,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1268,7 +1268,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,103 +1340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1364,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,37 +1424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,8 +1481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,20 +1498,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,32 +1535,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,153 +1560,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1735,19 +1735,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1759,37 +1759,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1804,7 +1804,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1828,7 +1828,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1900,7 +1900,7 @@
     <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,7 +1909,7 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1924,7 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,7 +1933,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1942,25 +1942,25 @@
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,10 +2026,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,22 +2041,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23444,7 +23444,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -6935,12 +6935,12 @@
   <sheetPr/>
   <dimension ref="A1:BV555"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Z15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD30" sqref="AD30"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -23220,8 +23220,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -630,12 +630,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -684,12 +678,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -789,6 +777,9 @@
     <t>健民集团</t>
   </si>
   <si>
+    <t>对卖出点不够清新，抛出不够及时</t>
+  </si>
+  <si>
     <t>JG_0000017</t>
   </si>
   <si>
@@ -807,6 +798,9 @@
     <t>JH_00029</t>
   </si>
   <si>
+    <t>对各价格形态的时间周期理解理解不够具体，造成错误的时间点进场</t>
+  </si>
+  <si>
     <t>JG_0000019</t>
   </si>
   <si>
@@ -823,6 +817,9 @@
   </si>
   <si>
     <t>洽洽食品</t>
+  </si>
+  <si>
+    <t>进场太迟</t>
   </si>
   <si>
     <t>JG_0000021</t>
@@ -874,6 +871,9 @@
   </si>
   <si>
     <t>JG_0000026</t>
+  </si>
+  <si>
+    <t>忽略了最佳买入点</t>
   </si>
   <si>
     <t>JG_0000027</t>
@@ -941,15 +941,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -1143,9 +1143,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1157,24 +1179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1184,13 +1190,6 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1210,15 +1209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1233,8 +1225,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,7 +1256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,17 +1270,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1341,7 +1341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,13 +1371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,19 +1407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,7 +1425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,55 +1455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,37 +1497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,8 +1560,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,15 +1610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1606,16 +1630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1630,181 +1654,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1814,19 +1814,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1835,43 +1835,43 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1883,13 +1883,13 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1898,7 +1898,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,7 +1913,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1994,64 +1994,64 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2060,19 +2060,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2135,43 +2135,43 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2251,6 +2251,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6936,11 +6942,11 @@
   <dimension ref="A1:BV555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AB17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -7028,35 +7034,35 @@
       <c r="AM1" s="137"/>
       <c r="AN1" s="137"/>
       <c r="AO1" s="137"/>
-      <c r="AQ1" s="150"/>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
-      <c r="AX1" s="150"/>
-      <c r="AZ1" s="150"/>
-      <c r="BA1" s="150"/>
-      <c r="BB1" s="150"/>
-      <c r="BC1" s="150"/>
-      <c r="BD1" s="150"/>
-      <c r="BE1" s="150"/>
-      <c r="BF1" s="150"/>
-      <c r="BH1" s="150"/>
-      <c r="BI1" s="150"/>
-      <c r="BJ1" s="150"/>
-      <c r="BK1" s="150"/>
-      <c r="BL1" s="150"/>
-      <c r="BM1" s="150"/>
-      <c r="BN1" s="150"/>
-      <c r="BP1" s="150"/>
-      <c r="BQ1" s="150"/>
-      <c r="BR1" s="150"/>
-      <c r="BS1" s="150"/>
-      <c r="BT1" s="150"/>
-      <c r="BU1" s="150"/>
-      <c r="BV1" s="150"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="152"/>
+      <c r="AS1" s="152"/>
+      <c r="AT1" s="152"/>
+      <c r="AU1" s="152"/>
+      <c r="AV1" s="152"/>
+      <c r="AW1" s="152"/>
+      <c r="AX1" s="152"/>
+      <c r="AZ1" s="152"/>
+      <c r="BA1" s="152"/>
+      <c r="BB1" s="152"/>
+      <c r="BC1" s="152"/>
+      <c r="BD1" s="152"/>
+      <c r="BE1" s="152"/>
+      <c r="BF1" s="152"/>
+      <c r="BH1" s="152"/>
+      <c r="BI1" s="152"/>
+      <c r="BJ1" s="152"/>
+      <c r="BK1" s="152"/>
+      <c r="BL1" s="152"/>
+      <c r="BM1" s="152"/>
+      <c r="BN1" s="152"/>
+      <c r="BP1" s="152"/>
+      <c r="BQ1" s="152"/>
+      <c r="BR1" s="152"/>
+      <c r="BS1" s="152"/>
+      <c r="BT1" s="152"/>
+      <c r="BU1" s="152"/>
+      <c r="BV1" s="152"/>
     </row>
     <row r="2" ht="23.6" spans="1:74">
       <c r="A2" s="41"/>
@@ -7144,35 +7150,35 @@
       <c r="AM2" s="137"/>
       <c r="AN2" s="137"/>
       <c r="AO2" s="137"/>
-      <c r="AQ2" s="150"/>
-      <c r="AR2" s="150"/>
-      <c r="AS2" s="150"/>
-      <c r="AT2" s="150"/>
-      <c r="AU2" s="150"/>
-      <c r="AV2" s="150"/>
-      <c r="AW2" s="150"/>
-      <c r="AX2" s="150"/>
-      <c r="AZ2" s="150"/>
-      <c r="BA2" s="150"/>
-      <c r="BB2" s="150"/>
-      <c r="BC2" s="150"/>
-      <c r="BD2" s="150"/>
-      <c r="BE2" s="150"/>
-      <c r="BF2" s="150"/>
-      <c r="BH2" s="150"/>
-      <c r="BI2" s="150"/>
-      <c r="BJ2" s="150"/>
-      <c r="BK2" s="150"/>
-      <c r="BL2" s="150"/>
-      <c r="BM2" s="150"/>
-      <c r="BN2" s="150"/>
-      <c r="BP2" s="150"/>
-      <c r="BQ2" s="150"/>
-      <c r="BR2" s="150"/>
-      <c r="BS2" s="150"/>
-      <c r="BT2" s="150"/>
-      <c r="BU2" s="150"/>
-      <c r="BV2" s="150"/>
+      <c r="AQ2" s="152"/>
+      <c r="AR2" s="152"/>
+      <c r="AS2" s="152"/>
+      <c r="AT2" s="152"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="152"/>
+      <c r="AX2" s="152"/>
+      <c r="AZ2" s="152"/>
+      <c r="BA2" s="152"/>
+      <c r="BB2" s="152"/>
+      <c r="BC2" s="152"/>
+      <c r="BD2" s="152"/>
+      <c r="BE2" s="152"/>
+      <c r="BF2" s="152"/>
+      <c r="BH2" s="152"/>
+      <c r="BI2" s="152"/>
+      <c r="BJ2" s="152"/>
+      <c r="BK2" s="152"/>
+      <c r="BL2" s="152"/>
+      <c r="BM2" s="152"/>
+      <c r="BN2" s="152"/>
+      <c r="BP2" s="152"/>
+      <c r="BQ2" s="152"/>
+      <c r="BR2" s="152"/>
+      <c r="BS2" s="152"/>
+      <c r="BT2" s="152"/>
+      <c r="BU2" s="152"/>
+      <c r="BV2" s="152"/>
     </row>
     <row r="3" ht="72" spans="1:74">
       <c r="A3" s="41"/>
@@ -7238,35 +7244,35 @@
       <c r="AM3" s="137"/>
       <c r="AN3" s="137"/>
       <c r="AO3" s="137"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="150"/>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="150"/>
-      <c r="AX3" s="150"/>
-      <c r="AZ3" s="150"/>
-      <c r="BA3" s="150"/>
-      <c r="BB3" s="150"/>
-      <c r="BC3" s="150"/>
-      <c r="BD3" s="150"/>
-      <c r="BE3" s="150"/>
-      <c r="BF3" s="150"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="150"/>
-      <c r="BJ3" s="150"/>
-      <c r="BK3" s="150"/>
-      <c r="BL3" s="150"/>
-      <c r="BM3" s="150"/>
-      <c r="BN3" s="150"/>
-      <c r="BP3" s="150"/>
-      <c r="BQ3" s="150"/>
-      <c r="BR3" s="150"/>
-      <c r="BS3" s="150"/>
-      <c r="BT3" s="150"/>
-      <c r="BU3" s="150"/>
-      <c r="BV3" s="150"/>
+      <c r="AQ3" s="152"/>
+      <c r="AR3" s="152"/>
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="152"/>
+      <c r="AU3" s="152"/>
+      <c r="AV3" s="152"/>
+      <c r="AW3" s="152"/>
+      <c r="AX3" s="152"/>
+      <c r="AZ3" s="152"/>
+      <c r="BA3" s="152"/>
+      <c r="BB3" s="152"/>
+      <c r="BC3" s="152"/>
+      <c r="BD3" s="152"/>
+      <c r="BE3" s="152"/>
+      <c r="BF3" s="152"/>
+      <c r="BH3" s="152"/>
+      <c r="BI3" s="152"/>
+      <c r="BJ3" s="152"/>
+      <c r="BK3" s="152"/>
+      <c r="BL3" s="152"/>
+      <c r="BM3" s="152"/>
+      <c r="BN3" s="152"/>
+      <c r="BP3" s="152"/>
+      <c r="BQ3" s="152"/>
+      <c r="BR3" s="152"/>
+      <c r="BS3" s="152"/>
+      <c r="BT3" s="152"/>
+      <c r="BU3" s="152"/>
+      <c r="BV3" s="152"/>
     </row>
     <row r="4" s="32" customFormat="1" ht="23.6" spans="1:74">
       <c r="A4" s="43" t="s">
@@ -7275,7 +7281,7 @@
       <c r="B4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="154" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="44" t="s">
@@ -7383,35 +7389,35 @@
       <c r="AM4" s="141"/>
       <c r="AN4" s="141"/>
       <c r="AO4" s="141"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="151"/>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="151"/>
-      <c r="BM4" s="151"/>
-      <c r="BN4" s="151"/>
-      <c r="BP4" s="151"/>
-      <c r="BQ4" s="151"/>
-      <c r="BR4" s="151"/>
-      <c r="BS4" s="151"/>
-      <c r="BT4" s="151"/>
-      <c r="BU4" s="151"/>
-      <c r="BV4" s="151"/>
+      <c r="AQ4" s="153"/>
+      <c r="AR4" s="153"/>
+      <c r="AS4" s="153"/>
+      <c r="AT4" s="153"/>
+      <c r="AU4" s="153"/>
+      <c r="AV4" s="153"/>
+      <c r="AW4" s="153"/>
+      <c r="AX4" s="153"/>
+      <c r="AZ4" s="153"/>
+      <c r="BA4" s="153"/>
+      <c r="BB4" s="153"/>
+      <c r="BC4" s="153"/>
+      <c r="BD4" s="153"/>
+      <c r="BE4" s="153"/>
+      <c r="BF4" s="153"/>
+      <c r="BH4" s="153"/>
+      <c r="BI4" s="153"/>
+      <c r="BJ4" s="153"/>
+      <c r="BK4" s="153"/>
+      <c r="BL4" s="153"/>
+      <c r="BM4" s="153"/>
+      <c r="BN4" s="153"/>
+      <c r="BP4" s="153"/>
+      <c r="BQ4" s="153"/>
+      <c r="BR4" s="153"/>
+      <c r="BS4" s="153"/>
+      <c r="BT4" s="153"/>
+      <c r="BU4" s="153"/>
+      <c r="BV4" s="153"/>
     </row>
     <row r="5" s="32" customFormat="1" spans="1:34">
       <c r="A5" s="43" t="s">
@@ -7566,7 +7572,7 @@
       <c r="AB6" s="45"/>
       <c r="AC6" s="126"/>
       <c r="AD6" s="129">
-        <f>Z6-J6</f>
+        <f t="shared" ref="AD6:AD11" si="3">Z6-J6</f>
         <v>608.13734</v>
       </c>
       <c r="AE6" s="130"/>
@@ -7649,7 +7655,7 @@
         <v>5</v>
       </c>
       <c r="X7" s="117">
-        <f t="shared" ref="X7:X23" si="3">U7*V7*0.001</f>
+        <f t="shared" ref="X7:X23" si="4">U7*V7*0.001</f>
         <v>3.775</v>
       </c>
       <c r="Y7" s="117">
@@ -7657,7 +7663,7 @@
         <v>0.0755</v>
       </c>
       <c r="Z7" s="122">
-        <f t="shared" ref="Z7:Z23" si="4">U7*V7-W7-X7-Y7</f>
+        <f t="shared" ref="Z7:Z23" si="5">U7*V7-W7-X7-Y7</f>
         <v>3766.1495</v>
       </c>
       <c r="AA7" s="45">
@@ -7667,11 +7673,11 @@
         <v>36.3</v>
       </c>
       <c r="AC7" s="126">
-        <f t="shared" ref="AC7:AC16" si="5">(U7-AB7)/(AA7-AB7)</f>
+        <f t="shared" ref="AC7:AC16" si="6">(U7-AB7)/(AA7-AB7)</f>
         <v>0.57312252964427</v>
       </c>
       <c r="AD7" s="129">
-        <f>Z7-J7</f>
+        <f t="shared" si="3"/>
         <v>491.0841</v>
       </c>
       <c r="AE7" s="132">
@@ -7692,7 +7698,7 @@
       <c r="B8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="155" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -7759,14 +7765,14 @@
         <v>5</v>
       </c>
       <c r="X8" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.245</v>
       </c>
       <c r="Y8" s="117">
         <v>0</v>
       </c>
       <c r="Z8" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7232.755</v>
       </c>
       <c r="AA8" s="47">
@@ -7776,11 +7782,11 @@
         <v>71.75</v>
       </c>
       <c r="AC8" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.560000000000002</v>
       </c>
       <c r="AD8" s="129">
-        <f>Z8-J8</f>
+        <f t="shared" si="3"/>
         <v>20.7550000000001</v>
       </c>
       <c r="AE8" s="132">
@@ -7869,7 +7875,7 @@
         <v>5</v>
       </c>
       <c r="X9" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.015</v>
       </c>
       <c r="Y9" s="117">
@@ -7877,7 +7883,7 @@
         <v>0.0603</v>
       </c>
       <c r="Z9" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3006.9247</v>
       </c>
       <c r="AA9" s="47">
@@ -7887,11 +7893,11 @@
         <v>30.01</v>
       </c>
       <c r="AC9" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.205882352941172</v>
       </c>
       <c r="AD9" s="129">
-        <f>Z9-J9</f>
+        <f t="shared" si="3"/>
         <v>-52.1363799999999</v>
       </c>
       <c r="AE9" s="132">
@@ -7980,7 +7986,7 @@
         <v>5</v>
       </c>
       <c r="X10" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.783</v>
       </c>
       <c r="Y10" s="117">
@@ -7988,7 +7994,7 @@
         <v>0.05566</v>
       </c>
       <c r="Z10" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2775.16134</v>
       </c>
       <c r="AA10" s="45">
@@ -7998,19 +8004,19 @@
         <v>27.44</v>
       </c>
       <c r="AC10" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.406249999999998</v>
       </c>
       <c r="AD10" s="129">
-        <f>Z10-J10</f>
+        <f t="shared" si="3"/>
         <v>-210.89828</v>
       </c>
       <c r="AE10" s="132">
-        <f t="shared" ref="AE10:AE15" si="6">F10</f>
+        <f t="shared" ref="AE10:AE15" si="7">F10</f>
         <v>29.81</v>
       </c>
       <c r="AF10" s="133">
-        <f t="shared" ref="AF10:AF15" si="7">U10</f>
+        <f t="shared" ref="AF10:AF15" si="8">U10</f>
         <v>27.83</v>
       </c>
       <c r="AG10" s="146" t="s">
@@ -8025,7 +8031,7 @@
       <c r="B11" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="155" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -8092,14 +8098,14 @@
         <v>5</v>
       </c>
       <c r="X11" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.67</v>
       </c>
       <c r="Y11" s="117">
         <v>0</v>
       </c>
       <c r="Z11" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2662.33</v>
       </c>
       <c r="AA11" s="45">
@@ -8109,19 +8115,19 @@
         <v>25.99</v>
       </c>
       <c r="AC11" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.324200913242009</v>
       </c>
       <c r="AD11" s="129">
-        <f>Z11-J11</f>
+        <f t="shared" si="3"/>
         <v>-179.67</v>
       </c>
       <c r="AE11" s="132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.37</v>
       </c>
       <c r="AF11" s="133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26.7</v>
       </c>
       <c r="AG11" s="146" t="s">
@@ -8203,15 +8209,15 @@
         <v>5</v>
       </c>
       <c r="X12" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.452</v>
       </c>
       <c r="Y12" s="117">
-        <f>U12*V12*0.00002</f>
+        <f t="shared" ref="Y12:Y20" si="9">U12*V12*0.00002</f>
         <v>0.06904</v>
       </c>
       <c r="Z12" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3443.47896</v>
       </c>
       <c r="AA12" s="45">
@@ -8221,7 +8227,7 @@
         <v>33.85</v>
       </c>
       <c r="AC12" s="126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.549180327868854</v>
       </c>
       <c r="AD12" s="129">
@@ -8315,21 +8321,21 @@
         <v>5</v>
       </c>
       <c r="X13" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.936</v>
       </c>
       <c r="Y13" s="117">
-        <f>U13*V13*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.13872</v>
       </c>
       <c r="Z13" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6923.92528</v>
       </c>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
       <c r="AC13" s="126" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="129"/>
@@ -8370,15 +8376,15 @@
         <v>5</v>
       </c>
       <c r="X14" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.468</v>
       </c>
       <c r="Y14" s="117">
-        <f>U14*V14*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.06936</v>
       </c>
       <c r="Z14" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3459.46264</v>
       </c>
       <c r="AA14" s="45"/>
@@ -8396,7 +8402,7 @@
       <c r="B15" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="155" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -8418,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="77">
-        <f t="shared" ref="J15:J25" si="8">F15*G15+H15+I15</f>
+        <f t="shared" ref="J15:J25" si="10">F15*G15+H15+I15</f>
         <v>11602</v>
       </c>
       <c r="K15" s="79">
@@ -8434,14 +8440,14 @@
         <v>102.72</v>
       </c>
       <c r="O15" s="79">
-        <f t="shared" ref="O15:O25" si="9">M15-N15</f>
+        <f t="shared" ref="O15:O25" si="11">M15-N15</f>
         <v>25.89</v>
       </c>
       <c r="P15" s="79">
         <v>50.45</v>
       </c>
       <c r="Q15" s="105">
-        <f t="shared" ref="Q15:Q25" si="10">(K15-F15)/(K15-L15)</f>
+        <f t="shared" ref="Q15:Q25" si="12">(K15-F15)/(K15-L15)</f>
         <v>0.459276018099548</v>
       </c>
       <c r="R15" s="101">
@@ -8463,15 +8469,15 @@
         <v>5</v>
       </c>
       <c r="X15" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.166</v>
       </c>
       <c r="Y15" s="117">
-        <f>U15*V15*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.22332</v>
       </c>
       <c r="Z15" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11149.61068</v>
       </c>
       <c r="AA15" s="45">
@@ -8481,7 +8487,7 @@
         <v>110.08</v>
       </c>
       <c r="AC15" s="126">
-        <f t="shared" ref="AC15:AC23" si="11">(U15-AB15)/(AA15-AB15)</f>
+        <f t="shared" ref="AC15:AC23" si="13">(U15-AB15)/(AA15-AB15)</f>
         <v>0.267343485617597</v>
       </c>
       <c r="AD15" s="129">
@@ -8489,11 +8495,11 @@
         <v>-452.389319999998</v>
       </c>
       <c r="AE15" s="132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>115.97</v>
       </c>
       <c r="AF15" s="133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>111.66</v>
       </c>
       <c r="AG15" s="146" t="s">
@@ -8530,7 +8536,7 @@
         <v>0.0783</v>
       </c>
       <c r="J16" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3920.0783</v>
       </c>
       <c r="K16" s="79">
@@ -8546,14 +8552,14 @@
         <v>32.21</v>
       </c>
       <c r="O16" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.86</v>
       </c>
       <c r="P16" s="79">
         <v>14.76</v>
       </c>
       <c r="Q16" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.00621118012422237</v>
       </c>
       <c r="R16" s="101">
@@ -8575,15 +8581,15 @@
         <v>5</v>
       </c>
       <c r="X16" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.59</v>
       </c>
       <c r="Y16" s="117">
-        <f>U16*V16*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.0718</v>
       </c>
       <c r="Z16" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3581.3382</v>
       </c>
       <c r="AA16" s="45">
@@ -8593,19 +8599,19 @@
         <v>35.6</v>
       </c>
       <c r="AC16" s="126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.238095238095236</v>
       </c>
       <c r="AD16" s="129">
-        <f t="shared" ref="AD16:AD21" si="12">Z16-J16</f>
+        <f t="shared" ref="AD16:AD21" si="14">Z16-J16</f>
         <v>-338.7401</v>
       </c>
       <c r="AE16" s="132">
-        <f t="shared" ref="AE16:AE21" si="13">F16</f>
+        <f t="shared" ref="AE16:AE21" si="15">F16</f>
         <v>39.15</v>
       </c>
       <c r="AF16" s="133">
-        <f t="shared" ref="AF16:AF21" si="14">U16</f>
+        <f t="shared" ref="AF16:AF21" si="16">U16</f>
         <v>35.9</v>
       </c>
       <c r="AG16" s="143"/>
@@ -8640,7 +8646,7 @@
         <v>0.1286</v>
       </c>
       <c r="J17" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6435.1286</v>
       </c>
       <c r="K17" s="79">
@@ -8656,14 +8662,14 @@
         <v>52.2</v>
       </c>
       <c r="O17" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17.05</v>
       </c>
       <c r="P17" s="79">
         <v>100.55</v>
       </c>
       <c r="Q17" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.0331384015594546</v>
       </c>
       <c r="R17" s="101">
@@ -8685,15 +8691,15 @@
         <v>5</v>
       </c>
       <c r="X17" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.067</v>
       </c>
       <c r="Y17" s="117">
-        <f>U17*V17*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.12134</v>
       </c>
       <c r="Z17" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6055.81166</v>
       </c>
       <c r="AA17" s="45">
@@ -8703,19 +8709,19 @@
         <v>60.28</v>
       </c>
       <c r="AC17" s="126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.0972568578553616</v>
       </c>
       <c r="AD17" s="129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-379.31694</v>
       </c>
       <c r="AE17" s="132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>64.3</v>
       </c>
       <c r="AF17" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>60.67</v>
       </c>
       <c r="AG17" s="143"/>
@@ -8750,7 +8756,7 @@
         <v>0.03402</v>
       </c>
       <c r="J18" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1706.03402</v>
       </c>
       <c r="K18" s="79">
@@ -8766,14 +8772,14 @@
         <v>14.86</v>
       </c>
       <c r="O18" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.58</v>
       </c>
       <c r="P18" s="79">
         <v>85.91</v>
       </c>
       <c r="Q18" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.480392156862744</v>
       </c>
       <c r="R18" s="101">
@@ -8795,15 +8801,15 @@
         <v>5</v>
       </c>
       <c r="X18" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.565</v>
       </c>
       <c r="Y18" s="117">
-        <f>U18*V18*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.0313</v>
       </c>
       <c r="Z18" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1558.4037</v>
       </c>
       <c r="AA18" s="45">
@@ -8813,11 +8819,11 @@
         <v>15.05</v>
       </c>
       <c r="AC18" s="126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.937500000000001</v>
       </c>
       <c r="AD18" s="129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-147.63032</v>
       </c>
       <c r="AE18" s="130"/>
@@ -8854,7 +8860,7 @@
         <v>0.06876</v>
       </c>
       <c r="J19" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3443.06876</v>
       </c>
       <c r="K19" s="79">
@@ -8870,14 +8876,14 @@
         <v>14.86</v>
       </c>
       <c r="O19" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.58</v>
       </c>
       <c r="P19" s="79">
         <v>85.91</v>
       </c>
       <c r="Q19" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30392156862745</v>
       </c>
       <c r="R19" s="101">
@@ -8899,15 +8905,15 @@
         <v>5</v>
       </c>
       <c r="X19" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.13</v>
       </c>
       <c r="Y19" s="117">
-        <f>U19*V19*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.0626</v>
       </c>
       <c r="Z19" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3121.8074</v>
       </c>
       <c r="AA19" s="45">
@@ -8917,18 +8923,18 @@
         <v>15.05</v>
       </c>
       <c r="AC19" s="126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.937500000000001</v>
       </c>
       <c r="AD19" s="129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-321.26136</v>
       </c>
       <c r="AE19" s="130"/>
       <c r="AF19" s="135"/>
       <c r="AG19" s="143"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" ht="29" spans="1:33">
       <c r="A20" s="43" t="s">
         <v>89</v>
       </c>
@@ -8958,7 +8964,7 @@
         <v>0.1295</v>
       </c>
       <c r="J20" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6480.1295</v>
       </c>
       <c r="K20" s="79">
@@ -8974,14 +8980,14 @@
         <v>46.04</v>
       </c>
       <c r="O20" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21.38</v>
       </c>
       <c r="P20" s="79">
         <v>35.75</v>
       </c>
       <c r="Q20" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.200698080279233</v>
       </c>
       <c r="R20" s="101">
@@ -9003,43 +9009,45 @@
         <v>5</v>
       </c>
       <c r="X20" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.79</v>
       </c>
       <c r="Y20" s="117">
-        <f>U20*V20*0.00002</f>
+        <f t="shared" si="9"/>
         <v>0.1358</v>
       </c>
       <c r="Z20" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6778.0742</v>
       </c>
       <c r="AA20" s="45"/>
       <c r="AB20" s="45"/>
       <c r="AC20" s="126" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD20" s="129">
-        <f>Z20-J20</f>
+        <f t="shared" si="14"/>
         <v>297.944700000001</v>
       </c>
       <c r="AE20" s="130"/>
       <c r="AF20" s="135"/>
-      <c r="AG20" s="143"/>
+      <c r="AG20" s="149" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="154" t="s">
         <v>94</v>
       </c>
+      <c r="C21" s="156" t="s">
+        <v>95</v>
+      </c>
       <c r="D21" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="73">
         <v>44550</v>
@@ -9057,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2788</v>
       </c>
       <c r="K21" s="79">
@@ -9073,14 +9081,14 @@
         <v>22.8</v>
       </c>
       <c r="O21" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.51</v>
       </c>
       <c r="P21" s="79">
         <v>16.09</v>
       </c>
       <c r="Q21" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.435146443514645</v>
       </c>
       <c r="R21" s="101">
@@ -9102,14 +9110,14 @@
         <v>5</v>
       </c>
       <c r="X21" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.602</v>
       </c>
       <c r="Y21" s="118">
         <v>0</v>
       </c>
       <c r="Z21" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2594.398</v>
       </c>
       <c r="AA21" s="45">
@@ -9119,29 +9127,29 @@
         <v>25.9</v>
       </c>
       <c r="AC21" s="126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13793103448276</v>
       </c>
       <c r="AD21" s="129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-193.602</v>
       </c>
       <c r="AE21" s="132">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>27.83</v>
       </c>
       <c r="AF21" s="133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>26.02</v>
       </c>
       <c r="AG21" s="143"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" ht="24" spans="1:33">
       <c r="A22" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" s="55">
         <v>601677</v>
@@ -9162,11 +9170,11 @@
         <v>5</v>
       </c>
       <c r="I22" s="79">
-        <f t="shared" ref="I22:I28" si="15">F22*G22*0.2/10000</f>
+        <f t="shared" ref="I22:I29" si="17">F22*G22*0.2/10000</f>
         <v>0.0782</v>
       </c>
       <c r="J22" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3915.0782</v>
       </c>
       <c r="K22" s="79">
@@ -9182,14 +9190,14 @@
         <v>30.54</v>
       </c>
       <c r="O22" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12.17</v>
       </c>
       <c r="P22" s="79">
         <v>14.89</v>
       </c>
       <c r="Q22" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.65625</v>
       </c>
       <c r="R22" s="101">
@@ -9204,31 +9212,33 @@
       <c r="V22" s="45"/>
       <c r="W22" s="79"/>
       <c r="X22" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y22" s="118"/>
       <c r="Z22" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA22" s="45"/>
       <c r="AB22" s="45"/>
       <c r="AC22" s="126" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD22" s="130"/>
       <c r="AE22" s="130"/>
       <c r="AF22" s="135"/>
-      <c r="AG22" s="143"/>
+      <c r="AG22" s="150" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" s="45">
         <v>600085</v>
@@ -9249,11 +9259,11 @@
         <v>5</v>
       </c>
       <c r="I23" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.1556</v>
       </c>
       <c r="J23" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7785.1556</v>
       </c>
       <c r="K23" s="79">
@@ -9269,14 +9279,14 @@
         <v>32.08</v>
       </c>
       <c r="O23" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.31</v>
       </c>
       <c r="P23" s="79">
         <v>41.56</v>
       </c>
       <c r="Q23" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.0337837837837866</v>
       </c>
       <c r="R23" s="101">
@@ -9298,7 +9308,7 @@
         <v>5</v>
       </c>
       <c r="X23" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.794</v>
       </c>
       <c r="Y23" s="117">
@@ -9306,7 +9316,7 @@
         <v>0.17588</v>
       </c>
       <c r="Z23" s="122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8780.03012</v>
       </c>
       <c r="AA23" s="45">
@@ -9316,7 +9326,7 @@
         <v>42.77</v>
       </c>
       <c r="AC23" s="126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.383386581469648</v>
       </c>
       <c r="AD23" s="130">
@@ -9335,16 +9345,16 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="153" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C24" s="155" t="s">
+        <v>104</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E24" s="73">
         <v>44554</v>
@@ -9362,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>18521</v>
       </c>
       <c r="K24" s="79">
@@ -9378,21 +9388,21 @@
         <v>51.84</v>
       </c>
       <c r="O24" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.77</v>
       </c>
       <c r="P24" s="79">
         <v>35.28</v>
       </c>
       <c r="Q24" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.793939393939395</v>
       </c>
       <c r="R24" s="101">
         <v>59.3</v>
       </c>
       <c r="S24" s="102">
-        <f t="shared" ref="S24:S28" si="16">(F24-R24)*G24+H24+I24+5</f>
+        <f t="shared" ref="S24:S28" si="18">(F24-R24)*G24+H24+I24+5</f>
         <v>736</v>
       </c>
       <c r="T24" s="107"/>
@@ -9408,20 +9418,22 @@
       <c r="AD24" s="130"/>
       <c r="AE24" s="130"/>
       <c r="AF24" s="135"/>
-      <c r="AG24" s="143"/>
+      <c r="AG24" s="149" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" ht="15.2" spans="1:33">
       <c r="A25" s="43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C25" s="55">
         <v>600587</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E25" s="73">
         <v>44557</v>
@@ -9436,11 +9448,11 @@
         <v>5</v>
       </c>
       <c r="I25" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.35484</v>
       </c>
       <c r="J25" s="77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17747.35484</v>
       </c>
       <c r="K25" s="79">
@@ -9456,14 +9468,14 @@
         <v>23.34</v>
       </c>
       <c r="O25" s="79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.51</v>
       </c>
       <c r="P25" s="79">
         <v>25.83</v>
       </c>
       <c r="Q25" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.792951541850221</v>
       </c>
       <c r="R25" s="101">
@@ -9486,7 +9498,7 @@
         <v>5</v>
       </c>
       <c r="X25" s="117">
-        <f t="shared" ref="X25:X30" si="17">U25*V25*0.001</f>
+        <f t="shared" ref="X25:X30" si="19">U25*V25*0.001</f>
         <v>9.417</v>
       </c>
       <c r="Y25" s="117">
@@ -9515,7 +9527,7 @@
       <c r="AF25" s="135"/>
       <c r="AG25" s="143"/>
     </row>
-    <row r="26" ht="12.4" spans="1:33">
+    <row r="26" spans="1:33">
       <c r="A26" s="43"/>
       <c r="B26" s="45"/>
       <c r="C26" s="55"/>
@@ -9548,20 +9560,20 @@
       <c r="AD26" s="136"/>
       <c r="AE26" s="136"/>
       <c r="AF26" s="33"/>
-      <c r="AG26" s="149"/>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AG26" s="151"/>
+    </row>
+    <row r="27" ht="24" spans="1:33">
       <c r="A27" s="43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C27" s="53">
         <v>603599</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E27" s="73">
         <v>44558</v>
@@ -9576,11 +9588,11 @@
         <v>5</v>
       </c>
       <c r="I27" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.16152</v>
       </c>
       <c r="J27" s="77">
-        <f>F27*G27+H27+I27</f>
+        <f t="shared" ref="J27:J35" si="20">F27*G27+H27+I27</f>
         <v>8081.16152</v>
       </c>
       <c r="K27" s="81">
@@ -9603,7 +9615,7 @@
         <v>38</v>
       </c>
       <c r="S27" s="102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>486.161520000001</v>
       </c>
       <c r="T27" s="58"/>
@@ -9619,20 +9631,22 @@
       <c r="AD27" s="136"/>
       <c r="AE27" s="136"/>
       <c r="AF27" s="33"/>
-      <c r="AG27" s="149"/>
+      <c r="AG27" s="150" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C28" s="50">
         <v>603995</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E28" s="73">
         <v>44558</v>
@@ -9647,11 +9661,11 @@
         <v>5</v>
       </c>
       <c r="I28" s="79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22388</v>
       </c>
       <c r="J28" s="77">
-        <f>F28*G28+H28+I28</f>
+        <f t="shared" si="20"/>
         <v>11199.22388</v>
       </c>
       <c r="K28" s="81">
@@ -9674,7 +9688,7 @@
         <v>52</v>
       </c>
       <c r="S28" s="102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>804.22388</v>
       </c>
       <c r="T28" s="58"/>
@@ -9690,20 +9704,20 @@
       <c r="AD28" s="136"/>
       <c r="AE28" s="136"/>
       <c r="AF28" s="33"/>
-      <c r="AG28" s="149"/>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AG28" s="151"/>
+    </row>
+    <row r="29" ht="24" spans="1:33">
       <c r="A29" s="43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" s="58">
         <v>603279</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E29" s="73">
         <v>44559</v>
@@ -9718,11 +9732,11 @@
         <v>5</v>
       </c>
       <c r="I29" s="79">
-        <f>F29*G29*0.2/10000</f>
+        <f t="shared" si="17"/>
         <v>0.18184</v>
       </c>
       <c r="J29" s="77">
-        <f>F29*G29+H29+I29</f>
+        <f t="shared" si="20"/>
         <v>9097.18184</v>
       </c>
       <c r="K29" s="81"/>
@@ -9751,7 +9765,7 @@
         <v>5</v>
       </c>
       <c r="X29" s="117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.2</v>
       </c>
       <c r="Y29" s="117">
@@ -9771,20 +9785,22 @@
       </c>
       <c r="AE29" s="136"/>
       <c r="AF29" s="33"/>
-      <c r="AG29" s="149"/>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AG29" s="150" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" ht="24" spans="1:33">
       <c r="A30" s="43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="155" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="C30" s="157" t="s">
+        <v>121</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E30" s="73">
         <v>44560</v>
@@ -9802,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="77">
-        <f>F30*G30+H30+I30</f>
+        <f t="shared" si="20"/>
         <v>7737</v>
       </c>
       <c r="K30" s="81"/>
@@ -9831,7 +9847,7 @@
         <v>5</v>
       </c>
       <c r="X30" s="117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.27</v>
       </c>
       <c r="Y30" s="119">
@@ -9850,14 +9866,16 @@
       </c>
       <c r="AE30" s="136"/>
       <c r="AF30" s="33"/>
-      <c r="AG30" s="149"/>
+      <c r="AG30" s="150" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="55">
         <v>601677</v>
@@ -9882,7 +9900,7 @@
         <v>0.4436</v>
       </c>
       <c r="J31" s="77">
-        <f>F31*G31+H31+I31</f>
+        <f t="shared" si="20"/>
         <v>22185.4436</v>
       </c>
       <c r="K31" s="81"/>
@@ -9912,20 +9930,22 @@
       <c r="AD31" s="136"/>
       <c r="AE31" s="136"/>
       <c r="AF31" s="33"/>
-      <c r="AG31" s="149"/>
+      <c r="AG31" s="150" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" s="55">
         <v>600587</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E32" s="83">
         <v>44561</v>
@@ -9944,7 +9964,7 @@
         <v>0.1896</v>
       </c>
       <c r="J32" s="77">
-        <f>F32*G32+H32+I32</f>
+        <f t="shared" si="20"/>
         <v>9485.1896</v>
       </c>
       <c r="K32" s="81"/>
@@ -9974,20 +9994,20 @@
       <c r="AD32" s="136"/>
       <c r="AE32" s="136"/>
       <c r="AF32" s="33"/>
-      <c r="AG32" s="149"/>
+      <c r="AG32" s="151"/>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="43" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C33" s="50">
         <v>603995</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E33" s="83">
         <v>44561</v>
@@ -10006,7 +10026,7 @@
         <v>0.11766</v>
       </c>
       <c r="J33" s="77">
-        <f>F33*G33+H33+I33</f>
+        <f t="shared" si="20"/>
         <v>5888.11766</v>
       </c>
       <c r="K33" s="81"/>
@@ -10036,20 +10056,20 @@
       <c r="AD33" s="136"/>
       <c r="AE33" s="136"/>
       <c r="AF33" s="33"/>
-      <c r="AG33" s="149"/>
+      <c r="AG33" s="151"/>
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="43" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" s="53">
         <v>603217</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E34" s="83">
         <v>44561</v>
@@ -10068,7 +10088,7 @@
         <v>0.10162</v>
       </c>
       <c r="J34" s="77">
-        <f>F34*G34+H34+I34</f>
+        <f t="shared" si="20"/>
         <v>5086.10162</v>
       </c>
       <c r="K34" s="81"/>
@@ -10098,20 +10118,20 @@
       <c r="AD34" s="136"/>
       <c r="AE34" s="136"/>
       <c r="AF34" s="33"/>
-      <c r="AG34" s="149"/>
+      <c r="AG34" s="151"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="43" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C35" s="53">
         <v>603217</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E35" s="83">
         <v>44559</v>
@@ -10130,7 +10150,7 @@
         <v>0.19552</v>
       </c>
       <c r="J35" s="77">
-        <f>F35*G35+H35+I35</f>
+        <f t="shared" si="20"/>
         <v>9781.19552</v>
       </c>
       <c r="K35" s="81"/>
@@ -10160,7 +10180,7 @@
       <c r="AD35" s="136"/>
       <c r="AE35" s="136"/>
       <c r="AF35" s="33"/>
-      <c r="AG35" s="149"/>
+      <c r="AG35" s="151"/>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="61"/>
@@ -10195,7 +10215,7 @@
       <c r="AD36" s="136"/>
       <c r="AE36" s="136"/>
       <c r="AF36" s="33"/>
-      <c r="AG36" s="149"/>
+      <c r="AG36" s="151"/>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="61"/>
@@ -10230,7 +10250,7 @@
       <c r="AD37" s="136"/>
       <c r="AE37" s="136"/>
       <c r="AF37" s="33"/>
-      <c r="AG37" s="149"/>
+      <c r="AG37" s="151"/>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="61"/>
@@ -10265,7 +10285,7 @@
       <c r="AD38" s="136"/>
       <c r="AE38" s="136"/>
       <c r="AF38" s="33"/>
-      <c r="AG38" s="149"/>
+      <c r="AG38" s="151"/>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="61"/>
@@ -10300,7 +10320,7 @@
       <c r="AD39" s="136"/>
       <c r="AE39" s="136"/>
       <c r="AF39" s="33"/>
-      <c r="AG39" s="149"/>
+      <c r="AG39" s="151"/>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="61"/>
@@ -10335,7 +10355,7 @@
       <c r="AD40" s="136"/>
       <c r="AE40" s="136"/>
       <c r="AF40" s="33"/>
-      <c r="AG40" s="149"/>
+      <c r="AG40" s="151"/>
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="61"/>
@@ -10370,7 +10390,7 @@
       <c r="AD41" s="136"/>
       <c r="AE41" s="136"/>
       <c r="AF41" s="33"/>
-      <c r="AG41" s="149"/>
+      <c r="AG41" s="151"/>
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="61"/>
@@ -10405,7 +10425,7 @@
       <c r="AD42" s="136"/>
       <c r="AE42" s="136"/>
       <c r="AF42" s="33"/>
-      <c r="AG42" s="149"/>
+      <c r="AG42" s="151"/>
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="61"/>
@@ -10440,7 +10460,7 @@
       <c r="AD43" s="136"/>
       <c r="AE43" s="136"/>
       <c r="AF43" s="33"/>
-      <c r="AG43" s="149"/>
+      <c r="AG43" s="151"/>
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="61"/>
@@ -10475,7 +10495,7 @@
       <c r="AD44" s="136"/>
       <c r="AE44" s="136"/>
       <c r="AF44" s="33"/>
-      <c r="AG44" s="149"/>
+      <c r="AG44" s="151"/>
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="61"/>
@@ -10510,7 +10530,7 @@
       <c r="AD45" s="136"/>
       <c r="AE45" s="136"/>
       <c r="AF45" s="33"/>
-      <c r="AG45" s="149"/>
+      <c r="AG45" s="151"/>
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="61"/>
@@ -10545,7 +10565,7 @@
       <c r="AD46" s="136"/>
       <c r="AE46" s="136"/>
       <c r="AF46" s="33"/>
-      <c r="AG46" s="149"/>
+      <c r="AG46" s="151"/>
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="61"/>
@@ -10580,7 +10600,7 @@
       <c r="AD47" s="136"/>
       <c r="AE47" s="136"/>
       <c r="AF47" s="33"/>
-      <c r="AG47" s="149"/>
+      <c r="AG47" s="151"/>
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="61"/>
@@ -10615,7 +10635,7 @@
       <c r="AD48" s="136"/>
       <c r="AE48" s="136"/>
       <c r="AF48" s="33"/>
-      <c r="AG48" s="149"/>
+      <c r="AG48" s="151"/>
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="61"/>
@@ -10650,7 +10670,7 @@
       <c r="AD49" s="136"/>
       <c r="AE49" s="136"/>
       <c r="AF49" s="33"/>
-      <c r="AG49" s="149"/>
+      <c r="AG49" s="151"/>
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="61"/>
@@ -10685,7 +10705,7 @@
       <c r="AD50" s="136"/>
       <c r="AE50" s="136"/>
       <c r="AF50" s="33"/>
-      <c r="AG50" s="149"/>
+      <c r="AG50" s="151"/>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="61"/>
@@ -10720,7 +10740,7 @@
       <c r="AD51" s="136"/>
       <c r="AE51" s="136"/>
       <c r="AF51" s="33"/>
-      <c r="AG51" s="149"/>
+      <c r="AG51" s="151"/>
     </row>
     <row r="52" spans="2:29">
       <c r="B52" s="34"/>
@@ -10737,8 +10757,6 @@
       <c r="O52" s="85"/>
       <c r="P52" s="85"/>
       <c r="Q52" s="34"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="38"/>
       <c r="T52" s="34"/>
       <c r="U52" s="85"/>
       <c r="V52" s="34"/>
@@ -10765,8 +10783,6 @@
       <c r="O53" s="85"/>
       <c r="P53" s="85"/>
       <c r="Q53" s="34"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="38"/>
       <c r="T53" s="34"/>
       <c r="U53" s="85"/>
       <c r="V53" s="34"/>
@@ -10793,8 +10809,6 @@
       <c r="O54" s="85"/>
       <c r="P54" s="85"/>
       <c r="Q54" s="34"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="38"/>
       <c r="T54" s="34"/>
       <c r="U54" s="85"/>
       <c r="V54" s="34"/>
@@ -10821,8 +10835,6 @@
       <c r="O55" s="85"/>
       <c r="P55" s="85"/>
       <c r="Q55" s="34"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="38"/>
       <c r="T55" s="34"/>
       <c r="U55" s="85"/>
       <c r="V55" s="34"/>
@@ -10849,8 +10861,6 @@
       <c r="O56" s="85"/>
       <c r="P56" s="85"/>
       <c r="Q56" s="34"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="38"/>
       <c r="T56" s="34"/>
       <c r="U56" s="85"/>
       <c r="V56" s="34"/>
@@ -10877,8 +10887,6 @@
       <c r="O57" s="85"/>
       <c r="P57" s="85"/>
       <c r="Q57" s="34"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="38"/>
       <c r="T57" s="34"/>
       <c r="U57" s="85"/>
       <c r="V57" s="34"/>
@@ -10905,8 +10913,6 @@
       <c r="O58" s="85"/>
       <c r="P58" s="85"/>
       <c r="Q58" s="34"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="38"/>
       <c r="T58" s="34"/>
       <c r="U58" s="85"/>
       <c r="V58" s="34"/>
@@ -10933,8 +10939,6 @@
       <c r="O59" s="85"/>
       <c r="P59" s="85"/>
       <c r="Q59" s="34"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="38"/>
       <c r="T59" s="34"/>
       <c r="U59" s="85"/>
       <c r="V59" s="34"/>
@@ -10961,8 +10965,6 @@
       <c r="O60" s="85"/>
       <c r="P60" s="85"/>
       <c r="Q60" s="34"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="38"/>
       <c r="T60" s="34"/>
       <c r="U60" s="85"/>
       <c r="V60" s="34"/>
@@ -10989,8 +10991,6 @@
       <c r="O61" s="85"/>
       <c r="P61" s="85"/>
       <c r="Q61" s="34"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="38"/>
       <c r="T61" s="34"/>
       <c r="U61" s="85"/>
       <c r="V61" s="34"/>
@@ -11017,8 +11017,6 @@
       <c r="O62" s="85"/>
       <c r="P62" s="85"/>
       <c r="Q62" s="34"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="38"/>
       <c r="T62" s="34"/>
       <c r="U62" s="85"/>
       <c r="V62" s="34"/>
@@ -11045,8 +11043,6 @@
       <c r="O63" s="85"/>
       <c r="P63" s="85"/>
       <c r="Q63" s="34"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="38"/>
       <c r="T63" s="34"/>
       <c r="U63" s="85"/>
       <c r="V63" s="34"/>
@@ -11073,8 +11069,6 @@
       <c r="O64" s="85"/>
       <c r="P64" s="85"/>
       <c r="Q64" s="34"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="38"/>
       <c r="T64" s="34"/>
       <c r="U64" s="85"/>
       <c r="V64" s="34"/>
@@ -11101,8 +11095,6 @@
       <c r="O65" s="85"/>
       <c r="P65" s="85"/>
       <c r="Q65" s="34"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="38"/>
       <c r="T65" s="34"/>
       <c r="U65" s="85"/>
       <c r="V65" s="34"/>
@@ -11129,8 +11121,6 @@
       <c r="O66" s="85"/>
       <c r="P66" s="85"/>
       <c r="Q66" s="34"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="38"/>
       <c r="T66" s="34"/>
       <c r="U66" s="85"/>
       <c r="V66" s="34"/>
@@ -11157,8 +11147,6 @@
       <c r="O67" s="85"/>
       <c r="P67" s="85"/>
       <c r="Q67" s="34"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="38"/>
       <c r="T67" s="34"/>
       <c r="U67" s="85"/>
       <c r="V67" s="34"/>
@@ -11185,8 +11173,6 @@
       <c r="O68" s="85"/>
       <c r="P68" s="85"/>
       <c r="Q68" s="34"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="38"/>
       <c r="T68" s="34"/>
       <c r="U68" s="85"/>
       <c r="V68" s="34"/>
@@ -11213,8 +11199,6 @@
       <c r="O69" s="85"/>
       <c r="P69" s="85"/>
       <c r="Q69" s="34"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="38"/>
       <c r="T69" s="34"/>
       <c r="U69" s="85"/>
       <c r="V69" s="34"/>
@@ -11241,8 +11225,6 @@
       <c r="O70" s="85"/>
       <c r="P70" s="85"/>
       <c r="Q70" s="34"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="38"/>
       <c r="T70" s="34"/>
       <c r="U70" s="85"/>
       <c r="V70" s="34"/>
@@ -11269,8 +11251,6 @@
       <c r="O71" s="85"/>
       <c r="P71" s="85"/>
       <c r="Q71" s="34"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="38"/>
       <c r="T71" s="34"/>
       <c r="U71" s="85"/>
       <c r="V71" s="34"/>
@@ -11297,8 +11277,6 @@
       <c r="O72" s="85"/>
       <c r="P72" s="85"/>
       <c r="Q72" s="34"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="38"/>
       <c r="T72" s="34"/>
       <c r="U72" s="85"/>
       <c r="V72" s="34"/>
@@ -11325,8 +11303,6 @@
       <c r="O73" s="85"/>
       <c r="P73" s="85"/>
       <c r="Q73" s="34"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="38"/>
       <c r="T73" s="34"/>
       <c r="U73" s="85"/>
       <c r="V73" s="34"/>
@@ -11353,8 +11329,6 @@
       <c r="O74" s="85"/>
       <c r="P74" s="85"/>
       <c r="Q74" s="34"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="38"/>
       <c r="T74" s="34"/>
       <c r="U74" s="85"/>
       <c r="V74" s="34"/>
@@ -11381,8 +11355,6 @@
       <c r="O75" s="85"/>
       <c r="P75" s="85"/>
       <c r="Q75" s="34"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="38"/>
       <c r="T75" s="34"/>
       <c r="U75" s="85"/>
       <c r="V75" s="34"/>
@@ -11409,8 +11381,6 @@
       <c r="O76" s="85"/>
       <c r="P76" s="85"/>
       <c r="Q76" s="34"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="38"/>
       <c r="T76" s="34"/>
       <c r="U76" s="85"/>
       <c r="V76" s="34"/>
@@ -11437,8 +11407,6 @@
       <c r="O77" s="85"/>
       <c r="P77" s="85"/>
       <c r="Q77" s="34"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="38"/>
       <c r="T77" s="34"/>
       <c r="U77" s="85"/>
       <c r="V77" s="34"/>
@@ -11465,8 +11433,6 @@
       <c r="O78" s="85"/>
       <c r="P78" s="85"/>
       <c r="Q78" s="34"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="38"/>
       <c r="T78" s="34"/>
       <c r="U78" s="85"/>
       <c r="V78" s="34"/>
@@ -11493,8 +11459,6 @@
       <c r="O79" s="85"/>
       <c r="P79" s="85"/>
       <c r="Q79" s="34"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="38"/>
       <c r="T79" s="34"/>
       <c r="U79" s="85"/>
       <c r="V79" s="34"/>
@@ -11521,8 +11485,6 @@
       <c r="O80" s="85"/>
       <c r="P80" s="85"/>
       <c r="Q80" s="34"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="38"/>
       <c r="T80" s="34"/>
       <c r="U80" s="85"/>
       <c r="V80" s="34"/>
@@ -11549,8 +11511,6 @@
       <c r="O81" s="85"/>
       <c r="P81" s="85"/>
       <c r="Q81" s="34"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="38"/>
       <c r="T81" s="34"/>
       <c r="U81" s="85"/>
       <c r="V81" s="34"/>
@@ -11577,8 +11537,6 @@
       <c r="O82" s="85"/>
       <c r="P82" s="85"/>
       <c r="Q82" s="34"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="38"/>
       <c r="T82" s="34"/>
       <c r="U82" s="85"/>
       <c r="V82" s="34"/>
@@ -11605,8 +11563,6 @@
       <c r="O83" s="85"/>
       <c r="P83" s="85"/>
       <c r="Q83" s="34"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="38"/>
       <c r="T83" s="34"/>
       <c r="U83" s="85"/>
       <c r="V83" s="34"/>
@@ -11633,8 +11589,6 @@
       <c r="O84" s="85"/>
       <c r="P84" s="85"/>
       <c r="Q84" s="34"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="38"/>
       <c r="T84" s="34"/>
       <c r="U84" s="85"/>
       <c r="V84" s="34"/>
@@ -11661,8 +11615,6 @@
       <c r="O85" s="85"/>
       <c r="P85" s="85"/>
       <c r="Q85" s="34"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="38"/>
       <c r="T85" s="34"/>
       <c r="U85" s="85"/>
       <c r="V85" s="34"/>
@@ -11689,8 +11641,6 @@
       <c r="O86" s="85"/>
       <c r="P86" s="85"/>
       <c r="Q86" s="34"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="38"/>
       <c r="T86" s="34"/>
       <c r="U86" s="85"/>
       <c r="V86" s="34"/>
@@ -11717,8 +11667,6 @@
       <c r="O87" s="85"/>
       <c r="P87" s="85"/>
       <c r="Q87" s="34"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="38"/>
       <c r="T87" s="34"/>
       <c r="U87" s="85"/>
       <c r="V87" s="34"/>
@@ -11745,8 +11693,6 @@
       <c r="O88" s="85"/>
       <c r="P88" s="85"/>
       <c r="Q88" s="34"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="38"/>
       <c r="T88" s="34"/>
       <c r="U88" s="85"/>
       <c r="V88" s="34"/>
@@ -11773,8 +11719,6 @@
       <c r="O89" s="85"/>
       <c r="P89" s="85"/>
       <c r="Q89" s="34"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="38"/>
       <c r="T89" s="34"/>
       <c r="U89" s="85"/>
       <c r="V89" s="34"/>
@@ -11801,8 +11745,6 @@
       <c r="O90" s="85"/>
       <c r="P90" s="85"/>
       <c r="Q90" s="34"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="38"/>
       <c r="T90" s="34"/>
       <c r="U90" s="85"/>
       <c r="V90" s="34"/>
@@ -11829,8 +11771,6 @@
       <c r="O91" s="85"/>
       <c r="P91" s="85"/>
       <c r="Q91" s="34"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="38"/>
       <c r="T91" s="34"/>
       <c r="U91" s="85"/>
       <c r="V91" s="34"/>
@@ -11857,8 +11797,6 @@
       <c r="O92" s="85"/>
       <c r="P92" s="85"/>
       <c r="Q92" s="34"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="38"/>
       <c r="T92" s="34"/>
       <c r="U92" s="85"/>
       <c r="V92" s="34"/>
@@ -11885,8 +11823,6 @@
       <c r="O93" s="85"/>
       <c r="P93" s="85"/>
       <c r="Q93" s="34"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="38"/>
       <c r="T93" s="34"/>
       <c r="U93" s="85"/>
       <c r="V93" s="34"/>
@@ -11913,8 +11849,6 @@
       <c r="O94" s="85"/>
       <c r="P94" s="85"/>
       <c r="Q94" s="34"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="38"/>
       <c r="T94" s="34"/>
       <c r="U94" s="85"/>
       <c r="V94" s="34"/>
@@ -11941,8 +11875,6 @@
       <c r="O95" s="85"/>
       <c r="P95" s="85"/>
       <c r="Q95" s="34"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="38"/>
       <c r="T95" s="34"/>
       <c r="U95" s="85"/>
       <c r="V95" s="34"/>
@@ -11969,8 +11901,6 @@
       <c r="O96" s="85"/>
       <c r="P96" s="85"/>
       <c r="Q96" s="34"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="38"/>
       <c r="T96" s="34"/>
       <c r="U96" s="85"/>
       <c r="V96" s="34"/>
@@ -11997,8 +11927,6 @@
       <c r="O97" s="85"/>
       <c r="P97" s="85"/>
       <c r="Q97" s="34"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="38"/>
       <c r="T97" s="34"/>
       <c r="U97" s="85"/>
       <c r="V97" s="34"/>
@@ -12025,8 +11953,6 @@
       <c r="O98" s="85"/>
       <c r="P98" s="85"/>
       <c r="Q98" s="34"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="38"/>
       <c r="T98" s="34"/>
       <c r="U98" s="85"/>
       <c r="V98" s="34"/>
@@ -12053,8 +11979,6 @@
       <c r="O99" s="85"/>
       <c r="P99" s="85"/>
       <c r="Q99" s="34"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="38"/>
       <c r="T99" s="34"/>
       <c r="U99" s="85"/>
       <c r="V99" s="34"/>
@@ -12081,8 +12005,6 @@
       <c r="O100" s="85"/>
       <c r="P100" s="85"/>
       <c r="Q100" s="34"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="38"/>
       <c r="T100" s="34"/>
       <c r="U100" s="85"/>
       <c r="V100" s="34"/>
@@ -12109,8 +12031,6 @@
       <c r="O101" s="85"/>
       <c r="P101" s="85"/>
       <c r="Q101" s="34"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="38"/>
       <c r="T101" s="34"/>
       <c r="U101" s="85"/>
       <c r="V101" s="34"/>
@@ -12137,8 +12057,6 @@
       <c r="O102" s="85"/>
       <c r="P102" s="85"/>
       <c r="Q102" s="34"/>
-      <c r="R102" s="37"/>
-      <c r="S102" s="38"/>
       <c r="T102" s="34"/>
       <c r="U102" s="85"/>
       <c r="V102" s="34"/>
@@ -12165,8 +12083,6 @@
       <c r="O103" s="85"/>
       <c r="P103" s="85"/>
       <c r="Q103" s="34"/>
-      <c r="R103" s="37"/>
-      <c r="S103" s="38"/>
       <c r="T103" s="34"/>
       <c r="U103" s="85"/>
       <c r="V103" s="34"/>
@@ -12193,8 +12109,6 @@
       <c r="O104" s="85"/>
       <c r="P104" s="85"/>
       <c r="Q104" s="34"/>
-      <c r="R104" s="37"/>
-      <c r="S104" s="38"/>
       <c r="T104" s="34"/>
       <c r="U104" s="85"/>
       <c r="V104" s="34"/>
@@ -12221,8 +12135,6 @@
       <c r="O105" s="85"/>
       <c r="P105" s="85"/>
       <c r="Q105" s="34"/>
-      <c r="R105" s="37"/>
-      <c r="S105" s="38"/>
       <c r="T105" s="34"/>
       <c r="U105" s="85"/>
       <c r="V105" s="34"/>
@@ -12249,8 +12161,6 @@
       <c r="O106" s="85"/>
       <c r="P106" s="85"/>
       <c r="Q106" s="34"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="38"/>
       <c r="T106" s="34"/>
       <c r="U106" s="85"/>
       <c r="V106" s="34"/>
@@ -12277,8 +12187,6 @@
       <c r="O107" s="85"/>
       <c r="P107" s="85"/>
       <c r="Q107" s="34"/>
-      <c r="R107" s="37"/>
-      <c r="S107" s="38"/>
       <c r="T107" s="34"/>
       <c r="U107" s="85"/>
       <c r="V107" s="34"/>
@@ -12305,8 +12213,6 @@
       <c r="O108" s="85"/>
       <c r="P108" s="85"/>
       <c r="Q108" s="34"/>
-      <c r="R108" s="37"/>
-      <c r="S108" s="38"/>
       <c r="T108" s="34"/>
       <c r="U108" s="85"/>
       <c r="V108" s="34"/>
@@ -12333,8 +12239,6 @@
       <c r="O109" s="85"/>
       <c r="P109" s="85"/>
       <c r="Q109" s="34"/>
-      <c r="R109" s="37"/>
-      <c r="S109" s="38"/>
       <c r="T109" s="34"/>
       <c r="U109" s="85"/>
       <c r="V109" s="34"/>
@@ -12361,8 +12265,6 @@
       <c r="O110" s="85"/>
       <c r="P110" s="85"/>
       <c r="Q110" s="34"/>
-      <c r="R110" s="37"/>
-      <c r="S110" s="38"/>
       <c r="T110" s="34"/>
       <c r="U110" s="85"/>
       <c r="V110" s="34"/>
@@ -12389,8 +12291,6 @@
       <c r="O111" s="85"/>
       <c r="P111" s="85"/>
       <c r="Q111" s="34"/>
-      <c r="R111" s="37"/>
-      <c r="S111" s="38"/>
       <c r="T111" s="34"/>
       <c r="U111" s="85"/>
       <c r="V111" s="34"/>
@@ -12417,8 +12317,6 @@
       <c r="O112" s="85"/>
       <c r="P112" s="85"/>
       <c r="Q112" s="34"/>
-      <c r="R112" s="37"/>
-      <c r="S112" s="38"/>
       <c r="T112" s="34"/>
       <c r="U112" s="85"/>
       <c r="V112" s="34"/>
@@ -12445,8 +12343,6 @@
       <c r="O113" s="85"/>
       <c r="P113" s="85"/>
       <c r="Q113" s="34"/>
-      <c r="R113" s="37"/>
-      <c r="S113" s="38"/>
       <c r="T113" s="34"/>
       <c r="U113" s="85"/>
       <c r="V113" s="34"/>
@@ -12473,8 +12369,6 @@
       <c r="O114" s="85"/>
       <c r="P114" s="85"/>
       <c r="Q114" s="34"/>
-      <c r="R114" s="37"/>
-      <c r="S114" s="38"/>
       <c r="T114" s="34"/>
       <c r="U114" s="85"/>
       <c r="V114" s="34"/>
@@ -12501,8 +12395,6 @@
       <c r="O115" s="85"/>
       <c r="P115" s="85"/>
       <c r="Q115" s="34"/>
-      <c r="R115" s="37"/>
-      <c r="S115" s="38"/>
       <c r="T115" s="34"/>
       <c r="U115" s="85"/>
       <c r="V115" s="34"/>
@@ -12529,8 +12421,6 @@
       <c r="O116" s="85"/>
       <c r="P116" s="85"/>
       <c r="Q116" s="34"/>
-      <c r="R116" s="37"/>
-      <c r="S116" s="38"/>
       <c r="T116" s="34"/>
       <c r="U116" s="85"/>
       <c r="V116" s="34"/>
@@ -12557,8 +12447,6 @@
       <c r="O117" s="85"/>
       <c r="P117" s="85"/>
       <c r="Q117" s="34"/>
-      <c r="R117" s="37"/>
-      <c r="S117" s="38"/>
       <c r="T117" s="34"/>
       <c r="U117" s="85"/>
       <c r="V117" s="34"/>
@@ -12585,8 +12473,6 @@
       <c r="O118" s="85"/>
       <c r="P118" s="85"/>
       <c r="Q118" s="34"/>
-      <c r="R118" s="37"/>
-      <c r="S118" s="38"/>
       <c r="T118" s="34"/>
       <c r="U118" s="85"/>
       <c r="V118" s="34"/>
@@ -12613,8 +12499,6 @@
       <c r="O119" s="85"/>
       <c r="P119" s="85"/>
       <c r="Q119" s="34"/>
-      <c r="R119" s="37"/>
-      <c r="S119" s="38"/>
       <c r="T119" s="34"/>
       <c r="U119" s="85"/>
       <c r="V119" s="34"/>
@@ -12641,8 +12525,6 @@
       <c r="O120" s="85"/>
       <c r="P120" s="85"/>
       <c r="Q120" s="34"/>
-      <c r="R120" s="37"/>
-      <c r="S120" s="38"/>
       <c r="T120" s="34"/>
       <c r="U120" s="85"/>
       <c r="V120" s="34"/>
@@ -12669,8 +12551,6 @@
       <c r="O121" s="85"/>
       <c r="P121" s="85"/>
       <c r="Q121" s="34"/>
-      <c r="R121" s="37"/>
-      <c r="S121" s="38"/>
       <c r="T121" s="34"/>
       <c r="U121" s="85"/>
       <c r="V121" s="34"/>
@@ -12697,8 +12577,6 @@
       <c r="O122" s="85"/>
       <c r="P122" s="85"/>
       <c r="Q122" s="34"/>
-      <c r="R122" s="37"/>
-      <c r="S122" s="38"/>
       <c r="T122" s="34"/>
       <c r="U122" s="85"/>
       <c r="V122" s="34"/>
@@ -12725,8 +12603,6 @@
       <c r="O123" s="85"/>
       <c r="P123" s="85"/>
       <c r="Q123" s="34"/>
-      <c r="R123" s="37"/>
-      <c r="S123" s="38"/>
       <c r="T123" s="34"/>
       <c r="U123" s="85"/>
       <c r="V123" s="34"/>
@@ -12753,8 +12629,6 @@
       <c r="O124" s="85"/>
       <c r="P124" s="85"/>
       <c r="Q124" s="34"/>
-      <c r="R124" s="37"/>
-      <c r="S124" s="38"/>
       <c r="T124" s="34"/>
       <c r="U124" s="85"/>
       <c r="V124" s="34"/>
@@ -12781,8 +12655,6 @@
       <c r="O125" s="85"/>
       <c r="P125" s="85"/>
       <c r="Q125" s="34"/>
-      <c r="R125" s="37"/>
-      <c r="S125" s="38"/>
       <c r="T125" s="34"/>
       <c r="U125" s="85"/>
       <c r="V125" s="34"/>
@@ -12809,8 +12681,6 @@
       <c r="O126" s="85"/>
       <c r="P126" s="85"/>
       <c r="Q126" s="34"/>
-      <c r="R126" s="37"/>
-      <c r="S126" s="38"/>
       <c r="T126" s="34"/>
       <c r="U126" s="85"/>
       <c r="V126" s="34"/>
@@ -12837,8 +12707,6 @@
       <c r="O127" s="85"/>
       <c r="P127" s="85"/>
       <c r="Q127" s="34"/>
-      <c r="R127" s="37"/>
-      <c r="S127" s="38"/>
       <c r="T127" s="34"/>
       <c r="U127" s="85"/>
       <c r="V127" s="34"/>
@@ -12865,8 +12733,6 @@
       <c r="O128" s="85"/>
       <c r="P128" s="85"/>
       <c r="Q128" s="34"/>
-      <c r="R128" s="37"/>
-      <c r="S128" s="38"/>
       <c r="T128" s="34"/>
       <c r="U128" s="85"/>
       <c r="V128" s="34"/>
@@ -12893,8 +12759,6 @@
       <c r="O129" s="85"/>
       <c r="P129" s="85"/>
       <c r="Q129" s="34"/>
-      <c r="R129" s="37"/>
-      <c r="S129" s="38"/>
       <c r="T129" s="34"/>
       <c r="U129" s="85"/>
       <c r="V129" s="34"/>
@@ -12921,8 +12785,6 @@
       <c r="O130" s="85"/>
       <c r="P130" s="85"/>
       <c r="Q130" s="34"/>
-      <c r="R130" s="37"/>
-      <c r="S130" s="38"/>
       <c r="T130" s="34"/>
       <c r="U130" s="85"/>
       <c r="V130" s="34"/>
@@ -12949,8 +12811,6 @@
       <c r="O131" s="85"/>
       <c r="P131" s="85"/>
       <c r="Q131" s="34"/>
-      <c r="R131" s="37"/>
-      <c r="S131" s="38"/>
       <c r="T131" s="34"/>
       <c r="U131" s="85"/>
       <c r="V131" s="34"/>
@@ -12977,8 +12837,6 @@
       <c r="O132" s="85"/>
       <c r="P132" s="85"/>
       <c r="Q132" s="34"/>
-      <c r="R132" s="37"/>
-      <c r="S132" s="38"/>
       <c r="T132" s="34"/>
       <c r="U132" s="85"/>
       <c r="V132" s="34"/>
@@ -13005,8 +12863,6 @@
       <c r="O133" s="85"/>
       <c r="P133" s="85"/>
       <c r="Q133" s="34"/>
-      <c r="R133" s="37"/>
-      <c r="S133" s="38"/>
       <c r="T133" s="34"/>
       <c r="U133" s="85"/>
       <c r="V133" s="34"/>
@@ -13033,8 +12889,6 @@
       <c r="O134" s="85"/>
       <c r="P134" s="85"/>
       <c r="Q134" s="34"/>
-      <c r="R134" s="37"/>
-      <c r="S134" s="38"/>
       <c r="T134" s="34"/>
       <c r="U134" s="85"/>
       <c r="V134" s="34"/>
@@ -13061,8 +12915,6 @@
       <c r="O135" s="85"/>
       <c r="P135" s="85"/>
       <c r="Q135" s="34"/>
-      <c r="R135" s="37"/>
-      <c r="S135" s="38"/>
       <c r="T135" s="34"/>
       <c r="U135" s="85"/>
       <c r="V135" s="34"/>
@@ -13089,8 +12941,6 @@
       <c r="O136" s="85"/>
       <c r="P136" s="85"/>
       <c r="Q136" s="34"/>
-      <c r="R136" s="37"/>
-      <c r="S136" s="38"/>
       <c r="T136" s="34"/>
       <c r="U136" s="85"/>
       <c r="V136" s="34"/>
@@ -13117,8 +12967,6 @@
       <c r="O137" s="85"/>
       <c r="P137" s="85"/>
       <c r="Q137" s="34"/>
-      <c r="R137" s="37"/>
-      <c r="S137" s="38"/>
       <c r="T137" s="34"/>
       <c r="U137" s="85"/>
       <c r="V137" s="34"/>
@@ -13145,8 +12993,6 @@
       <c r="O138" s="85"/>
       <c r="P138" s="85"/>
       <c r="Q138" s="34"/>
-      <c r="R138" s="37"/>
-      <c r="S138" s="38"/>
       <c r="T138" s="34"/>
       <c r="U138" s="85"/>
       <c r="V138" s="34"/>
@@ -13173,8 +13019,6 @@
       <c r="O139" s="85"/>
       <c r="P139" s="85"/>
       <c r="Q139" s="34"/>
-      <c r="R139" s="37"/>
-      <c r="S139" s="38"/>
       <c r="T139" s="34"/>
       <c r="U139" s="85"/>
       <c r="V139" s="34"/>
@@ -13201,8 +13045,6 @@
       <c r="O140" s="85"/>
       <c r="P140" s="85"/>
       <c r="Q140" s="34"/>
-      <c r="R140" s="37"/>
-      <c r="S140" s="38"/>
       <c r="T140" s="34"/>
       <c r="U140" s="85"/>
       <c r="V140" s="34"/>
@@ -13229,8 +13071,6 @@
       <c r="O141" s="85"/>
       <c r="P141" s="85"/>
       <c r="Q141" s="34"/>
-      <c r="R141" s="37"/>
-      <c r="S141" s="38"/>
       <c r="T141" s="34"/>
       <c r="U141" s="85"/>
       <c r="V141" s="34"/>
@@ -13257,8 +13097,6 @@
       <c r="O142" s="85"/>
       <c r="P142" s="85"/>
       <c r="Q142" s="34"/>
-      <c r="R142" s="37"/>
-      <c r="S142" s="38"/>
       <c r="T142" s="34"/>
       <c r="U142" s="85"/>
       <c r="V142" s="34"/>
@@ -13285,8 +13123,6 @@
       <c r="O143" s="85"/>
       <c r="P143" s="85"/>
       <c r="Q143" s="34"/>
-      <c r="R143" s="37"/>
-      <c r="S143" s="38"/>
       <c r="T143" s="34"/>
       <c r="U143" s="85"/>
       <c r="V143" s="34"/>
@@ -13313,8 +13149,6 @@
       <c r="O144" s="85"/>
       <c r="P144" s="85"/>
       <c r="Q144" s="34"/>
-      <c r="R144" s="37"/>
-      <c r="S144" s="38"/>
       <c r="T144" s="34"/>
       <c r="U144" s="85"/>
       <c r="V144" s="34"/>
@@ -13341,8 +13175,6 @@
       <c r="O145" s="85"/>
       <c r="P145" s="85"/>
       <c r="Q145" s="34"/>
-      <c r="R145" s="37"/>
-      <c r="S145" s="38"/>
       <c r="T145" s="34"/>
       <c r="U145" s="85"/>
       <c r="V145" s="34"/>
@@ -13369,8 +13201,6 @@
       <c r="O146" s="85"/>
       <c r="P146" s="85"/>
       <c r="Q146" s="34"/>
-      <c r="R146" s="37"/>
-      <c r="S146" s="38"/>
       <c r="T146" s="34"/>
       <c r="U146" s="85"/>
       <c r="V146" s="34"/>
@@ -13397,8 +13227,6 @@
       <c r="O147" s="85"/>
       <c r="P147" s="85"/>
       <c r="Q147" s="34"/>
-      <c r="R147" s="37"/>
-      <c r="S147" s="38"/>
       <c r="T147" s="34"/>
       <c r="U147" s="85"/>
       <c r="V147" s="34"/>
@@ -13425,8 +13253,6 @@
       <c r="O148" s="85"/>
       <c r="P148" s="85"/>
       <c r="Q148" s="34"/>
-      <c r="R148" s="37"/>
-      <c r="S148" s="38"/>
       <c r="T148" s="34"/>
       <c r="U148" s="85"/>
       <c r="V148" s="34"/>
@@ -13453,8 +13279,6 @@
       <c r="O149" s="85"/>
       <c r="P149" s="85"/>
       <c r="Q149" s="34"/>
-      <c r="R149" s="37"/>
-      <c r="S149" s="38"/>
       <c r="T149" s="34"/>
       <c r="U149" s="85"/>
       <c r="V149" s="34"/>
@@ -13481,8 +13305,6 @@
       <c r="O150" s="85"/>
       <c r="P150" s="85"/>
       <c r="Q150" s="34"/>
-      <c r="R150" s="37"/>
-      <c r="S150" s="38"/>
       <c r="T150" s="34"/>
       <c r="U150" s="85"/>
       <c r="V150" s="34"/>
@@ -13509,8 +13331,6 @@
       <c r="O151" s="85"/>
       <c r="P151" s="85"/>
       <c r="Q151" s="34"/>
-      <c r="R151" s="37"/>
-      <c r="S151" s="38"/>
       <c r="T151" s="34"/>
       <c r="U151" s="85"/>
       <c r="V151" s="34"/>
@@ -13537,8 +13357,6 @@
       <c r="O152" s="85"/>
       <c r="P152" s="85"/>
       <c r="Q152" s="34"/>
-      <c r="R152" s="37"/>
-      <c r="S152" s="38"/>
       <c r="T152" s="34"/>
       <c r="U152" s="85"/>
       <c r="V152" s="34"/>
@@ -13565,8 +13383,6 @@
       <c r="O153" s="85"/>
       <c r="P153" s="85"/>
       <c r="Q153" s="34"/>
-      <c r="R153" s="37"/>
-      <c r="S153" s="38"/>
       <c r="T153" s="34"/>
       <c r="U153" s="85"/>
       <c r="V153" s="34"/>
@@ -13593,8 +13409,6 @@
       <c r="O154" s="85"/>
       <c r="P154" s="85"/>
       <c r="Q154" s="34"/>
-      <c r="R154" s="37"/>
-      <c r="S154" s="38"/>
       <c r="T154" s="34"/>
       <c r="U154" s="85"/>
       <c r="V154" s="34"/>
@@ -13621,8 +13435,6 @@
       <c r="O155" s="85"/>
       <c r="P155" s="85"/>
       <c r="Q155" s="34"/>
-      <c r="R155" s="37"/>
-      <c r="S155" s="38"/>
       <c r="T155" s="34"/>
       <c r="U155" s="85"/>
       <c r="V155" s="34"/>
@@ -13649,8 +13461,6 @@
       <c r="O156" s="85"/>
       <c r="P156" s="85"/>
       <c r="Q156" s="34"/>
-      <c r="R156" s="37"/>
-      <c r="S156" s="38"/>
       <c r="T156" s="34"/>
       <c r="U156" s="85"/>
       <c r="V156" s="34"/>
@@ -13677,8 +13487,6 @@
       <c r="O157" s="85"/>
       <c r="P157" s="85"/>
       <c r="Q157" s="34"/>
-      <c r="R157" s="37"/>
-      <c r="S157" s="38"/>
       <c r="T157" s="34"/>
       <c r="U157" s="85"/>
       <c r="V157" s="34"/>
@@ -13705,8 +13513,6 @@
       <c r="O158" s="85"/>
       <c r="P158" s="85"/>
       <c r="Q158" s="34"/>
-      <c r="R158" s="37"/>
-      <c r="S158" s="38"/>
       <c r="T158" s="34"/>
       <c r="U158" s="85"/>
       <c r="V158" s="34"/>
@@ -13733,8 +13539,6 @@
       <c r="O159" s="85"/>
       <c r="P159" s="85"/>
       <c r="Q159" s="34"/>
-      <c r="R159" s="37"/>
-      <c r="S159" s="38"/>
       <c r="T159" s="34"/>
       <c r="U159" s="85"/>
       <c r="V159" s="34"/>
@@ -13761,8 +13565,6 @@
       <c r="O160" s="85"/>
       <c r="P160" s="85"/>
       <c r="Q160" s="34"/>
-      <c r="R160" s="37"/>
-      <c r="S160" s="38"/>
       <c r="T160" s="34"/>
       <c r="U160" s="85"/>
       <c r="V160" s="34"/>
@@ -13789,8 +13591,6 @@
       <c r="O161" s="85"/>
       <c r="P161" s="85"/>
       <c r="Q161" s="34"/>
-      <c r="R161" s="37"/>
-      <c r="S161" s="38"/>
       <c r="T161" s="34"/>
       <c r="U161" s="85"/>
       <c r="V161" s="34"/>
@@ -13817,8 +13617,6 @@
       <c r="O162" s="85"/>
       <c r="P162" s="85"/>
       <c r="Q162" s="34"/>
-      <c r="R162" s="37"/>
-      <c r="S162" s="38"/>
       <c r="T162" s="34"/>
       <c r="U162" s="85"/>
       <c r="V162" s="34"/>
@@ -13845,8 +13643,6 @@
       <c r="O163" s="85"/>
       <c r="P163" s="85"/>
       <c r="Q163" s="34"/>
-      <c r="R163" s="37"/>
-      <c r="S163" s="38"/>
       <c r="T163" s="34"/>
       <c r="U163" s="85"/>
       <c r="V163" s="34"/>
@@ -13873,8 +13669,6 @@
       <c r="O164" s="85"/>
       <c r="P164" s="85"/>
       <c r="Q164" s="34"/>
-      <c r="R164" s="37"/>
-      <c r="S164" s="38"/>
       <c r="T164" s="34"/>
       <c r="U164" s="85"/>
       <c r="V164" s="34"/>
@@ -13901,8 +13695,6 @@
       <c r="O165" s="85"/>
       <c r="P165" s="85"/>
       <c r="Q165" s="34"/>
-      <c r="R165" s="37"/>
-      <c r="S165" s="38"/>
       <c r="T165" s="34"/>
       <c r="U165" s="85"/>
       <c r="V165" s="34"/>
@@ -13929,8 +13721,6 @@
       <c r="O166" s="85"/>
       <c r="P166" s="85"/>
       <c r="Q166" s="34"/>
-      <c r="R166" s="37"/>
-      <c r="S166" s="38"/>
       <c r="T166" s="34"/>
       <c r="U166" s="85"/>
       <c r="V166" s="34"/>
@@ -13957,8 +13747,6 @@
       <c r="O167" s="85"/>
       <c r="P167" s="85"/>
       <c r="Q167" s="34"/>
-      <c r="R167" s="37"/>
-      <c r="S167" s="38"/>
       <c r="T167" s="34"/>
       <c r="U167" s="85"/>
       <c r="V167" s="34"/>
@@ -13985,8 +13773,6 @@
       <c r="O168" s="85"/>
       <c r="P168" s="85"/>
       <c r="Q168" s="34"/>
-      <c r="R168" s="37"/>
-      <c r="S168" s="38"/>
       <c r="T168" s="34"/>
       <c r="U168" s="85"/>
       <c r="V168" s="34"/>
@@ -14013,8 +13799,6 @@
       <c r="O169" s="85"/>
       <c r="P169" s="85"/>
       <c r="Q169" s="34"/>
-      <c r="R169" s="37"/>
-      <c r="S169" s="38"/>
       <c r="T169" s="34"/>
       <c r="U169" s="85"/>
       <c r="V169" s="34"/>
@@ -14041,8 +13825,6 @@
       <c r="O170" s="85"/>
       <c r="P170" s="85"/>
       <c r="Q170" s="34"/>
-      <c r="R170" s="37"/>
-      <c r="S170" s="38"/>
       <c r="T170" s="34"/>
       <c r="U170" s="85"/>
       <c r="V170" s="34"/>
@@ -14069,8 +13851,6 @@
       <c r="O171" s="85"/>
       <c r="P171" s="85"/>
       <c r="Q171" s="34"/>
-      <c r="R171" s="37"/>
-      <c r="S171" s="38"/>
       <c r="T171" s="34"/>
       <c r="U171" s="85"/>
       <c r="V171" s="34"/>
@@ -14097,8 +13877,6 @@
       <c r="O172" s="85"/>
       <c r="P172" s="85"/>
       <c r="Q172" s="34"/>
-      <c r="R172" s="37"/>
-      <c r="S172" s="38"/>
       <c r="T172" s="34"/>
       <c r="U172" s="85"/>
       <c r="V172" s="34"/>
@@ -14125,8 +13903,6 @@
       <c r="O173" s="85"/>
       <c r="P173" s="85"/>
       <c r="Q173" s="34"/>
-      <c r="R173" s="37"/>
-      <c r="S173" s="38"/>
       <c r="T173" s="34"/>
       <c r="U173" s="85"/>
       <c r="V173" s="34"/>
@@ -14153,8 +13929,6 @@
       <c r="O174" s="85"/>
       <c r="P174" s="85"/>
       <c r="Q174" s="34"/>
-      <c r="R174" s="37"/>
-      <c r="S174" s="38"/>
       <c r="T174" s="34"/>
       <c r="U174" s="85"/>
       <c r="V174" s="34"/>
@@ -14181,8 +13955,6 @@
       <c r="O175" s="85"/>
       <c r="P175" s="85"/>
       <c r="Q175" s="34"/>
-      <c r="R175" s="37"/>
-      <c r="S175" s="38"/>
       <c r="T175" s="34"/>
       <c r="U175" s="85"/>
       <c r="V175" s="34"/>
@@ -14209,8 +13981,6 @@
       <c r="O176" s="85"/>
       <c r="P176" s="85"/>
       <c r="Q176" s="34"/>
-      <c r="R176" s="37"/>
-      <c r="S176" s="38"/>
       <c r="T176" s="34"/>
       <c r="U176" s="85"/>
       <c r="V176" s="34"/>
@@ -14237,8 +14007,6 @@
       <c r="O177" s="85"/>
       <c r="P177" s="85"/>
       <c r="Q177" s="34"/>
-      <c r="R177" s="37"/>
-      <c r="S177" s="38"/>
       <c r="T177" s="34"/>
       <c r="U177" s="85"/>
       <c r="V177" s="34"/>
@@ -14265,8 +14033,6 @@
       <c r="O178" s="85"/>
       <c r="P178" s="85"/>
       <c r="Q178" s="34"/>
-      <c r="R178" s="37"/>
-      <c r="S178" s="38"/>
       <c r="T178" s="34"/>
       <c r="U178" s="85"/>
       <c r="V178" s="34"/>
@@ -14293,8 +14059,6 @@
       <c r="O179" s="85"/>
       <c r="P179" s="85"/>
       <c r="Q179" s="34"/>
-      <c r="R179" s="37"/>
-      <c r="S179" s="38"/>
       <c r="T179" s="34"/>
       <c r="U179" s="85"/>
       <c r="V179" s="34"/>
@@ -14321,8 +14085,6 @@
       <c r="O180" s="85"/>
       <c r="P180" s="85"/>
       <c r="Q180" s="34"/>
-      <c r="R180" s="37"/>
-      <c r="S180" s="38"/>
       <c r="T180" s="34"/>
       <c r="U180" s="85"/>
       <c r="V180" s="34"/>
@@ -14349,8 +14111,6 @@
       <c r="O181" s="85"/>
       <c r="P181" s="85"/>
       <c r="Q181" s="34"/>
-      <c r="R181" s="37"/>
-      <c r="S181" s="38"/>
       <c r="T181" s="34"/>
       <c r="U181" s="85"/>
       <c r="V181" s="34"/>
@@ -14377,8 +14137,6 @@
       <c r="O182" s="85"/>
       <c r="P182" s="85"/>
       <c r="Q182" s="34"/>
-      <c r="R182" s="37"/>
-      <c r="S182" s="38"/>
       <c r="T182" s="34"/>
       <c r="U182" s="85"/>
       <c r="V182" s="34"/>
@@ -14405,8 +14163,6 @@
       <c r="O183" s="85"/>
       <c r="P183" s="85"/>
       <c r="Q183" s="34"/>
-      <c r="R183" s="37"/>
-      <c r="S183" s="38"/>
       <c r="T183" s="34"/>
       <c r="U183" s="85"/>
       <c r="V183" s="34"/>
@@ -14433,8 +14189,6 @@
       <c r="O184" s="85"/>
       <c r="P184" s="85"/>
       <c r="Q184" s="34"/>
-      <c r="R184" s="37"/>
-      <c r="S184" s="38"/>
       <c r="T184" s="34"/>
       <c r="U184" s="85"/>
       <c r="V184" s="34"/>
@@ -14461,8 +14215,6 @@
       <c r="O185" s="85"/>
       <c r="P185" s="85"/>
       <c r="Q185" s="34"/>
-      <c r="R185" s="37"/>
-      <c r="S185" s="38"/>
       <c r="T185" s="34"/>
       <c r="U185" s="85"/>
       <c r="V185" s="34"/>
@@ -14489,8 +14241,6 @@
       <c r="O186" s="85"/>
       <c r="P186" s="85"/>
       <c r="Q186" s="34"/>
-      <c r="R186" s="37"/>
-      <c r="S186" s="38"/>
       <c r="T186" s="34"/>
       <c r="U186" s="85"/>
       <c r="V186" s="34"/>
@@ -14517,8 +14267,6 @@
       <c r="O187" s="85"/>
       <c r="P187" s="85"/>
       <c r="Q187" s="34"/>
-      <c r="R187" s="37"/>
-      <c r="S187" s="38"/>
       <c r="T187" s="34"/>
       <c r="U187" s="85"/>
       <c r="V187" s="34"/>
@@ -14545,8 +14293,6 @@
       <c r="O188" s="85"/>
       <c r="P188" s="85"/>
       <c r="Q188" s="34"/>
-      <c r="R188" s="37"/>
-      <c r="S188" s="38"/>
       <c r="T188" s="34"/>
       <c r="U188" s="85"/>
       <c r="V188" s="34"/>
@@ -14573,8 +14319,6 @@
       <c r="O189" s="85"/>
       <c r="P189" s="85"/>
       <c r="Q189" s="34"/>
-      <c r="R189" s="37"/>
-      <c r="S189" s="38"/>
       <c r="T189" s="34"/>
       <c r="U189" s="85"/>
       <c r="V189" s="34"/>
@@ -14601,8 +14345,6 @@
       <c r="O190" s="85"/>
       <c r="P190" s="85"/>
       <c r="Q190" s="34"/>
-      <c r="R190" s="37"/>
-      <c r="S190" s="38"/>
       <c r="T190" s="34"/>
       <c r="U190" s="85"/>
       <c r="V190" s="34"/>
@@ -14629,8 +14371,6 @@
       <c r="O191" s="85"/>
       <c r="P191" s="85"/>
       <c r="Q191" s="34"/>
-      <c r="R191" s="37"/>
-      <c r="S191" s="38"/>
       <c r="T191" s="34"/>
       <c r="U191" s="85"/>
       <c r="V191" s="34"/>
@@ -14657,8 +14397,6 @@
       <c r="O192" s="85"/>
       <c r="P192" s="85"/>
       <c r="Q192" s="34"/>
-      <c r="R192" s="37"/>
-      <c r="S192" s="38"/>
       <c r="T192" s="34"/>
       <c r="U192" s="85"/>
       <c r="V192" s="34"/>
@@ -14685,8 +14423,6 @@
       <c r="O193" s="85"/>
       <c r="P193" s="85"/>
       <c r="Q193" s="34"/>
-      <c r="R193" s="37"/>
-      <c r="S193" s="38"/>
       <c r="T193" s="34"/>
       <c r="U193" s="85"/>
       <c r="V193" s="34"/>
@@ -14713,8 +14449,6 @@
       <c r="O194" s="85"/>
       <c r="P194" s="85"/>
       <c r="Q194" s="34"/>
-      <c r="R194" s="37"/>
-      <c r="S194" s="38"/>
       <c r="T194" s="34"/>
       <c r="U194" s="85"/>
       <c r="V194" s="34"/>
@@ -14741,8 +14475,6 @@
       <c r="O195" s="85"/>
       <c r="P195" s="85"/>
       <c r="Q195" s="34"/>
-      <c r="R195" s="37"/>
-      <c r="S195" s="38"/>
       <c r="T195" s="34"/>
       <c r="U195" s="85"/>
       <c r="V195" s="34"/>
@@ -14769,8 +14501,6 @@
       <c r="O196" s="85"/>
       <c r="P196" s="85"/>
       <c r="Q196" s="34"/>
-      <c r="R196" s="37"/>
-      <c r="S196" s="38"/>
       <c r="T196" s="34"/>
       <c r="U196" s="85"/>
       <c r="V196" s="34"/>
@@ -14797,8 +14527,6 @@
       <c r="O197" s="85"/>
       <c r="P197" s="85"/>
       <c r="Q197" s="34"/>
-      <c r="R197" s="37"/>
-      <c r="S197" s="38"/>
       <c r="T197" s="34"/>
       <c r="U197" s="85"/>
       <c r="V197" s="34"/>
@@ -14825,8 +14553,6 @@
       <c r="O198" s="85"/>
       <c r="P198" s="85"/>
       <c r="Q198" s="34"/>
-      <c r="R198" s="37"/>
-      <c r="S198" s="38"/>
       <c r="T198" s="34"/>
       <c r="U198" s="85"/>
       <c r="V198" s="34"/>
@@ -14853,8 +14579,6 @@
       <c r="O199" s="85"/>
       <c r="P199" s="85"/>
       <c r="Q199" s="34"/>
-      <c r="R199" s="37"/>
-      <c r="S199" s="38"/>
       <c r="T199" s="34"/>
       <c r="U199" s="85"/>
       <c r="V199" s="34"/>
@@ -14881,8 +14605,6 @@
       <c r="O200" s="85"/>
       <c r="P200" s="85"/>
       <c r="Q200" s="34"/>
-      <c r="R200" s="37"/>
-      <c r="S200" s="38"/>
       <c r="T200" s="34"/>
       <c r="U200" s="85"/>
       <c r="V200" s="34"/>
@@ -14909,8 +14631,6 @@
       <c r="O201" s="85"/>
       <c r="P201" s="85"/>
       <c r="Q201" s="34"/>
-      <c r="R201" s="37"/>
-      <c r="S201" s="38"/>
       <c r="T201" s="34"/>
       <c r="U201" s="85"/>
       <c r="V201" s="34"/>
@@ -14937,8 +14657,6 @@
       <c r="O202" s="85"/>
       <c r="P202" s="85"/>
       <c r="Q202" s="34"/>
-      <c r="R202" s="37"/>
-      <c r="S202" s="38"/>
       <c r="T202" s="34"/>
       <c r="U202" s="85"/>
       <c r="V202" s="34"/>
@@ -14965,8 +14683,6 @@
       <c r="O203" s="85"/>
       <c r="P203" s="85"/>
       <c r="Q203" s="34"/>
-      <c r="R203" s="37"/>
-      <c r="S203" s="38"/>
       <c r="T203" s="34"/>
       <c r="U203" s="85"/>
       <c r="V203" s="34"/>
@@ -14993,8 +14709,6 @@
       <c r="O204" s="85"/>
       <c r="P204" s="85"/>
       <c r="Q204" s="34"/>
-      <c r="R204" s="37"/>
-      <c r="S204" s="38"/>
       <c r="T204" s="34"/>
       <c r="U204" s="85"/>
       <c r="V204" s="34"/>
@@ -15021,8 +14735,6 @@
       <c r="O205" s="85"/>
       <c r="P205" s="85"/>
       <c r="Q205" s="34"/>
-      <c r="R205" s="37"/>
-      <c r="S205" s="38"/>
       <c r="T205" s="34"/>
       <c r="U205" s="85"/>
       <c r="V205" s="34"/>
@@ -15049,8 +14761,6 @@
       <c r="O206" s="85"/>
       <c r="P206" s="85"/>
       <c r="Q206" s="34"/>
-      <c r="R206" s="37"/>
-      <c r="S206" s="38"/>
       <c r="T206" s="34"/>
       <c r="U206" s="85"/>
       <c r="V206" s="34"/>
@@ -15077,8 +14787,6 @@
       <c r="O207" s="85"/>
       <c r="P207" s="85"/>
       <c r="Q207" s="34"/>
-      <c r="R207" s="37"/>
-      <c r="S207" s="38"/>
       <c r="T207" s="34"/>
       <c r="U207" s="85"/>
       <c r="V207" s="34"/>
@@ -15105,8 +14813,6 @@
       <c r="O208" s="85"/>
       <c r="P208" s="85"/>
       <c r="Q208" s="34"/>
-      <c r="R208" s="37"/>
-      <c r="S208" s="38"/>
       <c r="T208" s="34"/>
       <c r="U208" s="85"/>
       <c r="V208" s="34"/>
@@ -15133,8 +14839,6 @@
       <c r="O209" s="85"/>
       <c r="P209" s="85"/>
       <c r="Q209" s="34"/>
-      <c r="R209" s="37"/>
-      <c r="S209" s="38"/>
       <c r="T209" s="34"/>
       <c r="U209" s="85"/>
       <c r="V209" s="34"/>
@@ -15161,8 +14865,6 @@
       <c r="O210" s="85"/>
       <c r="P210" s="85"/>
       <c r="Q210" s="34"/>
-      <c r="R210" s="37"/>
-      <c r="S210" s="38"/>
       <c r="T210" s="34"/>
       <c r="U210" s="85"/>
       <c r="V210" s="34"/>
@@ -15189,8 +14891,6 @@
       <c r="O211" s="85"/>
       <c r="P211" s="85"/>
       <c r="Q211" s="34"/>
-      <c r="R211" s="37"/>
-      <c r="S211" s="38"/>
       <c r="T211" s="34"/>
       <c r="U211" s="85"/>
       <c r="V211" s="34"/>
@@ -15217,8 +14917,6 @@
       <c r="O212" s="85"/>
       <c r="P212" s="85"/>
       <c r="Q212" s="34"/>
-      <c r="R212" s="37"/>
-      <c r="S212" s="38"/>
       <c r="T212" s="34"/>
       <c r="U212" s="85"/>
       <c r="V212" s="34"/>
@@ -15245,8 +14943,6 @@
       <c r="O213" s="85"/>
       <c r="P213" s="85"/>
       <c r="Q213" s="34"/>
-      <c r="R213" s="37"/>
-      <c r="S213" s="38"/>
       <c r="T213" s="34"/>
       <c r="U213" s="85"/>
       <c r="V213" s="34"/>
@@ -15273,8 +14969,6 @@
       <c r="O214" s="85"/>
       <c r="P214" s="85"/>
       <c r="Q214" s="34"/>
-      <c r="R214" s="37"/>
-      <c r="S214" s="38"/>
       <c r="T214" s="34"/>
       <c r="U214" s="85"/>
       <c r="V214" s="34"/>
@@ -15301,8 +14995,6 @@
       <c r="O215" s="85"/>
       <c r="P215" s="85"/>
       <c r="Q215" s="34"/>
-      <c r="R215" s="37"/>
-      <c r="S215" s="38"/>
       <c r="T215" s="34"/>
       <c r="U215" s="85"/>
       <c r="V215" s="34"/>
@@ -15329,8 +15021,6 @@
       <c r="O216" s="85"/>
       <c r="P216" s="85"/>
       <c r="Q216" s="34"/>
-      <c r="R216" s="37"/>
-      <c r="S216" s="38"/>
       <c r="T216" s="34"/>
       <c r="U216" s="85"/>
       <c r="V216" s="34"/>
@@ -15357,8 +15047,6 @@
       <c r="O217" s="85"/>
       <c r="P217" s="85"/>
       <c r="Q217" s="34"/>
-      <c r="R217" s="37"/>
-      <c r="S217" s="38"/>
       <c r="T217" s="34"/>
       <c r="U217" s="85"/>
       <c r="V217" s="34"/>
@@ -15385,8 +15073,6 @@
       <c r="O218" s="85"/>
       <c r="P218" s="85"/>
       <c r="Q218" s="34"/>
-      <c r="R218" s="37"/>
-      <c r="S218" s="38"/>
       <c r="T218" s="34"/>
       <c r="U218" s="85"/>
       <c r="V218" s="34"/>
@@ -15413,8 +15099,6 @@
       <c r="O219" s="85"/>
       <c r="P219" s="85"/>
       <c r="Q219" s="34"/>
-      <c r="R219" s="37"/>
-      <c r="S219" s="38"/>
       <c r="T219" s="34"/>
       <c r="U219" s="85"/>
       <c r="V219" s="34"/>
@@ -15441,8 +15125,6 @@
       <c r="O220" s="85"/>
       <c r="P220" s="85"/>
       <c r="Q220" s="34"/>
-      <c r="R220" s="37"/>
-      <c r="S220" s="38"/>
       <c r="T220" s="34"/>
       <c r="U220" s="85"/>
       <c r="V220" s="34"/>
@@ -15469,8 +15151,6 @@
       <c r="O221" s="85"/>
       <c r="P221" s="85"/>
       <c r="Q221" s="34"/>
-      <c r="R221" s="37"/>
-      <c r="S221" s="38"/>
       <c r="T221" s="34"/>
       <c r="U221" s="85"/>
       <c r="V221" s="34"/>
@@ -15497,8 +15177,6 @@
       <c r="O222" s="85"/>
       <c r="P222" s="85"/>
       <c r="Q222" s="34"/>
-      <c r="R222" s="37"/>
-      <c r="S222" s="38"/>
       <c r="T222" s="34"/>
       <c r="U222" s="85"/>
       <c r="V222" s="34"/>
@@ -15525,8 +15203,6 @@
       <c r="O223" s="85"/>
       <c r="P223" s="85"/>
       <c r="Q223" s="34"/>
-      <c r="R223" s="37"/>
-      <c r="S223" s="38"/>
       <c r="T223" s="34"/>
       <c r="U223" s="85"/>
       <c r="V223" s="34"/>
@@ -15553,8 +15229,6 @@
       <c r="O224" s="85"/>
       <c r="P224" s="85"/>
       <c r="Q224" s="34"/>
-      <c r="R224" s="37"/>
-      <c r="S224" s="38"/>
       <c r="T224" s="34"/>
       <c r="U224" s="85"/>
       <c r="V224" s="34"/>
@@ -15581,8 +15255,6 @@
       <c r="O225" s="85"/>
       <c r="P225" s="85"/>
       <c r="Q225" s="34"/>
-      <c r="R225" s="37"/>
-      <c r="S225" s="38"/>
       <c r="T225" s="34"/>
       <c r="U225" s="85"/>
       <c r="V225" s="34"/>
@@ -15609,8 +15281,6 @@
       <c r="O226" s="85"/>
       <c r="P226" s="85"/>
       <c r="Q226" s="34"/>
-      <c r="R226" s="37"/>
-      <c r="S226" s="38"/>
       <c r="T226" s="34"/>
       <c r="U226" s="85"/>
       <c r="V226" s="34"/>
@@ -15637,8 +15307,6 @@
       <c r="O227" s="85"/>
       <c r="P227" s="85"/>
       <c r="Q227" s="34"/>
-      <c r="R227" s="37"/>
-      <c r="S227" s="38"/>
       <c r="T227" s="34"/>
       <c r="U227" s="85"/>
       <c r="V227" s="34"/>
@@ -15665,8 +15333,6 @@
       <c r="O228" s="85"/>
       <c r="P228" s="85"/>
       <c r="Q228" s="34"/>
-      <c r="R228" s="37"/>
-      <c r="S228" s="38"/>
       <c r="T228" s="34"/>
       <c r="U228" s="85"/>
       <c r="V228" s="34"/>
@@ -15693,8 +15359,6 @@
       <c r="O229" s="85"/>
       <c r="P229" s="85"/>
       <c r="Q229" s="34"/>
-      <c r="R229" s="37"/>
-      <c r="S229" s="38"/>
       <c r="T229" s="34"/>
       <c r="U229" s="85"/>
       <c r="V229" s="34"/>
@@ -15721,8 +15385,6 @@
       <c r="O230" s="85"/>
       <c r="P230" s="85"/>
       <c r="Q230" s="34"/>
-      <c r="R230" s="37"/>
-      <c r="S230" s="38"/>
       <c r="T230" s="34"/>
       <c r="U230" s="85"/>
       <c r="V230" s="34"/>
@@ -15749,8 +15411,6 @@
       <c r="O231" s="85"/>
       <c r="P231" s="85"/>
       <c r="Q231" s="34"/>
-      <c r="R231" s="37"/>
-      <c r="S231" s="38"/>
       <c r="T231" s="34"/>
       <c r="U231" s="85"/>
       <c r="V231" s="34"/>
@@ -15777,8 +15437,6 @@
       <c r="O232" s="85"/>
       <c r="P232" s="85"/>
       <c r="Q232" s="34"/>
-      <c r="R232" s="37"/>
-      <c r="S232" s="38"/>
       <c r="T232" s="34"/>
       <c r="U232" s="85"/>
       <c r="V232" s="34"/>
@@ -15805,8 +15463,6 @@
       <c r="O233" s="85"/>
       <c r="P233" s="85"/>
       <c r="Q233" s="34"/>
-      <c r="R233" s="37"/>
-      <c r="S233" s="38"/>
       <c r="T233" s="34"/>
       <c r="U233" s="85"/>
       <c r="V233" s="34"/>
@@ -15833,8 +15489,6 @@
       <c r="O234" s="85"/>
       <c r="P234" s="85"/>
       <c r="Q234" s="34"/>
-      <c r="R234" s="37"/>
-      <c r="S234" s="38"/>
       <c r="T234" s="34"/>
       <c r="U234" s="85"/>
       <c r="V234" s="34"/>
@@ -15861,8 +15515,6 @@
       <c r="O235" s="85"/>
       <c r="P235" s="85"/>
       <c r="Q235" s="34"/>
-      <c r="R235" s="37"/>
-      <c r="S235" s="38"/>
       <c r="T235" s="34"/>
       <c r="U235" s="85"/>
       <c r="V235" s="34"/>
@@ -15889,8 +15541,6 @@
       <c r="O236" s="85"/>
       <c r="P236" s="85"/>
       <c r="Q236" s="34"/>
-      <c r="R236" s="37"/>
-      <c r="S236" s="38"/>
       <c r="T236" s="34"/>
       <c r="U236" s="85"/>
       <c r="V236" s="34"/>
@@ -15917,8 +15567,6 @@
       <c r="O237" s="85"/>
       <c r="P237" s="85"/>
       <c r="Q237" s="34"/>
-      <c r="R237" s="37"/>
-      <c r="S237" s="38"/>
       <c r="T237" s="34"/>
       <c r="U237" s="85"/>
       <c r="V237" s="34"/>
@@ -15945,8 +15593,6 @@
       <c r="O238" s="85"/>
       <c r="P238" s="85"/>
       <c r="Q238" s="34"/>
-      <c r="R238" s="37"/>
-      <c r="S238" s="38"/>
       <c r="T238" s="34"/>
       <c r="U238" s="85"/>
       <c r="V238" s="34"/>
@@ -15973,8 +15619,6 @@
       <c r="O239" s="85"/>
       <c r="P239" s="85"/>
       <c r="Q239" s="34"/>
-      <c r="R239" s="37"/>
-      <c r="S239" s="38"/>
       <c r="T239" s="34"/>
       <c r="U239" s="85"/>
       <c r="V239" s="34"/>
@@ -16001,8 +15645,6 @@
       <c r="O240" s="85"/>
       <c r="P240" s="85"/>
       <c r="Q240" s="34"/>
-      <c r="R240" s="37"/>
-      <c r="S240" s="38"/>
       <c r="T240" s="34"/>
       <c r="U240" s="85"/>
       <c r="V240" s="34"/>
@@ -16029,8 +15671,6 @@
       <c r="O241" s="85"/>
       <c r="P241" s="85"/>
       <c r="Q241" s="34"/>
-      <c r="R241" s="37"/>
-      <c r="S241" s="38"/>
       <c r="T241" s="34"/>
       <c r="U241" s="85"/>
       <c r="V241" s="34"/>
@@ -16057,8 +15697,6 @@
       <c r="O242" s="85"/>
       <c r="P242" s="85"/>
       <c r="Q242" s="34"/>
-      <c r="R242" s="37"/>
-      <c r="S242" s="38"/>
       <c r="T242" s="34"/>
       <c r="U242" s="85"/>
       <c r="V242" s="34"/>
@@ -16085,8 +15723,6 @@
       <c r="O243" s="85"/>
       <c r="P243" s="85"/>
       <c r="Q243" s="34"/>
-      <c r="R243" s="37"/>
-      <c r="S243" s="38"/>
       <c r="T243" s="34"/>
       <c r="U243" s="85"/>
       <c r="V243" s="34"/>
@@ -16113,8 +15749,6 @@
       <c r="O244" s="85"/>
       <c r="P244" s="85"/>
       <c r="Q244" s="34"/>
-      <c r="R244" s="37"/>
-      <c r="S244" s="38"/>
       <c r="T244" s="34"/>
       <c r="U244" s="85"/>
       <c r="V244" s="34"/>
@@ -16141,8 +15775,6 @@
       <c r="O245" s="85"/>
       <c r="P245" s="85"/>
       <c r="Q245" s="34"/>
-      <c r="R245" s="37"/>
-      <c r="S245" s="38"/>
       <c r="T245" s="34"/>
       <c r="U245" s="85"/>
       <c r="V245" s="34"/>
@@ -16169,8 +15801,6 @@
       <c r="O246" s="85"/>
       <c r="P246" s="85"/>
       <c r="Q246" s="34"/>
-      <c r="R246" s="37"/>
-      <c r="S246" s="38"/>
       <c r="T246" s="34"/>
       <c r="U246" s="85"/>
       <c r="V246" s="34"/>
@@ -16197,8 +15827,6 @@
       <c r="O247" s="85"/>
       <c r="P247" s="85"/>
       <c r="Q247" s="34"/>
-      <c r="R247" s="37"/>
-      <c r="S247" s="38"/>
       <c r="T247" s="34"/>
       <c r="U247" s="85"/>
       <c r="V247" s="34"/>
@@ -16225,8 +15853,6 @@
       <c r="O248" s="85"/>
       <c r="P248" s="85"/>
       <c r="Q248" s="34"/>
-      <c r="R248" s="37"/>
-      <c r="S248" s="38"/>
       <c r="T248" s="34"/>
       <c r="U248" s="85"/>
       <c r="V248" s="34"/>
@@ -16253,8 +15879,6 @@
       <c r="O249" s="85"/>
       <c r="P249" s="85"/>
       <c r="Q249" s="34"/>
-      <c r="R249" s="37"/>
-      <c r="S249" s="38"/>
       <c r="T249" s="34"/>
       <c r="U249" s="85"/>
       <c r="V249" s="34"/>
@@ -16281,8 +15905,6 @@
       <c r="O250" s="85"/>
       <c r="P250" s="85"/>
       <c r="Q250" s="34"/>
-      <c r="R250" s="37"/>
-      <c r="S250" s="38"/>
       <c r="T250" s="34"/>
       <c r="U250" s="85"/>
       <c r="V250" s="34"/>
@@ -16309,8 +15931,6 @@
       <c r="O251" s="85"/>
       <c r="P251" s="85"/>
       <c r="Q251" s="34"/>
-      <c r="R251" s="37"/>
-      <c r="S251" s="38"/>
       <c r="T251" s="34"/>
       <c r="U251" s="85"/>
       <c r="V251" s="34"/>
@@ -16337,8 +15957,6 @@
       <c r="O252" s="85"/>
       <c r="P252" s="85"/>
       <c r="Q252" s="34"/>
-      <c r="R252" s="37"/>
-      <c r="S252" s="38"/>
       <c r="T252" s="34"/>
       <c r="U252" s="85"/>
       <c r="V252" s="34"/>
@@ -16365,8 +15983,6 @@
       <c r="O253" s="85"/>
       <c r="P253" s="85"/>
       <c r="Q253" s="34"/>
-      <c r="R253" s="37"/>
-      <c r="S253" s="38"/>
       <c r="T253" s="34"/>
       <c r="U253" s="85"/>
       <c r="V253" s="34"/>
@@ -16393,8 +16009,6 @@
       <c r="O254" s="85"/>
       <c r="P254" s="85"/>
       <c r="Q254" s="34"/>
-      <c r="R254" s="37"/>
-      <c r="S254" s="38"/>
       <c r="T254" s="34"/>
       <c r="U254" s="85"/>
       <c r="V254" s="34"/>
@@ -16421,8 +16035,6 @@
       <c r="O255" s="85"/>
       <c r="P255" s="85"/>
       <c r="Q255" s="34"/>
-      <c r="R255" s="37"/>
-      <c r="S255" s="38"/>
       <c r="T255" s="34"/>
       <c r="U255" s="85"/>
       <c r="V255" s="34"/>
@@ -16449,8 +16061,6 @@
       <c r="O256" s="85"/>
       <c r="P256" s="85"/>
       <c r="Q256" s="34"/>
-      <c r="R256" s="37"/>
-      <c r="S256" s="38"/>
       <c r="T256" s="34"/>
       <c r="U256" s="85"/>
       <c r="V256" s="34"/>
@@ -16477,8 +16087,6 @@
       <c r="O257" s="85"/>
       <c r="P257" s="85"/>
       <c r="Q257" s="34"/>
-      <c r="R257" s="37"/>
-      <c r="S257" s="38"/>
       <c r="T257" s="34"/>
       <c r="U257" s="85"/>
       <c r="V257" s="34"/>
@@ -16505,8 +16113,6 @@
       <c r="O258" s="85"/>
       <c r="P258" s="85"/>
       <c r="Q258" s="34"/>
-      <c r="R258" s="37"/>
-      <c r="S258" s="38"/>
       <c r="T258" s="34"/>
       <c r="U258" s="85"/>
       <c r="V258" s="34"/>
@@ -16533,8 +16139,6 @@
       <c r="O259" s="85"/>
       <c r="P259" s="85"/>
       <c r="Q259" s="34"/>
-      <c r="R259" s="37"/>
-      <c r="S259" s="38"/>
       <c r="T259" s="34"/>
       <c r="U259" s="85"/>
       <c r="V259" s="34"/>
@@ -16561,8 +16165,6 @@
       <c r="O260" s="85"/>
       <c r="P260" s="85"/>
       <c r="Q260" s="34"/>
-      <c r="R260" s="37"/>
-      <c r="S260" s="38"/>
       <c r="T260" s="34"/>
       <c r="U260" s="85"/>
       <c r="V260" s="34"/>
@@ -16589,8 +16191,6 @@
       <c r="O261" s="85"/>
       <c r="P261" s="85"/>
       <c r="Q261" s="34"/>
-      <c r="R261" s="37"/>
-      <c r="S261" s="38"/>
       <c r="T261" s="34"/>
       <c r="U261" s="85"/>
       <c r="V261" s="34"/>
@@ -16617,8 +16217,6 @@
       <c r="O262" s="85"/>
       <c r="P262" s="85"/>
       <c r="Q262" s="34"/>
-      <c r="R262" s="37"/>
-      <c r="S262" s="38"/>
       <c r="T262" s="34"/>
       <c r="U262" s="85"/>
       <c r="V262" s="34"/>
@@ -16645,8 +16243,6 @@
       <c r="O263" s="85"/>
       <c r="P263" s="85"/>
       <c r="Q263" s="34"/>
-      <c r="R263" s="37"/>
-      <c r="S263" s="38"/>
       <c r="T263" s="34"/>
       <c r="U263" s="85"/>
       <c r="V263" s="34"/>
@@ -16673,8 +16269,6 @@
       <c r="O264" s="85"/>
       <c r="P264" s="85"/>
       <c r="Q264" s="34"/>
-      <c r="R264" s="37"/>
-      <c r="S264" s="38"/>
       <c r="T264" s="34"/>
       <c r="U264" s="85"/>
       <c r="V264" s="34"/>
@@ -16701,8 +16295,6 @@
       <c r="O265" s="85"/>
       <c r="P265" s="85"/>
       <c r="Q265" s="34"/>
-      <c r="R265" s="37"/>
-      <c r="S265" s="38"/>
       <c r="T265" s="34"/>
       <c r="U265" s="85"/>
       <c r="V265" s="34"/>
@@ -16729,8 +16321,6 @@
       <c r="O266" s="85"/>
       <c r="P266" s="85"/>
       <c r="Q266" s="34"/>
-      <c r="R266" s="37"/>
-      <c r="S266" s="38"/>
       <c r="T266" s="34"/>
       <c r="U266" s="85"/>
       <c r="V266" s="34"/>
@@ -16757,8 +16347,6 @@
       <c r="O267" s="85"/>
       <c r="P267" s="85"/>
       <c r="Q267" s="34"/>
-      <c r="R267" s="37"/>
-      <c r="S267" s="38"/>
       <c r="T267" s="34"/>
       <c r="U267" s="85"/>
       <c r="V267" s="34"/>
@@ -16785,8 +16373,6 @@
       <c r="O268" s="85"/>
       <c r="P268" s="85"/>
       <c r="Q268" s="34"/>
-      <c r="R268" s="37"/>
-      <c r="S268" s="38"/>
       <c r="T268" s="34"/>
       <c r="U268" s="85"/>
       <c r="V268" s="34"/>
@@ -16813,8 +16399,6 @@
       <c r="O269" s="85"/>
       <c r="P269" s="85"/>
       <c r="Q269" s="34"/>
-      <c r="R269" s="37"/>
-      <c r="S269" s="38"/>
       <c r="T269" s="34"/>
       <c r="U269" s="85"/>
       <c r="V269" s="34"/>
@@ -16841,8 +16425,6 @@
       <c r="O270" s="85"/>
       <c r="P270" s="85"/>
       <c r="Q270" s="34"/>
-      <c r="R270" s="37"/>
-      <c r="S270" s="38"/>
       <c r="T270" s="34"/>
       <c r="U270" s="85"/>
       <c r="V270" s="34"/>
@@ -16869,8 +16451,6 @@
       <c r="O271" s="85"/>
       <c r="P271" s="85"/>
       <c r="Q271" s="34"/>
-      <c r="R271" s="37"/>
-      <c r="S271" s="38"/>
       <c r="T271" s="34"/>
       <c r="U271" s="85"/>
       <c r="V271" s="34"/>
@@ -16897,8 +16477,6 @@
       <c r="O272" s="85"/>
       <c r="P272" s="85"/>
       <c r="Q272" s="34"/>
-      <c r="R272" s="37"/>
-      <c r="S272" s="38"/>
       <c r="T272" s="34"/>
       <c r="U272" s="85"/>
       <c r="V272" s="34"/>
@@ -16925,8 +16503,6 @@
       <c r="O273" s="85"/>
       <c r="P273" s="85"/>
       <c r="Q273" s="34"/>
-      <c r="R273" s="37"/>
-      <c r="S273" s="38"/>
       <c r="T273" s="34"/>
       <c r="U273" s="85"/>
       <c r="V273" s="34"/>
@@ -16953,8 +16529,6 @@
       <c r="O274" s="85"/>
       <c r="P274" s="85"/>
       <c r="Q274" s="34"/>
-      <c r="R274" s="37"/>
-      <c r="S274" s="38"/>
       <c r="T274" s="34"/>
       <c r="U274" s="85"/>
       <c r="V274" s="34"/>
@@ -16981,8 +16555,6 @@
       <c r="O275" s="85"/>
       <c r="P275" s="85"/>
       <c r="Q275" s="34"/>
-      <c r="R275" s="37"/>
-      <c r="S275" s="38"/>
       <c r="T275" s="34"/>
       <c r="U275" s="85"/>
       <c r="V275" s="34"/>
@@ -17009,8 +16581,6 @@
       <c r="O276" s="85"/>
       <c r="P276" s="85"/>
       <c r="Q276" s="34"/>
-      <c r="R276" s="37"/>
-      <c r="S276" s="38"/>
       <c r="T276" s="34"/>
       <c r="U276" s="85"/>
       <c r="V276" s="34"/>
@@ -17037,8 +16607,6 @@
       <c r="O277" s="85"/>
       <c r="P277" s="85"/>
       <c r="Q277" s="34"/>
-      <c r="R277" s="37"/>
-      <c r="S277" s="38"/>
       <c r="T277" s="34"/>
       <c r="U277" s="85"/>
       <c r="V277" s="34"/>
@@ -17065,8 +16633,6 @@
       <c r="O278" s="85"/>
       <c r="P278" s="85"/>
       <c r="Q278" s="34"/>
-      <c r="R278" s="37"/>
-      <c r="S278" s="38"/>
       <c r="T278" s="34"/>
       <c r="U278" s="85"/>
       <c r="V278" s="34"/>
@@ -17093,8 +16659,6 @@
       <c r="O279" s="85"/>
       <c r="P279" s="85"/>
       <c r="Q279" s="34"/>
-      <c r="R279" s="37"/>
-      <c r="S279" s="38"/>
       <c r="T279" s="34"/>
       <c r="U279" s="85"/>
       <c r="V279" s="34"/>
@@ -17121,8 +16685,6 @@
       <c r="O280" s="85"/>
       <c r="P280" s="85"/>
       <c r="Q280" s="34"/>
-      <c r="R280" s="37"/>
-      <c r="S280" s="38"/>
       <c r="T280" s="34"/>
       <c r="U280" s="85"/>
       <c r="V280" s="34"/>
@@ -17149,8 +16711,6 @@
       <c r="O281" s="85"/>
       <c r="P281" s="85"/>
       <c r="Q281" s="34"/>
-      <c r="R281" s="37"/>
-      <c r="S281" s="38"/>
       <c r="T281" s="34"/>
       <c r="U281" s="85"/>
       <c r="V281" s="34"/>
@@ -17177,8 +16737,6 @@
       <c r="O282" s="85"/>
       <c r="P282" s="85"/>
       <c r="Q282" s="34"/>
-      <c r="R282" s="37"/>
-      <c r="S282" s="38"/>
       <c r="T282" s="34"/>
       <c r="U282" s="85"/>
       <c r="V282" s="34"/>
@@ -17205,8 +16763,6 @@
       <c r="O283" s="85"/>
       <c r="P283" s="85"/>
       <c r="Q283" s="34"/>
-      <c r="R283" s="37"/>
-      <c r="S283" s="38"/>
       <c r="T283" s="34"/>
       <c r="U283" s="85"/>
       <c r="V283" s="34"/>
@@ -17233,8 +16789,6 @@
       <c r="O284" s="85"/>
       <c r="P284" s="85"/>
       <c r="Q284" s="34"/>
-      <c r="R284" s="37"/>
-      <c r="S284" s="38"/>
       <c r="T284" s="34"/>
       <c r="U284" s="85"/>
       <c r="V284" s="34"/>
@@ -17261,8 +16815,6 @@
       <c r="O285" s="85"/>
       <c r="P285" s="85"/>
       <c r="Q285" s="34"/>
-      <c r="R285" s="37"/>
-      <c r="S285" s="38"/>
       <c r="T285" s="34"/>
       <c r="U285" s="85"/>
       <c r="V285" s="34"/>
@@ -17289,8 +16841,6 @@
       <c r="O286" s="85"/>
       <c r="P286" s="85"/>
       <c r="Q286" s="34"/>
-      <c r="R286" s="37"/>
-      <c r="S286" s="38"/>
       <c r="T286" s="34"/>
       <c r="U286" s="85"/>
       <c r="V286" s="34"/>
@@ -17317,8 +16867,6 @@
       <c r="O287" s="85"/>
       <c r="P287" s="85"/>
       <c r="Q287" s="34"/>
-      <c r="R287" s="37"/>
-      <c r="S287" s="38"/>
       <c r="T287" s="34"/>
       <c r="U287" s="85"/>
       <c r="V287" s="34"/>
@@ -17345,8 +16893,6 @@
       <c r="O288" s="85"/>
       <c r="P288" s="85"/>
       <c r="Q288" s="34"/>
-      <c r="R288" s="37"/>
-      <c r="S288" s="38"/>
       <c r="T288" s="34"/>
       <c r="U288" s="85"/>
       <c r="V288" s="34"/>
@@ -17373,8 +16919,6 @@
       <c r="O289" s="85"/>
       <c r="P289" s="85"/>
       <c r="Q289" s="34"/>
-      <c r="R289" s="37"/>
-      <c r="S289" s="38"/>
       <c r="T289" s="34"/>
       <c r="U289" s="85"/>
       <c r="V289" s="34"/>
@@ -17401,8 +16945,6 @@
       <c r="O290" s="85"/>
       <c r="P290" s="85"/>
       <c r="Q290" s="34"/>
-      <c r="R290" s="37"/>
-      <c r="S290" s="38"/>
       <c r="T290" s="34"/>
       <c r="U290" s="85"/>
       <c r="V290" s="34"/>
@@ -17429,8 +16971,6 @@
       <c r="O291" s="85"/>
       <c r="P291" s="85"/>
       <c r="Q291" s="34"/>
-      <c r="R291" s="37"/>
-      <c r="S291" s="38"/>
       <c r="T291" s="34"/>
       <c r="U291" s="85"/>
       <c r="V291" s="34"/>
@@ -17457,8 +16997,6 @@
       <c r="O292" s="85"/>
       <c r="P292" s="85"/>
       <c r="Q292" s="34"/>
-      <c r="R292" s="37"/>
-      <c r="S292" s="38"/>
       <c r="T292" s="34"/>
       <c r="U292" s="85"/>
       <c r="V292" s="34"/>
@@ -17485,8 +17023,6 @@
       <c r="O293" s="85"/>
       <c r="P293" s="85"/>
       <c r="Q293" s="34"/>
-      <c r="R293" s="37"/>
-      <c r="S293" s="38"/>
       <c r="T293" s="34"/>
       <c r="U293" s="85"/>
       <c r="V293" s="34"/>
@@ -17513,8 +17049,6 @@
       <c r="O294" s="85"/>
       <c r="P294" s="85"/>
       <c r="Q294" s="34"/>
-      <c r="R294" s="37"/>
-      <c r="S294" s="38"/>
       <c r="T294" s="34"/>
       <c r="U294" s="85"/>
       <c r="V294" s="34"/>
@@ -17541,8 +17075,6 @@
       <c r="O295" s="85"/>
       <c r="P295" s="85"/>
       <c r="Q295" s="34"/>
-      <c r="R295" s="37"/>
-      <c r="S295" s="38"/>
       <c r="T295" s="34"/>
       <c r="U295" s="85"/>
       <c r="V295" s="34"/>
@@ -17569,8 +17101,6 @@
       <c r="O296" s="85"/>
       <c r="P296" s="85"/>
       <c r="Q296" s="34"/>
-      <c r="R296" s="37"/>
-      <c r="S296" s="38"/>
       <c r="T296" s="34"/>
       <c r="U296" s="85"/>
       <c r="V296" s="34"/>
@@ -17597,8 +17127,6 @@
       <c r="O297" s="85"/>
       <c r="P297" s="85"/>
       <c r="Q297" s="34"/>
-      <c r="R297" s="37"/>
-      <c r="S297" s="38"/>
       <c r="T297" s="34"/>
       <c r="U297" s="85"/>
       <c r="V297" s="34"/>
@@ -17625,8 +17153,6 @@
       <c r="O298" s="85"/>
       <c r="P298" s="85"/>
       <c r="Q298" s="34"/>
-      <c r="R298" s="37"/>
-      <c r="S298" s="38"/>
       <c r="T298" s="34"/>
       <c r="U298" s="85"/>
       <c r="V298" s="34"/>
@@ -17653,8 +17179,6 @@
       <c r="O299" s="85"/>
       <c r="P299" s="85"/>
       <c r="Q299" s="34"/>
-      <c r="R299" s="37"/>
-      <c r="S299" s="38"/>
       <c r="T299" s="34"/>
       <c r="U299" s="85"/>
       <c r="V299" s="34"/>
@@ -17681,8 +17205,6 @@
       <c r="O300" s="85"/>
       <c r="P300" s="85"/>
       <c r="Q300" s="34"/>
-      <c r="R300" s="37"/>
-      <c r="S300" s="38"/>
       <c r="T300" s="34"/>
       <c r="U300" s="85"/>
       <c r="V300" s="34"/>
@@ -17709,8 +17231,6 @@
       <c r="O301" s="85"/>
       <c r="P301" s="85"/>
       <c r="Q301" s="34"/>
-      <c r="R301" s="37"/>
-      <c r="S301" s="38"/>
       <c r="T301" s="34"/>
       <c r="U301" s="85"/>
       <c r="V301" s="34"/>
@@ -17737,8 +17257,6 @@
       <c r="O302" s="85"/>
       <c r="P302" s="85"/>
       <c r="Q302" s="34"/>
-      <c r="R302" s="37"/>
-      <c r="S302" s="38"/>
       <c r="T302" s="34"/>
       <c r="U302" s="85"/>
       <c r="V302" s="34"/>
@@ -17765,8 +17283,6 @@
       <c r="O303" s="85"/>
       <c r="P303" s="85"/>
       <c r="Q303" s="34"/>
-      <c r="R303" s="37"/>
-      <c r="S303" s="38"/>
       <c r="T303" s="34"/>
       <c r="U303" s="85"/>
       <c r="V303" s="34"/>
@@ -17793,8 +17309,6 @@
       <c r="O304" s="85"/>
       <c r="P304" s="85"/>
       <c r="Q304" s="34"/>
-      <c r="R304" s="37"/>
-      <c r="S304" s="38"/>
       <c r="T304" s="34"/>
       <c r="U304" s="85"/>
       <c r="V304" s="34"/>
@@ -17821,8 +17335,6 @@
       <c r="O305" s="85"/>
       <c r="P305" s="85"/>
       <c r="Q305" s="34"/>
-      <c r="R305" s="37"/>
-      <c r="S305" s="38"/>
       <c r="T305" s="34"/>
       <c r="U305" s="85"/>
       <c r="V305" s="34"/>
@@ -17849,8 +17361,6 @@
       <c r="O306" s="85"/>
       <c r="P306" s="85"/>
       <c r="Q306" s="34"/>
-      <c r="R306" s="37"/>
-      <c r="S306" s="38"/>
       <c r="T306" s="34"/>
       <c r="U306" s="85"/>
       <c r="V306" s="34"/>
@@ -17877,8 +17387,6 @@
       <c r="O307" s="85"/>
       <c r="P307" s="85"/>
       <c r="Q307" s="34"/>
-      <c r="R307" s="37"/>
-      <c r="S307" s="38"/>
       <c r="T307" s="34"/>
       <c r="U307" s="85"/>
       <c r="V307" s="34"/>
@@ -17905,8 +17413,6 @@
       <c r="O308" s="85"/>
       <c r="P308" s="85"/>
       <c r="Q308" s="34"/>
-      <c r="R308" s="37"/>
-      <c r="S308" s="38"/>
       <c r="T308" s="34"/>
       <c r="U308" s="85"/>
       <c r="V308" s="34"/>
@@ -17933,8 +17439,6 @@
       <c r="O309" s="85"/>
       <c r="P309" s="85"/>
       <c r="Q309" s="34"/>
-      <c r="R309" s="37"/>
-      <c r="S309" s="38"/>
       <c r="T309" s="34"/>
       <c r="U309" s="85"/>
       <c r="V309" s="34"/>
@@ -17961,8 +17465,6 @@
       <c r="O310" s="85"/>
       <c r="P310" s="85"/>
       <c r="Q310" s="34"/>
-      <c r="R310" s="37"/>
-      <c r="S310" s="38"/>
       <c r="T310" s="34"/>
       <c r="U310" s="85"/>
       <c r="V310" s="34"/>
@@ -17989,8 +17491,6 @@
       <c r="O311" s="85"/>
       <c r="P311" s="85"/>
       <c r="Q311" s="34"/>
-      <c r="R311" s="37"/>
-      <c r="S311" s="38"/>
       <c r="T311" s="34"/>
       <c r="U311" s="85"/>
       <c r="V311" s="34"/>
@@ -18017,8 +17517,6 @@
       <c r="O312" s="85"/>
       <c r="P312" s="85"/>
       <c r="Q312" s="34"/>
-      <c r="R312" s="37"/>
-      <c r="S312" s="38"/>
       <c r="T312" s="34"/>
       <c r="U312" s="85"/>
       <c r="V312" s="34"/>
@@ -18045,8 +17543,6 @@
       <c r="O313" s="85"/>
       <c r="P313" s="85"/>
       <c r="Q313" s="34"/>
-      <c r="R313" s="37"/>
-      <c r="S313" s="38"/>
       <c r="T313" s="34"/>
       <c r="U313" s="85"/>
       <c r="V313" s="34"/>
@@ -18073,8 +17569,6 @@
       <c r="O314" s="85"/>
       <c r="P314" s="85"/>
       <c r="Q314" s="34"/>
-      <c r="R314" s="37"/>
-      <c r="S314" s="38"/>
       <c r="T314" s="34"/>
       <c r="U314" s="85"/>
       <c r="V314" s="34"/>
@@ -18101,8 +17595,6 @@
       <c r="O315" s="85"/>
       <c r="P315" s="85"/>
       <c r="Q315" s="34"/>
-      <c r="R315" s="37"/>
-      <c r="S315" s="38"/>
       <c r="T315" s="34"/>
       <c r="U315" s="85"/>
       <c r="V315" s="34"/>
@@ -18129,8 +17621,6 @@
       <c r="O316" s="85"/>
       <c r="P316" s="85"/>
       <c r="Q316" s="34"/>
-      <c r="R316" s="37"/>
-      <c r="S316" s="38"/>
       <c r="T316" s="34"/>
       <c r="U316" s="85"/>
       <c r="V316" s="34"/>
@@ -18157,8 +17647,6 @@
       <c r="O317" s="85"/>
       <c r="P317" s="85"/>
       <c r="Q317" s="34"/>
-      <c r="R317" s="37"/>
-      <c r="S317" s="38"/>
       <c r="T317" s="34"/>
       <c r="U317" s="85"/>
       <c r="V317" s="34"/>
@@ -18185,8 +17673,6 @@
       <c r="O318" s="85"/>
       <c r="P318" s="85"/>
       <c r="Q318" s="34"/>
-      <c r="R318" s="37"/>
-      <c r="S318" s="38"/>
       <c r="T318" s="34"/>
       <c r="U318" s="85"/>
       <c r="V318" s="34"/>
@@ -18213,8 +17699,6 @@
       <c r="O319" s="85"/>
       <c r="P319" s="85"/>
       <c r="Q319" s="34"/>
-      <c r="R319" s="37"/>
-      <c r="S319" s="38"/>
       <c r="T319" s="34"/>
       <c r="U319" s="85"/>
       <c r="V319" s="34"/>
@@ -18241,8 +17725,6 @@
       <c r="O320" s="85"/>
       <c r="P320" s="85"/>
       <c r="Q320" s="34"/>
-      <c r="R320" s="37"/>
-      <c r="S320" s="38"/>
       <c r="T320" s="34"/>
       <c r="U320" s="85"/>
       <c r="V320" s="34"/>
@@ -18269,8 +17751,6 @@
       <c r="O321" s="85"/>
       <c r="P321" s="85"/>
       <c r="Q321" s="34"/>
-      <c r="R321" s="37"/>
-      <c r="S321" s="38"/>
       <c r="T321" s="34"/>
       <c r="U321" s="85"/>
       <c r="V321" s="34"/>
@@ -18297,8 +17777,6 @@
       <c r="O322" s="85"/>
       <c r="P322" s="85"/>
       <c r="Q322" s="34"/>
-      <c r="R322" s="37"/>
-      <c r="S322" s="38"/>
       <c r="T322" s="34"/>
       <c r="U322" s="85"/>
       <c r="V322" s="34"/>
@@ -18325,8 +17803,6 @@
       <c r="O323" s="85"/>
       <c r="P323" s="85"/>
       <c r="Q323" s="34"/>
-      <c r="R323" s="37"/>
-      <c r="S323" s="38"/>
       <c r="T323" s="34"/>
       <c r="U323" s="85"/>
       <c r="V323" s="34"/>
@@ -18353,8 +17829,6 @@
       <c r="O324" s="85"/>
       <c r="P324" s="85"/>
       <c r="Q324" s="34"/>
-      <c r="R324" s="37"/>
-      <c r="S324" s="38"/>
       <c r="T324" s="34"/>
       <c r="U324" s="85"/>
       <c r="V324" s="34"/>
@@ -18381,8 +17855,6 @@
       <c r="O325" s="85"/>
       <c r="P325" s="85"/>
       <c r="Q325" s="34"/>
-      <c r="R325" s="37"/>
-      <c r="S325" s="38"/>
       <c r="T325" s="34"/>
       <c r="U325" s="85"/>
       <c r="V325" s="34"/>
@@ -18409,8 +17881,6 @@
       <c r="O326" s="85"/>
       <c r="P326" s="85"/>
       <c r="Q326" s="34"/>
-      <c r="R326" s="37"/>
-      <c r="S326" s="38"/>
       <c r="T326" s="34"/>
       <c r="U326" s="85"/>
       <c r="V326" s="34"/>
@@ -18437,8 +17907,6 @@
       <c r="O327" s="85"/>
       <c r="P327" s="85"/>
       <c r="Q327" s="34"/>
-      <c r="R327" s="37"/>
-      <c r="S327" s="38"/>
       <c r="T327" s="34"/>
       <c r="U327" s="85"/>
       <c r="V327" s="34"/>
@@ -18465,8 +17933,6 @@
       <c r="O328" s="85"/>
       <c r="P328" s="85"/>
       <c r="Q328" s="34"/>
-      <c r="R328" s="37"/>
-      <c r="S328" s="38"/>
       <c r="T328" s="34"/>
       <c r="U328" s="85"/>
       <c r="V328" s="34"/>
@@ -18493,8 +17959,6 @@
       <c r="O329" s="85"/>
       <c r="P329" s="85"/>
       <c r="Q329" s="34"/>
-      <c r="R329" s="37"/>
-      <c r="S329" s="38"/>
       <c r="T329" s="34"/>
       <c r="U329" s="85"/>
       <c r="V329" s="34"/>
@@ -18521,8 +17985,6 @@
       <c r="O330" s="85"/>
       <c r="P330" s="85"/>
       <c r="Q330" s="34"/>
-      <c r="R330" s="37"/>
-      <c r="S330" s="38"/>
       <c r="T330" s="34"/>
       <c r="U330" s="85"/>
       <c r="V330" s="34"/>
@@ -18549,8 +18011,6 @@
       <c r="O331" s="85"/>
       <c r="P331" s="85"/>
       <c r="Q331" s="34"/>
-      <c r="R331" s="37"/>
-      <c r="S331" s="38"/>
       <c r="T331" s="34"/>
       <c r="U331" s="85"/>
       <c r="V331" s="34"/>
@@ -18577,8 +18037,6 @@
       <c r="O332" s="85"/>
       <c r="P332" s="85"/>
       <c r="Q332" s="34"/>
-      <c r="R332" s="37"/>
-      <c r="S332" s="38"/>
       <c r="T332" s="34"/>
       <c r="U332" s="85"/>
       <c r="V332" s="34"/>
@@ -18605,8 +18063,6 @@
       <c r="O333" s="85"/>
       <c r="P333" s="85"/>
       <c r="Q333" s="34"/>
-      <c r="R333" s="37"/>
-      <c r="S333" s="38"/>
       <c r="T333" s="34"/>
       <c r="U333" s="85"/>
       <c r="V333" s="34"/>
@@ -18633,8 +18089,6 @@
       <c r="O334" s="85"/>
       <c r="P334" s="85"/>
       <c r="Q334" s="34"/>
-      <c r="R334" s="37"/>
-      <c r="S334" s="38"/>
       <c r="T334" s="34"/>
       <c r="U334" s="85"/>
       <c r="V334" s="34"/>
@@ -18661,8 +18115,6 @@
       <c r="O335" s="85"/>
       <c r="P335" s="85"/>
       <c r="Q335" s="34"/>
-      <c r="R335" s="37"/>
-      <c r="S335" s="38"/>
       <c r="T335" s="34"/>
       <c r="U335" s="85"/>
       <c r="V335" s="34"/>
@@ -18689,8 +18141,6 @@
       <c r="O336" s="85"/>
       <c r="P336" s="85"/>
       <c r="Q336" s="34"/>
-      <c r="R336" s="37"/>
-      <c r="S336" s="38"/>
       <c r="T336" s="34"/>
       <c r="U336" s="85"/>
       <c r="V336" s="34"/>
@@ -18717,8 +18167,6 @@
       <c r="O337" s="85"/>
       <c r="P337" s="85"/>
       <c r="Q337" s="34"/>
-      <c r="R337" s="37"/>
-      <c r="S337" s="38"/>
       <c r="T337" s="34"/>
       <c r="U337" s="85"/>
       <c r="V337" s="34"/>
@@ -18745,8 +18193,6 @@
       <c r="O338" s="85"/>
       <c r="P338" s="85"/>
       <c r="Q338" s="34"/>
-      <c r="R338" s="37"/>
-      <c r="S338" s="38"/>
       <c r="T338" s="34"/>
       <c r="U338" s="85"/>
       <c r="V338" s="34"/>
@@ -18773,8 +18219,6 @@
       <c r="O339" s="85"/>
       <c r="P339" s="85"/>
       <c r="Q339" s="34"/>
-      <c r="R339" s="37"/>
-      <c r="S339" s="38"/>
       <c r="T339" s="34"/>
       <c r="U339" s="85"/>
       <c r="V339" s="34"/>
@@ -18801,8 +18245,6 @@
       <c r="O340" s="85"/>
       <c r="P340" s="85"/>
       <c r="Q340" s="34"/>
-      <c r="R340" s="37"/>
-      <c r="S340" s="38"/>
       <c r="T340" s="34"/>
       <c r="U340" s="85"/>
       <c r="V340" s="34"/>
@@ -18829,8 +18271,6 @@
       <c r="O341" s="85"/>
       <c r="P341" s="85"/>
       <c r="Q341" s="34"/>
-      <c r="R341" s="37"/>
-      <c r="S341" s="38"/>
       <c r="T341" s="34"/>
       <c r="U341" s="85"/>
       <c r="V341" s="34"/>
@@ -18857,8 +18297,6 @@
       <c r="O342" s="85"/>
       <c r="P342" s="85"/>
       <c r="Q342" s="34"/>
-      <c r="R342" s="37"/>
-      <c r="S342" s="38"/>
       <c r="T342" s="34"/>
       <c r="U342" s="85"/>
       <c r="V342" s="34"/>
@@ -18885,8 +18323,6 @@
       <c r="O343" s="85"/>
       <c r="P343" s="85"/>
       <c r="Q343" s="34"/>
-      <c r="R343" s="37"/>
-      <c r="S343" s="38"/>
       <c r="T343" s="34"/>
       <c r="U343" s="85"/>
       <c r="V343" s="34"/>
@@ -18913,8 +18349,6 @@
       <c r="O344" s="85"/>
       <c r="P344" s="85"/>
       <c r="Q344" s="34"/>
-      <c r="R344" s="37"/>
-      <c r="S344" s="38"/>
       <c r="T344" s="34"/>
       <c r="U344" s="85"/>
       <c r="V344" s="34"/>
@@ -18941,8 +18375,6 @@
       <c r="O345" s="85"/>
       <c r="P345" s="85"/>
       <c r="Q345" s="34"/>
-      <c r="R345" s="37"/>
-      <c r="S345" s="38"/>
       <c r="T345" s="34"/>
       <c r="U345" s="85"/>
       <c r="V345" s="34"/>
@@ -18969,8 +18401,6 @@
       <c r="O346" s="85"/>
       <c r="P346" s="85"/>
       <c r="Q346" s="34"/>
-      <c r="R346" s="37"/>
-      <c r="S346" s="38"/>
       <c r="T346" s="34"/>
       <c r="U346" s="85"/>
       <c r="V346" s="34"/>
@@ -18997,8 +18427,6 @@
       <c r="O347" s="85"/>
       <c r="P347" s="85"/>
       <c r="Q347" s="34"/>
-      <c r="R347" s="37"/>
-      <c r="S347" s="38"/>
       <c r="T347" s="34"/>
       <c r="U347" s="85"/>
       <c r="V347" s="34"/>
@@ -19025,8 +18453,6 @@
       <c r="O348" s="85"/>
       <c r="P348" s="85"/>
       <c r="Q348" s="34"/>
-      <c r="R348" s="37"/>
-      <c r="S348" s="38"/>
       <c r="T348" s="34"/>
       <c r="U348" s="85"/>
       <c r="V348" s="34"/>
@@ -19053,8 +18479,6 @@
       <c r="O349" s="85"/>
       <c r="P349" s="85"/>
       <c r="Q349" s="34"/>
-      <c r="R349" s="37"/>
-      <c r="S349" s="38"/>
       <c r="T349" s="34"/>
       <c r="U349" s="85"/>
       <c r="V349" s="34"/>
@@ -19081,8 +18505,6 @@
       <c r="O350" s="85"/>
       <c r="P350" s="85"/>
       <c r="Q350" s="34"/>
-      <c r="R350" s="37"/>
-      <c r="S350" s="38"/>
       <c r="T350" s="34"/>
       <c r="U350" s="85"/>
       <c r="V350" s="34"/>
@@ -19109,8 +18531,6 @@
       <c r="O351" s="85"/>
       <c r="P351" s="85"/>
       <c r="Q351" s="34"/>
-      <c r="R351" s="37"/>
-      <c r="S351" s="38"/>
       <c r="T351" s="34"/>
       <c r="U351" s="85"/>
       <c r="V351" s="34"/>
@@ -19137,8 +18557,6 @@
       <c r="O352" s="85"/>
       <c r="P352" s="85"/>
       <c r="Q352" s="34"/>
-      <c r="R352" s="37"/>
-      <c r="S352" s="38"/>
       <c r="T352" s="34"/>
       <c r="U352" s="85"/>
       <c r="V352" s="34"/>
@@ -19165,8 +18583,6 @@
       <c r="O353" s="85"/>
       <c r="P353" s="85"/>
       <c r="Q353" s="34"/>
-      <c r="R353" s="37"/>
-      <c r="S353" s="38"/>
       <c r="T353" s="34"/>
       <c r="U353" s="85"/>
       <c r="V353" s="34"/>
@@ -19193,8 +18609,6 @@
       <c r="O354" s="85"/>
       <c r="P354" s="85"/>
       <c r="Q354" s="34"/>
-      <c r="R354" s="37"/>
-      <c r="S354" s="38"/>
       <c r="T354" s="34"/>
       <c r="U354" s="85"/>
       <c r="V354" s="34"/>
@@ -19221,8 +18635,6 @@
       <c r="O355" s="85"/>
       <c r="P355" s="85"/>
       <c r="Q355" s="34"/>
-      <c r="R355" s="37"/>
-      <c r="S355" s="38"/>
       <c r="T355" s="34"/>
       <c r="U355" s="85"/>
       <c r="V355" s="34"/>
@@ -19249,8 +18661,6 @@
       <c r="O356" s="85"/>
       <c r="P356" s="85"/>
       <c r="Q356" s="34"/>
-      <c r="R356" s="37"/>
-      <c r="S356" s="38"/>
       <c r="T356" s="34"/>
       <c r="U356" s="85"/>
       <c r="V356" s="34"/>
@@ -19277,8 +18687,6 @@
       <c r="O357" s="85"/>
       <c r="P357" s="85"/>
       <c r="Q357" s="34"/>
-      <c r="R357" s="37"/>
-      <c r="S357" s="38"/>
       <c r="T357" s="34"/>
       <c r="U357" s="85"/>
       <c r="V357" s="34"/>
@@ -19305,8 +18713,6 @@
       <c r="O358" s="85"/>
       <c r="P358" s="85"/>
       <c r="Q358" s="34"/>
-      <c r="R358" s="37"/>
-      <c r="S358" s="38"/>
       <c r="T358" s="34"/>
       <c r="U358" s="85"/>
       <c r="V358" s="34"/>
@@ -19333,8 +18739,6 @@
       <c r="O359" s="85"/>
       <c r="P359" s="85"/>
       <c r="Q359" s="34"/>
-      <c r="R359" s="37"/>
-      <c r="S359" s="38"/>
       <c r="T359" s="34"/>
       <c r="U359" s="85"/>
       <c r="V359" s="34"/>
@@ -19361,8 +18765,6 @@
       <c r="O360" s="85"/>
       <c r="P360" s="85"/>
       <c r="Q360" s="34"/>
-      <c r="R360" s="37"/>
-      <c r="S360" s="38"/>
       <c r="T360" s="34"/>
       <c r="U360" s="85"/>
       <c r="V360" s="34"/>
@@ -19389,8 +18791,6 @@
       <c r="O361" s="85"/>
       <c r="P361" s="85"/>
       <c r="Q361" s="34"/>
-      <c r="R361" s="37"/>
-      <c r="S361" s="38"/>
       <c r="T361" s="34"/>
       <c r="U361" s="85"/>
       <c r="V361" s="34"/>
@@ -19417,8 +18817,6 @@
       <c r="O362" s="85"/>
       <c r="P362" s="85"/>
       <c r="Q362" s="34"/>
-      <c r="R362" s="37"/>
-      <c r="S362" s="38"/>
       <c r="T362" s="34"/>
       <c r="U362" s="85"/>
       <c r="V362" s="34"/>
@@ -19445,8 +18843,6 @@
       <c r="O363" s="85"/>
       <c r="P363" s="85"/>
       <c r="Q363" s="34"/>
-      <c r="R363" s="37"/>
-      <c r="S363" s="38"/>
       <c r="T363" s="34"/>
       <c r="U363" s="85"/>
       <c r="V363" s="34"/>
@@ -19473,8 +18869,6 @@
       <c r="O364" s="85"/>
       <c r="P364" s="85"/>
       <c r="Q364" s="34"/>
-      <c r="R364" s="37"/>
-      <c r="S364" s="38"/>
       <c r="T364" s="34"/>
       <c r="U364" s="85"/>
       <c r="V364" s="34"/>
@@ -19501,8 +18895,6 @@
       <c r="O365" s="85"/>
       <c r="P365" s="85"/>
       <c r="Q365" s="34"/>
-      <c r="R365" s="37"/>
-      <c r="S365" s="38"/>
       <c r="T365" s="34"/>
       <c r="U365" s="85"/>
       <c r="V365" s="34"/>
@@ -19529,8 +18921,6 @@
       <c r="O366" s="85"/>
       <c r="P366" s="85"/>
       <c r="Q366" s="34"/>
-      <c r="R366" s="37"/>
-      <c r="S366" s="38"/>
       <c r="T366" s="34"/>
       <c r="U366" s="85"/>
       <c r="V366" s="34"/>
@@ -19557,8 +18947,6 @@
       <c r="O367" s="85"/>
       <c r="P367" s="85"/>
       <c r="Q367" s="34"/>
-      <c r="R367" s="37"/>
-      <c r="S367" s="38"/>
       <c r="T367" s="34"/>
       <c r="U367" s="85"/>
       <c r="V367" s="34"/>
@@ -19585,8 +18973,6 @@
       <c r="O368" s="85"/>
       <c r="P368" s="85"/>
       <c r="Q368" s="34"/>
-      <c r="R368" s="37"/>
-      <c r="S368" s="38"/>
       <c r="T368" s="34"/>
       <c r="U368" s="85"/>
       <c r="V368" s="34"/>
@@ -19613,8 +18999,6 @@
       <c r="O369" s="85"/>
       <c r="P369" s="85"/>
       <c r="Q369" s="34"/>
-      <c r="R369" s="37"/>
-      <c r="S369" s="38"/>
       <c r="T369" s="34"/>
       <c r="U369" s="85"/>
       <c r="V369" s="34"/>
@@ -19641,8 +19025,6 @@
       <c r="O370" s="85"/>
       <c r="P370" s="85"/>
       <c r="Q370" s="34"/>
-      <c r="R370" s="37"/>
-      <c r="S370" s="38"/>
       <c r="T370" s="34"/>
       <c r="U370" s="85"/>
       <c r="V370" s="34"/>
@@ -19669,8 +19051,6 @@
       <c r="O371" s="85"/>
       <c r="P371" s="85"/>
       <c r="Q371" s="34"/>
-      <c r="R371" s="37"/>
-      <c r="S371" s="38"/>
       <c r="T371" s="34"/>
       <c r="U371" s="85"/>
       <c r="V371" s="34"/>
@@ -19697,8 +19077,6 @@
       <c r="O372" s="85"/>
       <c r="P372" s="85"/>
       <c r="Q372" s="34"/>
-      <c r="R372" s="37"/>
-      <c r="S372" s="38"/>
       <c r="T372" s="34"/>
       <c r="U372" s="85"/>
       <c r="V372" s="34"/>
@@ -19725,8 +19103,6 @@
       <c r="O373" s="85"/>
       <c r="P373" s="85"/>
       <c r="Q373" s="34"/>
-      <c r="R373" s="37"/>
-      <c r="S373" s="38"/>
       <c r="T373" s="34"/>
       <c r="U373" s="85"/>
       <c r="V373" s="34"/>
@@ -19753,8 +19129,6 @@
       <c r="O374" s="85"/>
       <c r="P374" s="85"/>
       <c r="Q374" s="34"/>
-      <c r="R374" s="37"/>
-      <c r="S374" s="38"/>
       <c r="T374" s="34"/>
       <c r="U374" s="85"/>
       <c r="V374" s="34"/>
@@ -19781,8 +19155,6 @@
       <c r="O375" s="85"/>
       <c r="P375" s="85"/>
       <c r="Q375" s="34"/>
-      <c r="R375" s="37"/>
-      <c r="S375" s="38"/>
       <c r="T375" s="34"/>
       <c r="U375" s="85"/>
       <c r="V375" s="34"/>
@@ -19809,8 +19181,6 @@
       <c r="O376" s="85"/>
       <c r="P376" s="85"/>
       <c r="Q376" s="34"/>
-      <c r="R376" s="37"/>
-      <c r="S376" s="38"/>
       <c r="T376" s="34"/>
       <c r="U376" s="85"/>
       <c r="V376" s="34"/>
@@ -19837,8 +19207,6 @@
       <c r="O377" s="85"/>
       <c r="P377" s="85"/>
       <c r="Q377" s="34"/>
-      <c r="R377" s="37"/>
-      <c r="S377" s="38"/>
       <c r="T377" s="34"/>
       <c r="U377" s="85"/>
       <c r="V377" s="34"/>
@@ -19865,8 +19233,6 @@
       <c r="O378" s="85"/>
       <c r="P378" s="85"/>
       <c r="Q378" s="34"/>
-      <c r="R378" s="37"/>
-      <c r="S378" s="38"/>
       <c r="T378" s="34"/>
       <c r="U378" s="85"/>
       <c r="V378" s="34"/>
@@ -19893,8 +19259,6 @@
       <c r="O379" s="85"/>
       <c r="P379" s="85"/>
       <c r="Q379" s="34"/>
-      <c r="R379" s="37"/>
-      <c r="S379" s="38"/>
       <c r="T379" s="34"/>
       <c r="U379" s="85"/>
       <c r="V379" s="34"/>
@@ -19921,8 +19285,6 @@
       <c r="O380" s="85"/>
       <c r="P380" s="85"/>
       <c r="Q380" s="34"/>
-      <c r="R380" s="37"/>
-      <c r="S380" s="38"/>
       <c r="T380" s="34"/>
       <c r="U380" s="85"/>
       <c r="V380" s="34"/>
@@ -19949,8 +19311,6 @@
       <c r="O381" s="85"/>
       <c r="P381" s="85"/>
       <c r="Q381" s="34"/>
-      <c r="R381" s="37"/>
-      <c r="S381" s="38"/>
       <c r="T381" s="34"/>
       <c r="U381" s="85"/>
       <c r="V381" s="34"/>
@@ -19977,8 +19337,6 @@
       <c r="O382" s="85"/>
       <c r="P382" s="85"/>
       <c r="Q382" s="34"/>
-      <c r="R382" s="37"/>
-      <c r="S382" s="38"/>
       <c r="T382" s="34"/>
       <c r="U382" s="85"/>
       <c r="V382" s="34"/>
@@ -20005,8 +19363,6 @@
       <c r="O383" s="85"/>
       <c r="P383" s="85"/>
       <c r="Q383" s="34"/>
-      <c r="R383" s="37"/>
-      <c r="S383" s="38"/>
       <c r="T383" s="34"/>
       <c r="U383" s="85"/>
       <c r="V383" s="34"/>
@@ -20033,8 +19389,6 @@
       <c r="O384" s="85"/>
       <c r="P384" s="85"/>
       <c r="Q384" s="34"/>
-      <c r="R384" s="37"/>
-      <c r="S384" s="38"/>
       <c r="T384" s="34"/>
       <c r="U384" s="85"/>
       <c r="V384" s="34"/>
@@ -20061,8 +19415,6 @@
       <c r="O385" s="85"/>
       <c r="P385" s="85"/>
       <c r="Q385" s="34"/>
-      <c r="R385" s="37"/>
-      <c r="S385" s="38"/>
       <c r="T385" s="34"/>
       <c r="U385" s="85"/>
       <c r="V385" s="34"/>
@@ -20089,8 +19441,6 @@
       <c r="O386" s="85"/>
       <c r="P386" s="85"/>
       <c r="Q386" s="34"/>
-      <c r="R386" s="37"/>
-      <c r="S386" s="38"/>
       <c r="T386" s="34"/>
       <c r="U386" s="85"/>
       <c r="V386" s="34"/>
@@ -20117,8 +19467,6 @@
       <c r="O387" s="85"/>
       <c r="P387" s="85"/>
       <c r="Q387" s="34"/>
-      <c r="R387" s="37"/>
-      <c r="S387" s="38"/>
       <c r="T387" s="34"/>
       <c r="U387" s="85"/>
       <c r="V387" s="34"/>
@@ -20145,8 +19493,6 @@
       <c r="O388" s="85"/>
       <c r="P388" s="85"/>
       <c r="Q388" s="34"/>
-      <c r="R388" s="37"/>
-      <c r="S388" s="38"/>
       <c r="T388" s="34"/>
       <c r="U388" s="85"/>
       <c r="V388" s="34"/>
@@ -20173,8 +19519,6 @@
       <c r="O389" s="85"/>
       <c r="P389" s="85"/>
       <c r="Q389" s="34"/>
-      <c r="R389" s="37"/>
-      <c r="S389" s="38"/>
       <c r="T389" s="34"/>
       <c r="U389" s="85"/>
       <c r="V389" s="34"/>
@@ -20201,8 +19545,6 @@
       <c r="O390" s="85"/>
       <c r="P390" s="85"/>
       <c r="Q390" s="34"/>
-      <c r="R390" s="37"/>
-      <c r="S390" s="38"/>
       <c r="T390" s="34"/>
       <c r="U390" s="85"/>
       <c r="V390" s="34"/>
@@ -20229,8 +19571,6 @@
       <c r="O391" s="85"/>
       <c r="P391" s="85"/>
       <c r="Q391" s="34"/>
-      <c r="R391" s="37"/>
-      <c r="S391" s="38"/>
       <c r="T391" s="34"/>
       <c r="U391" s="85"/>
       <c r="V391" s="34"/>
@@ -20257,8 +19597,6 @@
       <c r="O392" s="85"/>
       <c r="P392" s="85"/>
       <c r="Q392" s="34"/>
-      <c r="R392" s="37"/>
-      <c r="S392" s="38"/>
       <c r="T392" s="34"/>
       <c r="U392" s="85"/>
       <c r="V392" s="34"/>
@@ -20285,8 +19623,6 @@
       <c r="O393" s="85"/>
       <c r="P393" s="85"/>
       <c r="Q393" s="34"/>
-      <c r="R393" s="37"/>
-      <c r="S393" s="38"/>
       <c r="T393" s="34"/>
       <c r="U393" s="85"/>
       <c r="V393" s="34"/>
@@ -20313,8 +19649,6 @@
       <c r="O394" s="85"/>
       <c r="P394" s="85"/>
       <c r="Q394" s="34"/>
-      <c r="R394" s="37"/>
-      <c r="S394" s="38"/>
       <c r="T394" s="34"/>
       <c r="U394" s="85"/>
       <c r="V394" s="34"/>
@@ -20341,8 +19675,6 @@
       <c r="O395" s="85"/>
       <c r="P395" s="85"/>
       <c r="Q395" s="34"/>
-      <c r="R395" s="37"/>
-      <c r="S395" s="38"/>
       <c r="T395" s="34"/>
       <c r="U395" s="85"/>
       <c r="V395" s="34"/>
@@ -20369,8 +19701,6 @@
       <c r="O396" s="85"/>
       <c r="P396" s="85"/>
       <c r="Q396" s="34"/>
-      <c r="R396" s="37"/>
-      <c r="S396" s="38"/>
       <c r="T396" s="34"/>
       <c r="U396" s="85"/>
       <c r="V396" s="34"/>
@@ -20397,8 +19727,6 @@
       <c r="O397" s="85"/>
       <c r="P397" s="85"/>
       <c r="Q397" s="34"/>
-      <c r="R397" s="37"/>
-      <c r="S397" s="38"/>
       <c r="T397" s="34"/>
       <c r="U397" s="85"/>
       <c r="V397" s="34"/>
@@ -20425,8 +19753,6 @@
       <c r="O398" s="85"/>
       <c r="P398" s="85"/>
       <c r="Q398" s="34"/>
-      <c r="R398" s="37"/>
-      <c r="S398" s="38"/>
       <c r="T398" s="34"/>
       <c r="U398" s="85"/>
       <c r="V398" s="34"/>
@@ -20453,8 +19779,6 @@
       <c r="O399" s="85"/>
       <c r="P399" s="85"/>
       <c r="Q399" s="34"/>
-      <c r="R399" s="37"/>
-      <c r="S399" s="38"/>
       <c r="T399" s="34"/>
       <c r="U399" s="85"/>
       <c r="V399" s="34"/>
@@ -20481,8 +19805,6 @@
       <c r="O400" s="85"/>
       <c r="P400" s="85"/>
       <c r="Q400" s="34"/>
-      <c r="R400" s="37"/>
-      <c r="S400" s="38"/>
       <c r="T400" s="34"/>
       <c r="U400" s="85"/>
       <c r="V400" s="34"/>
@@ -20509,8 +19831,6 @@
       <c r="O401" s="85"/>
       <c r="P401" s="85"/>
       <c r="Q401" s="34"/>
-      <c r="R401" s="37"/>
-      <c r="S401" s="38"/>
       <c r="T401" s="34"/>
       <c r="U401" s="85"/>
       <c r="V401" s="34"/>
@@ -20537,8 +19857,6 @@
       <c r="O402" s="85"/>
       <c r="P402" s="85"/>
       <c r="Q402" s="34"/>
-      <c r="R402" s="37"/>
-      <c r="S402" s="38"/>
       <c r="T402" s="34"/>
       <c r="U402" s="85"/>
       <c r="V402" s="34"/>
@@ -20565,8 +19883,6 @@
       <c r="O403" s="85"/>
       <c r="P403" s="85"/>
       <c r="Q403" s="34"/>
-      <c r="R403" s="37"/>
-      <c r="S403" s="38"/>
       <c r="T403" s="34"/>
       <c r="U403" s="85"/>
       <c r="V403" s="34"/>
@@ -20593,8 +19909,6 @@
       <c r="O404" s="85"/>
       <c r="P404" s="85"/>
       <c r="Q404" s="34"/>
-      <c r="R404" s="37"/>
-      <c r="S404" s="38"/>
       <c r="T404" s="34"/>
       <c r="U404" s="85"/>
       <c r="V404" s="34"/>
@@ -20621,8 +19935,6 @@
       <c r="O405" s="85"/>
       <c r="P405" s="85"/>
       <c r="Q405" s="34"/>
-      <c r="R405" s="37"/>
-      <c r="S405" s="38"/>
       <c r="T405" s="34"/>
       <c r="U405" s="85"/>
       <c r="V405" s="34"/>
@@ -20649,8 +19961,6 @@
       <c r="O406" s="85"/>
       <c r="P406" s="85"/>
       <c r="Q406" s="34"/>
-      <c r="R406" s="37"/>
-      <c r="S406" s="38"/>
       <c r="T406" s="34"/>
       <c r="U406" s="85"/>
       <c r="V406" s="34"/>
@@ -20677,8 +19987,6 @@
       <c r="O407" s="85"/>
       <c r="P407" s="85"/>
       <c r="Q407" s="34"/>
-      <c r="R407" s="37"/>
-      <c r="S407" s="38"/>
       <c r="T407" s="34"/>
       <c r="U407" s="85"/>
       <c r="V407" s="34"/>
@@ -20705,8 +20013,6 @@
       <c r="O408" s="85"/>
       <c r="P408" s="85"/>
       <c r="Q408" s="34"/>
-      <c r="R408" s="37"/>
-      <c r="S408" s="38"/>
       <c r="T408" s="34"/>
       <c r="U408" s="85"/>
       <c r="V408" s="34"/>
@@ -20733,8 +20039,6 @@
       <c r="O409" s="85"/>
       <c r="P409" s="85"/>
       <c r="Q409" s="34"/>
-      <c r="R409" s="37"/>
-      <c r="S409" s="38"/>
       <c r="T409" s="34"/>
       <c r="U409" s="85"/>
       <c r="V409" s="34"/>
@@ -20761,8 +20065,6 @@
       <c r="O410" s="85"/>
       <c r="P410" s="85"/>
       <c r="Q410" s="34"/>
-      <c r="R410" s="37"/>
-      <c r="S410" s="38"/>
       <c r="T410" s="34"/>
       <c r="U410" s="85"/>
       <c r="V410" s="34"/>
@@ -20789,8 +20091,6 @@
       <c r="O411" s="85"/>
       <c r="P411" s="85"/>
       <c r="Q411" s="34"/>
-      <c r="R411" s="37"/>
-      <c r="S411" s="38"/>
       <c r="T411" s="34"/>
       <c r="U411" s="85"/>
       <c r="V411" s="34"/>
@@ -20817,8 +20117,6 @@
       <c r="O412" s="85"/>
       <c r="P412" s="85"/>
       <c r="Q412" s="34"/>
-      <c r="R412" s="37"/>
-      <c r="S412" s="38"/>
       <c r="T412" s="34"/>
       <c r="U412" s="85"/>
       <c r="V412" s="34"/>
@@ -20845,8 +20143,6 @@
       <c r="O413" s="85"/>
       <c r="P413" s="85"/>
       <c r="Q413" s="34"/>
-      <c r="R413" s="37"/>
-      <c r="S413" s="38"/>
       <c r="T413" s="34"/>
       <c r="U413" s="85"/>
       <c r="V413" s="34"/>
@@ -20873,8 +20169,6 @@
       <c r="O414" s="85"/>
       <c r="P414" s="85"/>
       <c r="Q414" s="34"/>
-      <c r="R414" s="37"/>
-      <c r="S414" s="38"/>
       <c r="T414" s="34"/>
       <c r="U414" s="85"/>
       <c r="V414" s="34"/>
@@ -20901,8 +20195,6 @@
       <c r="O415" s="85"/>
       <c r="P415" s="85"/>
       <c r="Q415" s="34"/>
-      <c r="R415" s="37"/>
-      <c r="S415" s="38"/>
       <c r="T415" s="34"/>
       <c r="U415" s="85"/>
       <c r="V415" s="34"/>
@@ -20929,8 +20221,6 @@
       <c r="O416" s="85"/>
       <c r="P416" s="85"/>
       <c r="Q416" s="34"/>
-      <c r="R416" s="37"/>
-      <c r="S416" s="38"/>
       <c r="T416" s="34"/>
       <c r="U416" s="85"/>
       <c r="V416" s="34"/>
@@ -20957,8 +20247,6 @@
       <c r="O417" s="85"/>
       <c r="P417" s="85"/>
       <c r="Q417" s="34"/>
-      <c r="R417" s="37"/>
-      <c r="S417" s="38"/>
       <c r="T417" s="34"/>
       <c r="U417" s="85"/>
       <c r="V417" s="34"/>
@@ -20985,8 +20273,6 @@
       <c r="O418" s="85"/>
       <c r="P418" s="85"/>
       <c r="Q418" s="34"/>
-      <c r="R418" s="37"/>
-      <c r="S418" s="38"/>
       <c r="T418" s="34"/>
       <c r="U418" s="85"/>
       <c r="V418" s="34"/>
@@ -21013,8 +20299,6 @@
       <c r="O419" s="85"/>
       <c r="P419" s="85"/>
       <c r="Q419" s="34"/>
-      <c r="R419" s="37"/>
-      <c r="S419" s="38"/>
       <c r="T419" s="34"/>
       <c r="U419" s="85"/>
       <c r="V419" s="34"/>
@@ -21041,8 +20325,6 @@
       <c r="O420" s="85"/>
       <c r="P420" s="85"/>
       <c r="Q420" s="34"/>
-      <c r="R420" s="37"/>
-      <c r="S420" s="38"/>
       <c r="T420" s="34"/>
       <c r="U420" s="85"/>
       <c r="V420" s="34"/>
@@ -21069,8 +20351,6 @@
       <c r="O421" s="85"/>
       <c r="P421" s="85"/>
       <c r="Q421" s="34"/>
-      <c r="R421" s="37"/>
-      <c r="S421" s="38"/>
       <c r="T421" s="34"/>
       <c r="U421" s="85"/>
       <c r="V421" s="34"/>
@@ -21097,8 +20377,6 @@
       <c r="O422" s="85"/>
       <c r="P422" s="85"/>
       <c r="Q422" s="34"/>
-      <c r="R422" s="37"/>
-      <c r="S422" s="38"/>
       <c r="T422" s="34"/>
       <c r="U422" s="85"/>
       <c r="V422" s="34"/>
@@ -21125,8 +20403,6 @@
       <c r="O423" s="85"/>
       <c r="P423" s="85"/>
       <c r="Q423" s="34"/>
-      <c r="R423" s="37"/>
-      <c r="S423" s="38"/>
       <c r="T423" s="34"/>
       <c r="U423" s="85"/>
       <c r="V423" s="34"/>
@@ -21153,8 +20429,6 @@
       <c r="O424" s="85"/>
       <c r="P424" s="85"/>
       <c r="Q424" s="34"/>
-      <c r="R424" s="37"/>
-      <c r="S424" s="38"/>
       <c r="T424" s="34"/>
       <c r="U424" s="85"/>
       <c r="V424" s="34"/>
@@ -21181,8 +20455,6 @@
       <c r="O425" s="85"/>
       <c r="P425" s="85"/>
       <c r="Q425" s="34"/>
-      <c r="R425" s="37"/>
-      <c r="S425" s="38"/>
       <c r="T425" s="34"/>
       <c r="U425" s="85"/>
       <c r="V425" s="34"/>
@@ -21209,8 +20481,6 @@
       <c r="O426" s="85"/>
       <c r="P426" s="85"/>
       <c r="Q426" s="34"/>
-      <c r="R426" s="37"/>
-      <c r="S426" s="38"/>
       <c r="T426" s="34"/>
       <c r="U426" s="85"/>
       <c r="V426" s="34"/>
@@ -21237,8 +20507,6 @@
       <c r="O427" s="85"/>
       <c r="P427" s="85"/>
       <c r="Q427" s="34"/>
-      <c r="R427" s="37"/>
-      <c r="S427" s="38"/>
       <c r="T427" s="34"/>
       <c r="U427" s="85"/>
       <c r="V427" s="34"/>
@@ -21265,8 +20533,6 @@
       <c r="O428" s="85"/>
       <c r="P428" s="85"/>
       <c r="Q428" s="34"/>
-      <c r="R428" s="37"/>
-      <c r="S428" s="38"/>
       <c r="T428" s="34"/>
       <c r="U428" s="85"/>
       <c r="V428" s="34"/>
@@ -21293,8 +20559,6 @@
       <c r="O429" s="85"/>
       <c r="P429" s="85"/>
       <c r="Q429" s="34"/>
-      <c r="R429" s="37"/>
-      <c r="S429" s="38"/>
       <c r="T429" s="34"/>
       <c r="U429" s="85"/>
       <c r="V429" s="34"/>
@@ -21321,8 +20585,6 @@
       <c r="O430" s="85"/>
       <c r="P430" s="85"/>
       <c r="Q430" s="34"/>
-      <c r="R430" s="37"/>
-      <c r="S430" s="38"/>
       <c r="T430" s="34"/>
       <c r="U430" s="85"/>
       <c r="V430" s="34"/>
@@ -21349,8 +20611,6 @@
       <c r="O431" s="85"/>
       <c r="P431" s="85"/>
       <c r="Q431" s="34"/>
-      <c r="R431" s="37"/>
-      <c r="S431" s="38"/>
       <c r="T431" s="34"/>
       <c r="U431" s="85"/>
       <c r="V431" s="34"/>
@@ -21377,8 +20637,6 @@
       <c r="O432" s="85"/>
       <c r="P432" s="85"/>
       <c r="Q432" s="34"/>
-      <c r="R432" s="37"/>
-      <c r="S432" s="38"/>
       <c r="T432" s="34"/>
       <c r="U432" s="85"/>
       <c r="V432" s="34"/>
@@ -21405,8 +20663,6 @@
       <c r="O433" s="85"/>
       <c r="P433" s="85"/>
       <c r="Q433" s="34"/>
-      <c r="R433" s="37"/>
-      <c r="S433" s="38"/>
       <c r="T433" s="34"/>
       <c r="U433" s="85"/>
       <c r="V433" s="34"/>
@@ -21433,8 +20689,6 @@
       <c r="O434" s="85"/>
       <c r="P434" s="85"/>
       <c r="Q434" s="34"/>
-      <c r="R434" s="37"/>
-      <c r="S434" s="38"/>
       <c r="T434" s="34"/>
       <c r="U434" s="85"/>
       <c r="V434" s="34"/>
@@ -21461,8 +20715,6 @@
       <c r="O435" s="85"/>
       <c r="P435" s="85"/>
       <c r="Q435" s="34"/>
-      <c r="R435" s="37"/>
-      <c r="S435" s="38"/>
       <c r="T435" s="34"/>
       <c r="U435" s="85"/>
       <c r="V435" s="34"/>
@@ -21489,8 +20741,6 @@
       <c r="O436" s="85"/>
       <c r="P436" s="85"/>
       <c r="Q436" s="34"/>
-      <c r="R436" s="37"/>
-      <c r="S436" s="38"/>
       <c r="T436" s="34"/>
       <c r="U436" s="85"/>
       <c r="V436" s="34"/>
@@ -21517,8 +20767,6 @@
       <c r="O437" s="85"/>
       <c r="P437" s="85"/>
       <c r="Q437" s="34"/>
-      <c r="R437" s="37"/>
-      <c r="S437" s="38"/>
       <c r="T437" s="34"/>
       <c r="U437" s="85"/>
       <c r="V437" s="34"/>
@@ -21545,8 +20793,6 @@
       <c r="O438" s="85"/>
       <c r="P438" s="85"/>
       <c r="Q438" s="34"/>
-      <c r="R438" s="37"/>
-      <c r="S438" s="38"/>
       <c r="T438" s="34"/>
       <c r="U438" s="85"/>
       <c r="V438" s="34"/>
@@ -21573,8 +20819,6 @@
       <c r="O439" s="85"/>
       <c r="P439" s="85"/>
       <c r="Q439" s="34"/>
-      <c r="R439" s="37"/>
-      <c r="S439" s="38"/>
       <c r="T439" s="34"/>
       <c r="U439" s="85"/>
       <c r="V439" s="34"/>
@@ -21601,8 +20845,6 @@
       <c r="O440" s="85"/>
       <c r="P440" s="85"/>
       <c r="Q440" s="34"/>
-      <c r="R440" s="37"/>
-      <c r="S440" s="38"/>
       <c r="T440" s="34"/>
       <c r="U440" s="85"/>
       <c r="V440" s="34"/>
@@ -21629,8 +20871,6 @@
       <c r="O441" s="85"/>
       <c r="P441" s="85"/>
       <c r="Q441" s="34"/>
-      <c r="R441" s="37"/>
-      <c r="S441" s="38"/>
       <c r="T441" s="34"/>
       <c r="U441" s="85"/>
       <c r="V441" s="34"/>
@@ -21657,8 +20897,6 @@
       <c r="O442" s="85"/>
       <c r="P442" s="85"/>
       <c r="Q442" s="34"/>
-      <c r="R442" s="37"/>
-      <c r="S442" s="38"/>
       <c r="T442" s="34"/>
       <c r="U442" s="85"/>
       <c r="V442" s="34"/>
@@ -21685,8 +20923,6 @@
       <c r="O443" s="85"/>
       <c r="P443" s="85"/>
       <c r="Q443" s="34"/>
-      <c r="R443" s="37"/>
-      <c r="S443" s="38"/>
       <c r="T443" s="34"/>
       <c r="U443" s="85"/>
       <c r="V443" s="34"/>
@@ -21713,8 +20949,6 @@
       <c r="O444" s="85"/>
       <c r="P444" s="85"/>
       <c r="Q444" s="34"/>
-      <c r="R444" s="37"/>
-      <c r="S444" s="38"/>
       <c r="T444" s="34"/>
       <c r="U444" s="85"/>
       <c r="V444" s="34"/>
@@ -21741,8 +20975,6 @@
       <c r="O445" s="85"/>
       <c r="P445" s="85"/>
       <c r="Q445" s="34"/>
-      <c r="R445" s="37"/>
-      <c r="S445" s="38"/>
       <c r="T445" s="34"/>
       <c r="U445" s="85"/>
       <c r="V445" s="34"/>
@@ -21769,8 +21001,6 @@
       <c r="O446" s="85"/>
       <c r="P446" s="85"/>
       <c r="Q446" s="34"/>
-      <c r="R446" s="37"/>
-      <c r="S446" s="38"/>
       <c r="T446" s="34"/>
       <c r="U446" s="85"/>
       <c r="V446" s="34"/>
@@ -21797,8 +21027,6 @@
       <c r="O447" s="85"/>
       <c r="P447" s="85"/>
       <c r="Q447" s="34"/>
-      <c r="R447" s="37"/>
-      <c r="S447" s="38"/>
       <c r="T447" s="34"/>
       <c r="U447" s="85"/>
       <c r="V447" s="34"/>
@@ -21825,8 +21053,6 @@
       <c r="O448" s="85"/>
       <c r="P448" s="85"/>
       <c r="Q448" s="34"/>
-      <c r="R448" s="37"/>
-      <c r="S448" s="38"/>
       <c r="T448" s="34"/>
       <c r="U448" s="85"/>
       <c r="V448" s="34"/>
@@ -21853,8 +21079,6 @@
       <c r="O449" s="85"/>
       <c r="P449" s="85"/>
       <c r="Q449" s="34"/>
-      <c r="R449" s="37"/>
-      <c r="S449" s="38"/>
       <c r="T449" s="34"/>
       <c r="U449" s="85"/>
       <c r="V449" s="34"/>
@@ -21881,8 +21105,6 @@
       <c r="O450" s="85"/>
       <c r="P450" s="85"/>
       <c r="Q450" s="34"/>
-      <c r="R450" s="37"/>
-      <c r="S450" s="38"/>
       <c r="T450" s="34"/>
       <c r="U450" s="85"/>
       <c r="V450" s="34"/>
@@ -21909,8 +21131,6 @@
       <c r="O451" s="85"/>
       <c r="P451" s="85"/>
       <c r="Q451" s="34"/>
-      <c r="R451" s="37"/>
-      <c r="S451" s="38"/>
       <c r="T451" s="34"/>
       <c r="U451" s="85"/>
       <c r="V451" s="34"/>
@@ -21937,8 +21157,6 @@
       <c r="O452" s="85"/>
       <c r="P452" s="85"/>
       <c r="Q452" s="34"/>
-      <c r="R452" s="37"/>
-      <c r="S452" s="38"/>
       <c r="T452" s="34"/>
       <c r="U452" s="85"/>
       <c r="V452" s="34"/>
@@ -21965,8 +21183,6 @@
       <c r="O453" s="85"/>
       <c r="P453" s="85"/>
       <c r="Q453" s="34"/>
-      <c r="R453" s="37"/>
-      <c r="S453" s="38"/>
       <c r="T453" s="34"/>
       <c r="U453" s="85"/>
       <c r="V453" s="34"/>
@@ -21993,8 +21209,6 @@
       <c r="O454" s="85"/>
       <c r="P454" s="85"/>
       <c r="Q454" s="34"/>
-      <c r="R454" s="37"/>
-      <c r="S454" s="38"/>
       <c r="T454" s="34"/>
       <c r="U454" s="85"/>
       <c r="V454" s="34"/>
@@ -22021,8 +21235,6 @@
       <c r="O455" s="85"/>
       <c r="P455" s="85"/>
       <c r="Q455" s="34"/>
-      <c r="R455" s="37"/>
-      <c r="S455" s="38"/>
       <c r="T455" s="34"/>
       <c r="U455" s="85"/>
       <c r="V455" s="34"/>
@@ -22049,8 +21261,6 @@
       <c r="O456" s="85"/>
       <c r="P456" s="85"/>
       <c r="Q456" s="34"/>
-      <c r="R456" s="37"/>
-      <c r="S456" s="38"/>
       <c r="T456" s="34"/>
       <c r="U456" s="85"/>
       <c r="V456" s="34"/>
@@ -22077,8 +21287,6 @@
       <c r="O457" s="85"/>
       <c r="P457" s="85"/>
       <c r="Q457" s="34"/>
-      <c r="R457" s="37"/>
-      <c r="S457" s="38"/>
       <c r="T457" s="34"/>
       <c r="U457" s="85"/>
       <c r="V457" s="34"/>
@@ -22105,8 +21313,6 @@
       <c r="O458" s="85"/>
       <c r="P458" s="85"/>
       <c r="Q458" s="34"/>
-      <c r="R458" s="37"/>
-      <c r="S458" s="38"/>
       <c r="T458" s="34"/>
       <c r="U458" s="85"/>
       <c r="V458" s="34"/>
@@ -22133,8 +21339,6 @@
       <c r="O459" s="85"/>
       <c r="P459" s="85"/>
       <c r="Q459" s="34"/>
-      <c r="R459" s="37"/>
-      <c r="S459" s="38"/>
       <c r="T459" s="34"/>
       <c r="U459" s="85"/>
       <c r="V459" s="34"/>
@@ -22161,8 +21365,6 @@
       <c r="O460" s="85"/>
       <c r="P460" s="85"/>
       <c r="Q460" s="34"/>
-      <c r="R460" s="37"/>
-      <c r="S460" s="38"/>
       <c r="T460" s="34"/>
       <c r="U460" s="85"/>
       <c r="V460" s="34"/>
@@ -22189,8 +21391,6 @@
       <c r="O461" s="85"/>
       <c r="P461" s="85"/>
       <c r="Q461" s="34"/>
-      <c r="R461" s="37"/>
-      <c r="S461" s="38"/>
       <c r="T461" s="34"/>
       <c r="U461" s="85"/>
       <c r="V461" s="34"/>
@@ -22217,8 +21417,6 @@
       <c r="O462" s="85"/>
       <c r="P462" s="85"/>
       <c r="Q462" s="34"/>
-      <c r="R462" s="37"/>
-      <c r="S462" s="38"/>
       <c r="T462" s="34"/>
       <c r="U462" s="85"/>
       <c r="V462" s="34"/>
@@ -22245,8 +21443,6 @@
       <c r="O463" s="85"/>
       <c r="P463" s="85"/>
       <c r="Q463" s="34"/>
-      <c r="R463" s="37"/>
-      <c r="S463" s="38"/>
       <c r="T463" s="34"/>
       <c r="U463" s="85"/>
       <c r="V463" s="34"/>
@@ -22273,8 +21469,6 @@
       <c r="O464" s="85"/>
       <c r="P464" s="85"/>
       <c r="Q464" s="34"/>
-      <c r="R464" s="37"/>
-      <c r="S464" s="38"/>
       <c r="T464" s="34"/>
       <c r="U464" s="85"/>
       <c r="V464" s="34"/>
@@ -22301,8 +21495,6 @@
       <c r="O465" s="85"/>
       <c r="P465" s="85"/>
       <c r="Q465" s="34"/>
-      <c r="R465" s="37"/>
-      <c r="S465" s="38"/>
       <c r="T465" s="34"/>
       <c r="U465" s="85"/>
       <c r="V465" s="34"/>
@@ -22329,8 +21521,6 @@
       <c r="O466" s="85"/>
       <c r="P466" s="85"/>
       <c r="Q466" s="34"/>
-      <c r="R466" s="37"/>
-      <c r="S466" s="38"/>
       <c r="T466" s="34"/>
       <c r="U466" s="85"/>
       <c r="V466" s="34"/>
@@ -22357,8 +21547,6 @@
       <c r="O467" s="85"/>
       <c r="P467" s="85"/>
       <c r="Q467" s="34"/>
-      <c r="R467" s="37"/>
-      <c r="S467" s="38"/>
       <c r="T467" s="34"/>
       <c r="U467" s="85"/>
       <c r="V467" s="34"/>
@@ -22385,8 +21573,6 @@
       <c r="O468" s="85"/>
       <c r="P468" s="85"/>
       <c r="Q468" s="34"/>
-      <c r="R468" s="37"/>
-      <c r="S468" s="38"/>
       <c r="T468" s="34"/>
       <c r="U468" s="85"/>
       <c r="V468" s="34"/>
@@ -22413,8 +21599,6 @@
       <c r="O469" s="85"/>
       <c r="P469" s="85"/>
       <c r="Q469" s="34"/>
-      <c r="R469" s="37"/>
-      <c r="S469" s="38"/>
       <c r="T469" s="34"/>
       <c r="U469" s="85"/>
       <c r="V469" s="34"/>
@@ -22441,8 +21625,6 @@
       <c r="O470" s="85"/>
       <c r="P470" s="85"/>
       <c r="Q470" s="34"/>
-      <c r="R470" s="37"/>
-      <c r="S470" s="38"/>
       <c r="T470" s="34"/>
       <c r="U470" s="85"/>
       <c r="V470" s="34"/>
@@ -22469,8 +21651,6 @@
       <c r="O471" s="85"/>
       <c r="P471" s="85"/>
       <c r="Q471" s="34"/>
-      <c r="R471" s="37"/>
-      <c r="S471" s="38"/>
       <c r="T471" s="34"/>
       <c r="U471" s="85"/>
       <c r="V471" s="34"/>
@@ -22497,8 +21677,6 @@
       <c r="O472" s="85"/>
       <c r="P472" s="85"/>
       <c r="Q472" s="34"/>
-      <c r="R472" s="37"/>
-      <c r="S472" s="38"/>
       <c r="T472" s="34"/>
       <c r="U472" s="85"/>
       <c r="V472" s="34"/>
@@ -22525,8 +21703,6 @@
       <c r="O473" s="85"/>
       <c r="P473" s="85"/>
       <c r="Q473" s="34"/>
-      <c r="R473" s="37"/>
-      <c r="S473" s="38"/>
       <c r="T473" s="34"/>
       <c r="U473" s="85"/>
       <c r="V473" s="34"/>
@@ -22553,8 +21729,6 @@
       <c r="O474" s="85"/>
       <c r="P474" s="85"/>
       <c r="Q474" s="34"/>
-      <c r="R474" s="37"/>
-      <c r="S474" s="38"/>
       <c r="T474" s="34"/>
       <c r="U474" s="85"/>
       <c r="V474" s="34"/>
@@ -22581,8 +21755,6 @@
       <c r="O475" s="85"/>
       <c r="P475" s="85"/>
       <c r="Q475" s="34"/>
-      <c r="R475" s="37"/>
-      <c r="S475" s="38"/>
       <c r="T475" s="34"/>
       <c r="U475" s="85"/>
       <c r="V475" s="34"/>
@@ -22609,8 +21781,6 @@
       <c r="O476" s="85"/>
       <c r="P476" s="85"/>
       <c r="Q476" s="34"/>
-      <c r="R476" s="37"/>
-      <c r="S476" s="38"/>
       <c r="T476" s="34"/>
       <c r="U476" s="85"/>
       <c r="V476" s="34"/>
@@ -22637,8 +21807,6 @@
       <c r="O477" s="85"/>
       <c r="P477" s="85"/>
       <c r="Q477" s="34"/>
-      <c r="R477" s="37"/>
-      <c r="S477" s="38"/>
       <c r="T477" s="34"/>
       <c r="U477" s="85"/>
       <c r="V477" s="34"/>
@@ -22665,8 +21833,6 @@
       <c r="O478" s="85"/>
       <c r="P478" s="85"/>
       <c r="Q478" s="34"/>
-      <c r="R478" s="37"/>
-      <c r="S478" s="38"/>
       <c r="T478" s="34"/>
       <c r="U478" s="85"/>
       <c r="V478" s="34"/>
@@ -22693,8 +21859,6 @@
       <c r="O479" s="85"/>
       <c r="P479" s="85"/>
       <c r="Q479" s="34"/>
-      <c r="R479" s="37"/>
-      <c r="S479" s="38"/>
       <c r="T479" s="34"/>
       <c r="U479" s="85"/>
       <c r="V479" s="34"/>
@@ -22721,8 +21885,6 @@
       <c r="O480" s="85"/>
       <c r="P480" s="85"/>
       <c r="Q480" s="34"/>
-      <c r="R480" s="37"/>
-      <c r="S480" s="38"/>
       <c r="T480" s="34"/>
       <c r="U480" s="85"/>
       <c r="V480" s="34"/>
@@ -22749,8 +21911,6 @@
       <c r="O481" s="85"/>
       <c r="P481" s="85"/>
       <c r="Q481" s="34"/>
-      <c r="R481" s="37"/>
-      <c r="S481" s="38"/>
       <c r="T481" s="34"/>
       <c r="U481" s="85"/>
       <c r="V481" s="34"/>
@@ -22777,8 +21937,6 @@
       <c r="O482" s="85"/>
       <c r="P482" s="85"/>
       <c r="Q482" s="34"/>
-      <c r="R482" s="37"/>
-      <c r="S482" s="38"/>
       <c r="T482" s="34"/>
       <c r="U482" s="85"/>
       <c r="V482" s="34"/>
@@ -23239,40 +22397,40 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:104">
       <c r="A1" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="CZ1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="14.8" spans="1:11">
@@ -23871,16 +23029,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6641,11 +6641,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="S20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -16754,7 +16754,7 @@
   <dimension ref="A1:CZ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -16866,20 +16866,20 @@
         <v>-2348.26548</v>
       </c>
       <c r="D3" s="16">
-        <f>COUNTIF(交易计划及执行表!$T$4:$T31,"&gt;0")</f>
+        <f>COUNTIF(交易计划及执行表!$T$4:$T33,"&gt;0")</f>
         <v>7</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(交易计划及执行表!$T$4:$T31,"&lt;0")</f>
-        <v>14</v>
+        <f>COUNTIF(交易计划及执行表!$T$4:$T33,"&lt;0")</f>
+        <v>16</v>
       </c>
       <c r="F3" s="16">
         <f>D3+E3</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="24">
         <f>D3/F3</f>
-        <v>0.333333333333333</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="H3" s="25">
         <f>(SUMIF(交易计划及执行表!$T$4:$T31,"&gt;0")/$D3)/SUMIF(交易计划及执行表!$T$4:$T31,"&gt;0")</f>
@@ -16887,7 +16887,7 @@
       </c>
       <c r="I3" s="24">
         <f>(SUMIF(交易计划及执行表!$T$4:$T31,"&lt;0")/$E3)/SUMIF(交易计划及执行表!$T$4:$T31,"&lt;0")</f>
-        <v>0.0714285714285714</v>
+        <v>0.0625</v>
       </c>
       <c r="J3" s="28">
         <f>G3*H3/((1-G3)*I3)</f>
@@ -17391,7 +17391,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6644,11 +6644,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6644,11 +6644,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6648,7 +6648,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -6643,12 +6643,12 @@
   <sheetPr/>
   <dimension ref="A1:BJ556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -8666,11 +8666,11 @@
         <v>0.184</v>
       </c>
       <c r="S30" s="117">
-        <f>N30*O30-P30-Q30-R30</f>
+        <f t="shared" ref="S30:S35" si="12">N30*O30-P30-Q30-R30</f>
         <v>9185.616</v>
       </c>
       <c r="T30" s="119">
-        <f>S30-J30</f>
+        <f t="shared" ref="T30:T35" si="13">S30-J30</f>
         <v>88.4341600000007</v>
       </c>
       <c r="U30" s="135"/>
@@ -8733,11 +8733,11 @@
         <v>0</v>
       </c>
       <c r="S31" s="117">
-        <f>N31*O31-P31-Q31-R31</f>
+        <f t="shared" si="12"/>
         <v>7257.73</v>
       </c>
       <c r="T31" s="119">
-        <f>S31-J31</f>
+        <f t="shared" si="13"/>
         <v>-479.27</v>
       </c>
       <c r="U31" s="135"/>
@@ -8802,11 +8802,11 @@
         <v>0.419</v>
       </c>
       <c r="S32" s="117">
-        <f>N32*O32-P32-Q32-R32</f>
+        <f t="shared" si="12"/>
         <v>20923.631</v>
       </c>
       <c r="T32" s="119">
-        <f>S32-J32</f>
+        <f t="shared" si="13"/>
         <v>-1261.8126</v>
       </c>
       <c r="U32" s="135"/>
@@ -8871,11 +8871,11 @@
         <v>0.17442</v>
       </c>
       <c r="S33" s="117">
-        <f>N33*O33-P33-Q33-R33</f>
+        <f t="shared" si="12"/>
         <v>8707.10458</v>
       </c>
       <c r="T33" s="119">
-        <f>S33-J33</f>
+        <f t="shared" si="13"/>
         <v>-778.085019999999</v>
       </c>
       <c r="U33" s="135"/>
@@ -8970,14 +8970,34 @@
         <f>(F35-K35)*G35+H35+I35+5</f>
         <v>356.10162</v>
       </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="120"/>
+      <c r="M35" s="113">
+        <v>44566</v>
+      </c>
+      <c r="N35" s="83">
+        <v>47.33</v>
+      </c>
+      <c r="O35" s="60">
+        <v>100</v>
+      </c>
+      <c r="P35" s="83">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="102">
+        <f>N35*O35*0.1/100</f>
+        <v>4.733</v>
+      </c>
+      <c r="R35" s="102">
+        <f>N35*O35*0.002/100</f>
+        <v>0.09466</v>
+      </c>
+      <c r="S35" s="117">
+        <f t="shared" si="12"/>
+        <v>4723.17234</v>
+      </c>
+      <c r="T35" s="119">
+        <f t="shared" si="13"/>
+        <v>-362.92928</v>
+      </c>
       <c r="U35" s="135"/>
     </row>
     <row r="36" ht="18" spans="1:21">
@@ -16759,8 +16779,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -16868,24 +16888,24 @@
         <v>6560.63868</v>
       </c>
       <c r="C3" s="15">
-        <f>SUM(交易计划及执行表!$T$4:$T31)</f>
-        <v>-2348.26548</v>
+        <f>SUM(交易计划及执行表!$T$4:$T35)</f>
+        <v>-4751.09238</v>
       </c>
       <c r="D3" s="16">
-        <f>COUNTIF(交易计划及执行表!$T$4:$T33,"&gt;0")</f>
+        <f>COUNTIF(交易计划及执行表!$T$4:$T35,"&gt;0")</f>
         <v>7</v>
       </c>
       <c r="E3" s="16">
-        <f>COUNTIF(交易计划及执行表!$T$4:$T33,"&lt;0")</f>
-        <v>16</v>
+        <f>COUNTIF(交易计划及执行表!$T$4:$T35,"&lt;0")</f>
+        <v>17</v>
       </c>
       <c r="F3" s="16">
         <f>D3+E3</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="24">
         <f>D3/F3</f>
-        <v>0.304347826086957</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="H3" s="25">
         <f>(SUMIF(交易计划及执行表!$T$4:$T31,"&gt;0")/$D3)/SUMIF(交易计划及执行表!$T$4:$T31,"&gt;0")</f>
@@ -16893,7 +16913,7 @@
       </c>
       <c r="I3" s="24">
         <f>(SUMIF(交易计划及执行表!$T$4:$T31,"&lt;0")/$E3)/SUMIF(交易计划及执行表!$T$4:$T31,"&lt;0")</f>
-        <v>0.0625</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="J3" s="28">
         <f>G3*H3/((1-G3)*I3)</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6644,7 +6644,7 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -16779,8 +16779,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -16780,7 +16780,7 @@
   <dimension ref="A1:CZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -16789,7 +16789,7 @@
   <dimension ref="A1:CZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -6652,12 +6652,12 @@
   <sheetPr/>
   <dimension ref="A1:BJ556"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L38" sqref="L38"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -16788,8 +16788,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -17428,7 +17428,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -708,17 +708,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+  <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -899,33 +898,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,7 +914,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,6 +922,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -968,10 +952,47 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -985,21 +1006,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,14 +1021,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,7 +1090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1126,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,25 +1186,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,31 +1216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,37 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,37 +1252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,20 +1326,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,21 +1363,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1386,6 +1374,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,142 +1408,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,133 +1557,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1753,82 +1752,82 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1849,64 +1848,64 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,7 +1914,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,40 +2181,49 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                   <c:v>44496</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                   <c:v>44503</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                   <c:v>44510</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                   <c:v>44524</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                   <c:v>44531</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                   <c:v>44538</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                   <c:v>44545</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                   <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                  <c:v>44573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,14 +2233,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$B$2:$B$11</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$B$2:$B$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$B$2:$B$5,资金曲线变化表!$B$7:$B$11)</c:f>
+              <c:f>(资金曲线变化表!$B$2:$B$5,资金曲线变化表!$B$7:$B$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>140000</c:v>
                 </c:pt>
@@ -2259,6 +2267,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>139961.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139314.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135646.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136069.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,42 +2391,51 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                      <c:formatCode>yyyy/mm/dd</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                         <c:v>44496</c:v>
                       </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                         <c:v>44503</c:v>
                       </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                         <c:v>44510</c:v>
                       </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                         <c:v>44524</c:v>
                       </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                         <c:v>44531</c:v>
                       </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                         <c:v>44538</c:v>
                       </c:pt>
-                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                         <c:v>44545</c:v>
                       </c:pt>
-                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                         <c:v>44552</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                        <c:v>44559</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                        <c:v>44566</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                        <c:v>44573</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2419,16 +2445,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$C$2:$C$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$C$2:$C$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="9"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1680</c:v>
                       </c:pt>
@@ -2455,6 +2481,15 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>1679.53392</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1671.77796</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1627.76208</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1632.83604</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2557,42 +2592,51 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                      <c:formatCode>yyyy/mm/dd</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                         <c:v>44496</c:v>
                       </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                         <c:v>44503</c:v>
                       </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                         <c:v>44510</c:v>
                       </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                         <c:v>44524</c:v>
                       </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                         <c:v>44531</c:v>
                       </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                         <c:v>44538</c:v>
                       </c:pt>
-                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                         <c:v>44545</c:v>
                       </c:pt>
-                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                         <c:v>44552</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                        <c:v>44559</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                        <c:v>44566</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                        <c:v>44573</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2602,16 +2646,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$D$2:$D$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$D$2:$D$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                      <c:ptCount val="9"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>8400</c:v>
                       </c:pt>
@@ -2638,6 +2682,15 @@
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>8397.6696</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8358.8898</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8138.8104</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>8164.1802</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2910,40 +2963,49 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                   <c:v>44496</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                   <c:v>44503</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                   <c:v>44510</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                   <c:v>44524</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                   <c:v>44531</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                   <c:v>44538</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                   <c:v>44545</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                   <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                  <c:v>44573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,14 +3015,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$C$2:$C$11</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$C$2:$C$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$11)</c:f>
+              <c:f>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1680</c:v>
                 </c:pt>
@@ -2987,6 +3049,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1679.53392</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1671.77796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1627.76208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1632.83604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,42 +3119,51 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                      <c:formatCode>yyyy/mm/dd</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                         <c:v>44496</c:v>
                       </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                         <c:v>44503</c:v>
                       </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                         <c:v>44510</c:v>
                       </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                         <c:v>44524</c:v>
                       </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                         <c:v>44531</c:v>
                       </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                         <c:v>44538</c:v>
                       </c:pt>
-                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                         <c:v>44545</c:v>
                       </c:pt>
-                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                         <c:v>44552</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                        <c:v>44559</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                        <c:v>44566</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                        <c:v>44573</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3134,7 +3214,6 @@
         <c:axId val="307545957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44552"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3362,40 +3441,49 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c:f>
               <c:numCache>
-                <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                <c:formatCode>yyyy/mm/dd</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                   <c:v>44496</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                   <c:v>44503</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                   <c:v>44510</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                   <c:v>44524</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                   <c:v>44531</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                   <c:v>44538</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                   <c:v>44545</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                   <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                  <c:v>44573</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3405,14 +3493,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$D$2:$D$11</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$D$2:$D$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$11)</c:f>
+              <c:f>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$14)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>8400</c:v>
                 </c:pt>
@@ -3439,6 +3527,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8397.6696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8358.8898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8138.8104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8164.1802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,42 +3597,51 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                      <c:formatCode>yyyy/mm/dd</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                         <c:v>44496</c:v>
                       </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                         <c:v>44503</c:v>
                       </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                         <c:v>44510</c:v>
                       </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                         <c:v>44524</c:v>
                       </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                         <c:v>44531</c:v>
                       </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                         <c:v>44538</c:v>
                       </c:pt>
-                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                         <c:v>44545</c:v>
                       </c:pt>
-                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                         <c:v>44552</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                        <c:v>44559</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                        <c:v>44566</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                        <c:v>44573</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3620,42 +3726,51 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$11</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$11)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>yyyy\-m\-d</c:formatCode>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0" c:formatCode="yyyy\-m\-d">
+                      <c:formatCode>yyyy/mm/dd</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
-                      <c:pt idx="1" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="1" c:formatCode="yyyy/mm/dd">
                         <c:v>44496</c:v>
                       </c:pt>
-                      <c:pt idx="2" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="2" c:formatCode="yyyy/mm/dd">
                         <c:v>44503</c:v>
                       </c:pt>
-                      <c:pt idx="3" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="3" c:formatCode="yyyy/mm/dd">
                         <c:v>44510</c:v>
                       </c:pt>
-                      <c:pt idx="4" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="4" c:formatCode="yyyy/mm/dd">
                         <c:v>44524</c:v>
                       </c:pt>
-                      <c:pt idx="5" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="5" c:formatCode="yyyy/mm/dd">
                         <c:v>44531</c:v>
                       </c:pt>
-                      <c:pt idx="6" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="6" c:formatCode="yyyy/mm/dd">
                         <c:v>44538</c:v>
                       </c:pt>
-                      <c:pt idx="7" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="7" c:formatCode="yyyy/mm/dd">
                         <c:v>44545</c:v>
                       </c:pt>
-                      <c:pt idx="8" c:formatCode="yyyy\-m\-d">
+                      <c:pt idx="8" c:formatCode="yyyy/mm/dd">
                         <c:v>44552</c:v>
+                      </c:pt>
+                      <c:pt idx="9" c:formatCode="yyyy/mm/dd">
+                        <c:v>44559</c:v>
+                      </c:pt>
+                      <c:pt idx="10" c:formatCode="yyyy/mm/dd">
+                        <c:v>44566</c:v>
+                      </c:pt>
+                      <c:pt idx="11" c:formatCode="yyyy/mm/dd">
+                        <c:v>44573</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5554,13 +5669,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>639445</xdr:colOff>
+      <xdr:colOff>617855</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>639445</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
@@ -5570,8 +5685,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4732655" y="2957830"/>
-        <a:ext cx="4573905" cy="2837815"/>
+        <a:off x="4711065" y="2957830"/>
+        <a:ext cx="4573270" cy="2837815"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6652,7 +6767,7 @@
   <sheetPr/>
   <dimension ref="A1:BJ556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -7186,7 +7301,7 @@
         <v>3.775</v>
       </c>
       <c r="R7" s="105">
-        <f t="shared" ref="R7:R12" si="2">N7*O7*0.002/100</f>
+        <f t="shared" ref="R7:R16" si="2">N7*O7*0.002/100</f>
         <v>0.0755</v>
       </c>
       <c r="S7" s="120">
@@ -7320,7 +7435,7 @@
         <v>5</v>
       </c>
       <c r="Q9" s="105">
-        <f t="shared" ref="Q9:Q18" si="4">N9*O9*0.1/100</f>
+        <f t="shared" ref="Q9:Q25" si="4">N9*O9*0.1/100</f>
         <v>3.015</v>
       </c>
       <c r="R9" s="105">
@@ -7606,7 +7721,7 @@
         <v>6.936</v>
       </c>
       <c r="R13" s="105">
-        <f>N13*O13*0.002/100</f>
+        <f t="shared" si="2"/>
         <v>0.13872</v>
       </c>
       <c r="S13" s="120">
@@ -7646,7 +7761,7 @@
         <v>3.468</v>
       </c>
       <c r="R14" s="105">
-        <f>N14*O14*0.002/100</f>
+        <f t="shared" si="2"/>
         <v>0.06936</v>
       </c>
       <c r="S14" s="120">
@@ -7711,7 +7826,7 @@
         <v>11.166</v>
       </c>
       <c r="R15" s="105">
-        <f>N15*O15*0.002/100</f>
+        <f t="shared" si="2"/>
         <v>0.22332</v>
       </c>
       <c r="S15" s="120">
@@ -7782,7 +7897,7 @@
         <v>3.59</v>
       </c>
       <c r="R16" s="105">
-        <f>N16*O16*0.002/100</f>
+        <f t="shared" si="2"/>
         <v>0.0718</v>
       </c>
       <c r="S16" s="120">
@@ -7851,7 +7966,7 @@
         <v>6.067</v>
       </c>
       <c r="R17" s="105">
-        <f t="shared" ref="R17:R22" si="7">N17*O17*0.002/100</f>
+        <f t="shared" ref="R17:R23" si="7">N17*O17*0.002/100</f>
         <v>0.12134</v>
       </c>
       <c r="S17" s="120">
@@ -7985,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="Q19" s="105">
-        <f>N19*O19*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>3.13</v>
       </c>
       <c r="R19" s="105">
@@ -8054,7 +8169,7 @@
         <v>5</v>
       </c>
       <c r="Q20" s="105">
-        <f>N20*O20*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>6.79</v>
       </c>
       <c r="R20" s="105">
@@ -8122,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="Q21" s="105">
-        <f>N21*O21*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>2.602</v>
       </c>
       <c r="R21" s="111">
@@ -8190,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="Q22" s="105">
-        <f>N22*O22*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>4.115</v>
       </c>
       <c r="R22" s="105">
@@ -8256,11 +8371,11 @@
         <v>5</v>
       </c>
       <c r="Q23" s="105">
-        <f>N23*O23*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>8.794</v>
       </c>
       <c r="R23" s="105">
-        <f>N23*O23*0.002/100</f>
+        <f t="shared" si="7"/>
         <v>0.17588</v>
       </c>
       <c r="S23" s="120">
@@ -8324,7 +8439,7 @@
         <v>5</v>
       </c>
       <c r="Q24" s="105">
-        <f>N24*O24*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>11.9</v>
       </c>
       <c r="R24" s="111">
@@ -8368,7 +8483,7 @@
         <v>5</v>
       </c>
       <c r="Q25" s="105">
-        <f>N25*O25*0.1/100</f>
+        <f t="shared" si="4"/>
         <v>5.93</v>
       </c>
       <c r="R25" s="105">
@@ -8433,7 +8548,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="105">
-        <f t="shared" ref="Q26:Q32" si="9">N26*O26*0.1/100</f>
+        <f t="shared" ref="Q26:Q33" si="9">N26*O26*0.1/100</f>
         <v>9.417</v>
       </c>
       <c r="R26" s="105">
@@ -8520,7 +8635,7 @@
         <v>0.16152</v>
       </c>
       <c r="J28" s="80">
-        <f t="shared" ref="J28:J36" si="10">F28*G28+H28+I28</f>
+        <f t="shared" ref="J28:J38" si="10">F28*G28+H28+I28</f>
         <v>8081.16152</v>
       </c>
       <c r="K28" s="94">
@@ -8546,7 +8661,7 @@
         <v>7.684</v>
       </c>
       <c r="R28" s="105">
-        <f t="shared" ref="R27:R32" si="11">N28*O28*0.002/100</f>
+        <f t="shared" ref="R27:R33" si="11">N28*O28*0.002/100</f>
         <v>0.15368</v>
       </c>
       <c r="S28" s="120">
@@ -8872,11 +8987,11 @@
         <v>5</v>
       </c>
       <c r="Q33" s="105">
-        <f>N33*O33*0.1/100</f>
+        <f t="shared" si="9"/>
         <v>8.721</v>
       </c>
       <c r="R33" s="105">
-        <f>N33*O33*0.002/100</f>
+        <f t="shared" si="11"/>
         <v>0.17442</v>
       </c>
       <c r="S33" s="120">
@@ -9088,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="80">
-        <f>F37*G37+H37+I37</f>
+        <f t="shared" si="10"/>
         <v>7783</v>
       </c>
       <c r="K37" s="94">
@@ -9137,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="80">
-        <f>F38*G38+H38+I38</f>
+        <f t="shared" si="10"/>
         <v>18581</v>
       </c>
       <c r="K38" s="94">
@@ -16794,7 +16909,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="12.2053571428571" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.2053571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.0803571428571" customWidth="1"/>
     <col min="3" max="3" width="27.0803571428571" style="7" customWidth="1"/>
     <col min="4" max="6" width="27.0803571428571" style="8" customWidth="1"/>
@@ -17427,295 +17542,303 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.9821428571429" customWidth="1"/>
+    <col min="1" max="1" width="13.9821428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.0446428571429" customWidth="1"/>
     <col min="3" max="3" width="15.0178571428571" customWidth="1"/>
     <col min="4" max="4" width="16.5089285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44489</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>140000</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <f>(VLOOKUP(A2,$A$1:$D99,2,FALSE)*0.012)</f>
         <v>1680</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <f>(VLOOKUP(A2,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>8400</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44496</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>139880.77</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <f>(VLOOKUP(A3,$A$1:$D100,2,FALSE)*0.012)</f>
         <v>1678.56924</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <f t="shared" ref="D3:D9" si="0">(VLOOKUP(A3,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>8392.8462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44503</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>139812.54</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f>(VLOOKUP(A4,$A$1:$D101,2,FALSE)*0.012)</f>
         <v>1677.75048</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>8388.7524</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44510</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>139808.03</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f>(VLOOKUP(A5,$A$1:$D102,2,FALSE)*0.012)</f>
         <v>1677.69636</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>8388.4818</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44517</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f>(VLOOKUP(A6,$A$1:$D103,2,FALSE)*0.012)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44524</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>139831.02</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f>(VLOOKUP(A7,$A$1:$D104,2,FALSE)*0.012)</f>
         <v>1677.97224</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>8389.8612</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44531</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>140295</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <f>(VLOOKUP(A8,$A$1:$D105,2,FALSE)*0.012)</f>
         <v>1683.54</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>8417.7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44538</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>140235.19</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <f>(VLOOKUP(A9,$A$1:$D106,2,FALSE)*0.012)</f>
         <v>1682.82228</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>8414.1114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44545</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>139412</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <f>(VLOOKUP(A10,$A$1:$D107,2,FALSE)*0.012)</f>
         <v>1672.944</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f>(VLOOKUP(A10,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>8364.72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44552</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>139961.16</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <f>(VLOOKUP(A11,$A$1:$D108,2,FALSE)*0.012)</f>
         <v>1679.53392</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <f>(VLOOKUP(A11,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>8397.6696</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>44559</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>139314.83</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <f>(VLOOKUP(A12,$A$1:$D109,2,FALSE)*0.012)</f>
         <v>1671.77796</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f>(VLOOKUP(A12,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>8358.8898</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>44566</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>135646.84</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f>(VLOOKUP(A13,$A$1:$D110,2,FALSE)*0.012)</f>
         <v>1627.76208</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f>(VLOOKUP(A13,$A$1:$D$99,2,FALSE)*0.06)</f>
         <v>8138.8104</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>44573</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="5">
+        <v>136069.67</v>
+      </c>
+      <c r="C14" s="5">
+        <f>(VLOOKUP(A14,$A$1:$D111,2,FALSE)*0.012)</f>
+        <v>1632.83604</v>
+      </c>
+      <c r="D14" s="5">
+        <f>(VLOOKUP(A14,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>8164.1802</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>44580</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>44587</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>44594</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>44601</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>44608</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>44615</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>44622</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44629</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -17542,8 +17542,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -710,14 +710,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -897,17 +897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -915,37 +906,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -961,14 +921,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,6 +937,75 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,36 +1021,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,19 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,19 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,37 +1132,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,25 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1192,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,25 +1252,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,11 +1315,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,16 +1340,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,21 +1378,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1390,16 +1390,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,142 +1408,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1557,30 +1557,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,48 +1590,48 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1683,7 +1683,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1755,7 +1755,7 @@
     <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,7 +1764,7 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,7 +1779,7 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +1788,7 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,13 +1797,13 @@
     <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1815,13 +1815,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1848,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1866,7 +1866,7 @@
     <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,7 +1875,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1884,7 +1884,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,10 +1902,10 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1914,7 +1914,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6767,12 +6767,12 @@
   <sheetPr/>
   <dimension ref="A1:BJ556"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -17542,7 +17542,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6768,11 +6768,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6756,11 +6756,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -8699,8 +8699,7 @@
         <v>52</v>
       </c>
       <c r="L29" s="94">
-        <f>(F29-K29)*G29+H29+I29+5</f>
-        <v>804.22388</v>
+        <v>0</v>
       </c>
       <c r="M29" s="75"/>
       <c r="N29" s="85"/>
@@ -9029,8 +9028,7 @@
         <v>56.49</v>
       </c>
       <c r="L34" s="94">
-        <f>(F34-K34)*G34+H34+I34+5</f>
-        <v>244.11766</v>
+        <v>0</v>
       </c>
       <c r="M34" s="75"/>
       <c r="N34" s="85"/>
@@ -9079,8 +9077,7 @@
         <v>47.35</v>
       </c>
       <c r="L35" s="94">
-        <f>(F35-K35)*G35+H35+I35+5</f>
-        <v>356.10162</v>
+        <v>0</v>
       </c>
       <c r="M35" s="75">
         <v>44566</v>
@@ -9149,8 +9146,7 @@
         <v>45.1</v>
       </c>
       <c r="L36" s="94">
-        <f>(F36-K36)*G36+H36+I36+5</f>
-        <v>766.19552</v>
+        <v>0</v>
       </c>
       <c r="M36" s="75"/>
       <c r="N36" s="85"/>
@@ -9198,8 +9194,7 @@
         <v>73.28</v>
       </c>
       <c r="L37" s="94">
-        <f>(F37-K37)*G37+H37+I37+5</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="M37" s="75"/>
       <c r="N37" s="85"/>
@@ -16997,7 +16992,7 @@
       </c>
       <c r="B3" s="17">
         <f>SUM(交易计划及执行表!L4:$L38)</f>
-        <v>6560.63868</v>
+        <v>3930</v>
       </c>
       <c r="C3" s="17">
         <f>SUM(交易计划及执行表!$T$4:$T35)</f>
@@ -17033,7 +17028,7 @@
       </c>
       <c r="K3" s="32">
         <f>B3/(140000*0.06)</f>
-        <v>0.781028414285714</v>
+        <v>0.467857142857143</v>
       </c>
     </row>
     <row r="4" ht="14.8" spans="1:11">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -16887,7 +16887,7 @@
   <dimension ref="A1:CZ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -6760,7 +6760,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -710,13 +710,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
@@ -897,17 +897,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -921,18 +919,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,22 +943,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,6 +960,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,6 +995,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,15 +1010,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,21 +1021,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,13 +1090,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,85 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,13 +1186,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,31 +1234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,13 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,36 +1333,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1393,6 +1363,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1403,147 +1388,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1557,108 +1557,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1671,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1683,7 +1683,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1749,76 +1749,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,7 +1845,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,7 +1863,7 @@
     <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,7 +1878,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1902,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6756,11 +6756,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -710,14 +710,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -884,36 +884,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,6 +906,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -950,25 +944,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -987,16 +966,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,9 +982,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,6 +999,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,19 +1084,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,19 +1126,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,13 +1162,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,7 +1210,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,49 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,49 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,17 +1309,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,17 +1369,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,179 +1403,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,30 +1557,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,48 +1590,48 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1683,7 +1683,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1749,138 +1749,138 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1902,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6756,11 +6756,11 @@
   <dimension ref="A1:BJ556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -711,12 +711,12 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
@@ -884,6 +884,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -898,23 +905,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,55 +944,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -990,7 +959,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,7 +982,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,9 +995,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,7 +1084,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,79 +1192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,19 +1222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,31 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,19 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,16 +1316,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,44 +1356,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,153 +1379,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,108 +1557,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1671,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1683,7 +1683,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1749,7 +1749,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,13 +1764,13 @@
     <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,7 +1779,7 @@
     <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,7 +1788,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,10 +1803,10 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,7 +1845,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,7 +1863,7 @@
     <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,7 +1878,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1902,7 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6755,12 +6755,12 @@
   <sheetPr/>
   <dimension ref="A1:BJ556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -17525,8 +17525,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -17763,9 +17763,17 @@
       <c r="A15" s="2">
         <v>44580</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="5">
+        <v>135125.9</v>
+      </c>
+      <c r="C15" s="5">
+        <f>(VLOOKUP(A15,$A$1:$D112,2,FALSE)*0.012)</f>
+        <v>1621.5108</v>
+      </c>
+      <c r="D15" s="5">
+        <f>(VLOOKUP(A15,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>8107.554</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -17526,7 +17526,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -710,13 +710,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
@@ -897,6 +897,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -905,24 +912,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,51 +944,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,7 +965,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,18 +1019,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1096,13 +1096,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1120,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1150,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,37 +1240,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,85 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,15 +1306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1334,7 +1325,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,15 +1380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1403,144 +1394,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1549,7 +1549,7 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1557,108 +1557,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1671,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1683,7 +1683,7 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1749,76 +1749,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,7 +1845,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,7 +1863,7 @@
     <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1878,7 +1878,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,7 +1893,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6755,12 +6755,12 @@
   <sheetPr/>
   <dimension ref="A1:BJ556"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -17525,7 +17525,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -1659,10 +1659,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -17384,8 +17384,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -17538,22 +17538,46 @@
         <f>SUM(交易计划及执行表!$T$4:$T44)</f>
         <v>-4044.14797999999</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="23"/>
+      <c r="D4" s="18">
+        <f>COUNTIF(交易计划及执行表!$T$4:$T44,"&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="18">
+        <f>COUNTIF(交易计划及执行表!$T$4:$T44,"&lt;0")</f>
+        <v>23</v>
+      </c>
+      <c r="F4" s="18">
+        <f>D4+E4</f>
+        <v>34</v>
+      </c>
+      <c r="G4" s="27">
+        <f>D4/F4</f>
+        <v>0.323529411764706</v>
+      </c>
+      <c r="H4" s="28">
+        <f>(SUMIF(交易计划及执行表!$T$4:$T32,"&gt;0")/$D4)/SUMIF(交易计划及执行表!$T$4:$T32,"&gt;0")</f>
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="I4" s="27">
+        <f>(SUMIF(交易计划及执行表!$T$4:$T32,"&lt;0")/$E4)/SUMIF(交易计划及执行表!$T$4:$T32,"&lt;0")</f>
+        <v>0.0434782608695652</v>
+      </c>
+      <c r="J4" s="31">
+        <f>G4*H4/((1-G4)*I4)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="32">
+        <f>B4/(140000*0.06)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="14.8" spans="1:11">
       <c r="A5" s="16"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -17563,10 +17587,10 @@
     <row r="6" ht="14.8" spans="1:11">
       <c r="A6" s="16"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -17576,10 +17600,10 @@
     <row r="7" ht="14.8" spans="1:11">
       <c r="A7" s="16"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -17589,10 +17613,10 @@
     <row r="8" ht="14.8" spans="1:11">
       <c r="A8" s="16"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
@@ -17602,10 +17626,10 @@
     <row r="9" ht="14.8" spans="1:11">
       <c r="A9" s="16"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -17615,10 +17639,10 @@
     <row r="10" ht="14.8" spans="1:11">
       <c r="A10" s="16"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -17628,10 +17652,10 @@
     <row r="11" ht="14.8" spans="1:11">
       <c r="A11" s="16"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -17641,10 +17665,10 @@
     <row r="12" ht="14.8" spans="1:11">
       <c r="A12" s="16"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -17654,10 +17678,10 @@
     <row r="13" ht="14.8" spans="1:11">
       <c r="A13" s="16"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -17667,10 +17691,10 @@
     <row r="14" ht="14.8" spans="1:11">
       <c r="A14" s="16"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -17680,10 +17704,10 @@
     <row r="15" ht="14.8" spans="1:11">
       <c r="A15" s="16"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -17693,10 +17717,10 @@
     <row r="16" ht="14.8" spans="1:11">
       <c r="A16" s="16"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -17706,10 +17730,10 @@
     <row r="17" ht="14.8" spans="1:11">
       <c r="A17" s="16"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -17719,10 +17743,10 @@
     <row r="18" ht="14.8" spans="1:11">
       <c r="A18" s="16"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -17732,10 +17756,10 @@
     <row r="19" ht="14.8" spans="1:11">
       <c r="A19" s="16"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -17745,10 +17769,10 @@
     <row r="20" ht="14.8" spans="1:11">
       <c r="A20" s="16"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -17758,10 +17782,10 @@
     <row r="21" ht="14.8" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -17771,10 +17795,10 @@
     <row r="22" ht="14.8" spans="1:11">
       <c r="A22" s="16"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -17784,10 +17808,10 @@
     <row r="23" ht="14.8" spans="1:11">
       <c r="A23" s="16"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -17797,10 +17821,10 @@
     <row r="24" ht="14.8" spans="1:11">
       <c r="A24" s="16"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -17810,10 +17834,10 @@
     <row r="25" ht="14.8" spans="1:11">
       <c r="A25" s="16"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -17823,10 +17847,10 @@
     <row r="26" ht="14.8" spans="1:11">
       <c r="A26" s="16"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -17836,10 +17860,10 @@
     <row r="27" ht="14.8" spans="1:11">
       <c r="A27" s="16"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -17849,10 +17873,10 @@
     <row r="28" ht="14.8" spans="1:11">
       <c r="A28" s="16"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -17862,10 +17886,10 @@
     <row r="29" ht="14.8" spans="1:11">
       <c r="A29" s="16"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -17875,10 +17899,10 @@
     <row r="30" ht="14.8" spans="1:11">
       <c r="A30" s="16"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -17888,10 +17912,10 @@
     <row r="31" ht="14.8" spans="1:11">
       <c r="A31" s="16"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -17901,10 +17925,10 @@
     <row r="32" ht="14.8" spans="1:11">
       <c r="A32" s="16"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -17384,8 +17384,8 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -17531,7 +17531,7 @@
     </row>
     <row r="4" ht="14.8" spans="1:11">
       <c r="A4" s="16">
-        <v>44585</v>
+        <v>44603</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="17">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -6803,12 +6803,12 @@
   <sheetPr/>
   <dimension ref="A1:BJ558"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="S29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="Q26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T44" sqref="T44"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -17384,7 +17384,7 @@
   <sheetPr/>
   <dimension ref="A1:CZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -764,13 +764,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="46">
@@ -972,9 +972,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -990,7 +989,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,6 +1045,13 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,60 +1078,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,13 +1156,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,31 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,25 +1294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,43 +1306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,43 +1318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,6 +1384,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1420,21 +1450,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1448,156 +1463,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1629,96 +1629,96 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1971,7 +1971,7 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6840,11 +6840,11 @@
   <dimension ref="A1:BJ558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="N30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45:D47"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -710,10 +710,16 @@
     <t>JG_0000039</t>
   </si>
   <si>
+    <t>JG_0000040</t>
+  </si>
+  <si>
     <t>001979</t>
   </si>
   <si>
     <t>招商蛇口</t>
+  </si>
+  <si>
+    <t>JG_0000041</t>
   </si>
   <si>
     <t>日期</t>
@@ -764,14 +770,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -965,7 +971,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -979,9 +1000,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,26 +1031,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1033,54 +1084,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,7 +1156,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,19 +1198,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,19 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,37 +1300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,73 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,7 +1385,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,6 +1420,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1410,15 +1442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1440,26 +1463,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,142 +1474,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1629,96 +1635,96 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1971,7 +1977,7 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6840,11 +6846,11 @@
   <dimension ref="A1:BJ558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -9895,14 +9901,16 @@
       <c r="T47" s="126"/>
       <c r="U47" s="142"/>
     </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="66"/>
+    <row r="48" ht="18" spans="1:21">
+      <c r="A48" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="B48" s="62"/>
       <c r="C48" s="146" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48" s="87">
         <v>44603</v>
@@ -9935,8 +9943,10 @@
       <c r="T48" s="126"/>
       <c r="U48" s="142"/>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="66"/>
+    <row r="49" ht="18" spans="1:21">
+      <c r="A49" s="49" t="s">
+        <v>136</v>
+      </c>
       <c r="B49" s="62"/>
       <c r="C49" s="51"/>
       <c r="D49" s="65"/>
@@ -17441,40 +17451,40 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:104">
       <c r="A1" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CZ1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" ht="14.8" spans="1:11">
@@ -18102,16 +18112,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26520" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -769,15 +769,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -971,10 +971,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -986,7 +1002,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1000,22 +1024,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
@@ -1024,10 +1032,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,23 +1047,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,17 +1070,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,13 +1156,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,37 +1180,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,31 +1192,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,13 +1240,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,61 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,6 +1385,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1405,21 +1414,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1427,21 +1421,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,11 +1440,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,142 +1474,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,114 +1635,114 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,79 +1827,79 @@
     <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,31 +1923,31 @@
     <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,13 +1956,13 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,7 +1977,7 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6846,11 +6846,11 @@
   <dimension ref="A1:BJ558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:A49"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26520" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -769,15 +769,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -963,6 +963,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -979,6 +1010,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -986,34 +1025,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1025,17 +1048,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1047,9 +1062,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,30 +1084,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,7 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,25 +1192,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1210,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,7 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,13 +1270,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,61 +1306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,13 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,24 +1381,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1416,11 +1398,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1441,6 +1430,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1455,17 +1459,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,142 +1474,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,108 +1641,108 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,79 +1827,79 @@
     <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,31 +1923,31 @@
     <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,13 +1956,13 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,7 +1977,7 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,14 +2259,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2303,6 +2303,15 @@
                 <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                   <c:v>44573</c:v>
                 </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                  <c:v>44608</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2311,14 +2320,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$B$2:$B$14</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$B$2:$B$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$B$2:$B$5,资金曲线变化表!$B$7:$B$14)</c:f>
+              <c:f>(资金曲线变化表!$B$2:$B$5,资金曲线变化表!$B$7:$B$15,资金曲线变化表!$B$18:$B$19)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>140000</c:v>
                 </c:pt>
@@ -2354,6 +2363,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>136069.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135125.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137203.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136737.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,16 +2487,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2514,6 +2532,15 @@
                       </c:pt>
                       <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                         <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                        <c:v>44580</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                        <c:v>44601</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                        <c:v>44608</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2670,16 +2697,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2715,6 +2742,15 @@
                       </c:pt>
                       <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                         <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                        <c:v>44580</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                        <c:v>44601</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                        <c:v>44608</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3041,14 +3077,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3085,6 +3121,15 @@
                 <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                   <c:v>44573</c:v>
                 </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                  <c:v>44608</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3093,14 +3138,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$C$2:$C$14</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$C$2:$C$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$14)</c:f>
+              <c:f>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$15,资金曲线变化表!$C$18:$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1680</c:v>
                 </c:pt>
@@ -3136,6 +3181,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1632.83604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1621.5108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1646.44068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1640.847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,16 +3251,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3242,6 +3296,15 @@
                       </c:pt>
                       <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                         <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                        <c:v>44580</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                        <c:v>44601</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                        <c:v>44608</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3519,14 +3582,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3563,6 +3626,15 @@
                 <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                   <c:v>44573</c:v>
                 </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                  <c:v>44608</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3571,14 +3643,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$D$2:$D$14</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$D$2:$D$19</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$14)</c:f>
+              <c:f>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$15,资金曲线变化表!$D$18:$D$19)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>8400</c:v>
                 </c:pt>
@@ -3614,6 +3686,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8164.1802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8107.554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8232.2034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8204.235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,16 +3756,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3720,6 +3801,15 @@
                       </c:pt>
                       <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                         <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                        <c:v>44580</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                        <c:v>44601</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                        <c:v>44608</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3804,16 +3894,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$14</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$14)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3849,6 +3939,15 @@
                       </c:pt>
                       <c:pt idx="11" c:formatCode="yyyy/mm/dd">
                         <c:v>44573</c:v>
+                      </c:pt>
+                      <c:pt idx="12" c:formatCode="yyyy/mm/dd">
+                        <c:v>44580</c:v>
+                      </c:pt>
+                      <c:pt idx="13" c:formatCode="yyyy/mm/dd">
+                        <c:v>44601</c:v>
+                      </c:pt>
+                      <c:pt idx="14" c:formatCode="yyyy/mm/dd">
+                        <c:v>44608</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5779,13 +5878,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>640715</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>10795</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5793,7 +5892,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4733925" y="5989955"/>
+        <a:off x="4733925" y="5989320"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6845,8 +6944,8 @@
   <sheetPr/>
   <dimension ref="A1:BJ558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="J35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -18098,8 +18197,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -18353,32 +18452,60 @@
         <v>44587</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="5">
+        <f>(VLOOKUP(A16,$A$1:$D113,2,FALSE)*0.012)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <f>(VLOOKUP(A16,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>44594</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="5">
+        <f>(VLOOKUP(A17,$A$1:$D114,2,FALSE)*0.012)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <f>(VLOOKUP(A17,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>44601</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="5">
+        <v>137203.39</v>
+      </c>
+      <c r="C18" s="5">
+        <f>(VLOOKUP(A18,$A$1:$D115,2,FALSE)*0.012)</f>
+        <v>1646.44068</v>
+      </c>
+      <c r="D18" s="5">
+        <f>(VLOOKUP(A18,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>8232.2034</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>44608</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="5">
+        <v>136737.25</v>
+      </c>
+      <c r="C19" s="5">
+        <f>(VLOOKUP(A19,$A$1:$D116,2,FALSE)*0.012)</f>
+        <v>1640.847</v>
+      </c>
+      <c r="D19" s="5">
+        <f>(VLOOKUP(A19,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>8204.235</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -769,15 +769,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -963,6 +963,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -972,14 +979,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -994,18 +1024,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1018,45 +1041,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,15 +1063,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,6 +1081,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1156,7 +1156,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,55 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,31 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,73 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,16 +1382,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,11 +1414,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1429,17 +1444,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,158 +1469,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,133 +1623,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1824,151 +1824,151 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,7 +1977,7 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18197,7 +18197,7 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -772,12 +772,12 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -957,7 +957,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,41 +1008,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1017,26 +1025,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,20 +1061,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1085,10 +1070,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1150,7 +1150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,7 +1168,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,79 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,79 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,21 +1381,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1410,6 +1395,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,28 +1455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,145 +1474,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1644,105 +1644,105 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,79 +1827,79 @@
     <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,31 +1923,31 @@
     <xf numFmtId="177" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,13 +1956,13 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,14 +2259,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -2312,6 +2312,9 @@
                 <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                   <c:v>44608</c:v>
                 </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                  <c:v>44615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2320,14 +2323,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$B$2:$B$19</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$B$2:$B$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$B$2:$B$5,资金曲线变化表!$B$7:$B$15,资金曲线变化表!$B$18:$B$19)</c:f>
+              <c:f>(资金曲线变化表!$B$2:$B$5,资金曲线变化表!$B$7:$B$15,资金曲线变化表!$B$18:$B$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>140000</c:v>
                 </c:pt>
@@ -2372,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>136737.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143784.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,16 +2493,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2541,6 +2547,9 @@
                       </c:pt>
                       <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                         <c:v>44608</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                        <c:v>44615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2697,16 +2706,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -2751,6 +2760,9 @@
                       </c:pt>
                       <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                         <c:v>44608</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                        <c:v>44615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3077,14 +3089,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3130,6 +3142,9 @@
                 <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                   <c:v>44608</c:v>
                 </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                  <c:v>44615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3138,14 +3153,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$C$2:$C$19</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$C$2:$C$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$15,资金曲线变化表!$C$18:$C$19)</c:f>
+              <c:f>(资金曲线变化表!$C$2:$C$5,资金曲线变化表!$C$7:$C$15,资金曲线变化表!$C$18:$C$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1680</c:v>
                 </c:pt>
@@ -3190,6 +3205,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1640.847</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1725.41676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3251,16 +3269,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3305,6 +3323,9 @@
                       </c:pt>
                       <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                         <c:v>44608</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                        <c:v>44615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3582,14 +3603,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c:f>
+              <c:f>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/mm/dd</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                   <c:v>44489</c:v>
                 </c:pt>
@@ -3635,6 +3656,9 @@
                 <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                   <c:v>44608</c:v>
                 </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                  <c:v>44615</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3643,14 +3667,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>资金曲线变化表!$D$2:$D$19</c15:sqref>
+                    <c15:sqref>资金曲线变化表!$D$2:$D$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$15,资金曲线变化表!$D$18:$D$19)</c:f>
+              <c:f>(资金曲线变化表!$D$2:$D$5,资金曲线变化表!$D$7:$D$15,资金曲线变化表!$D$18:$D$20)</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>8400</c:v>
                 </c:pt>
@@ -3695,6 +3719,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8204.235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8627.0838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,16 +3783,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3810,6 +3837,9 @@
                       </c:pt>
                       <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                         <c:v>44608</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                        <c:v>44615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3894,16 +3924,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>资金曲线变化表!$A$2:$A$19</c15:sqref>
+                          <c15:sqref>资金曲线变化表!$A$2:$A$20</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$19)</c15:sqref>
+                          <c15:sqref>(资金曲线变化表!$A$2:$A$5,资金曲线变化表!$A$7:$A$15,资金曲线变化表!$A$18:$A$20)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>yyyy/mm/dd</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0" c:formatCode="yyyy/mm/dd">
                         <c:v>44489</c:v>
                       </c:pt>
@@ -3948,6 +3978,9 @@
                       </c:pt>
                       <c:pt idx="14" c:formatCode="yyyy/mm/dd">
                         <c:v>44608</c:v>
+                      </c:pt>
+                      <c:pt idx="15" c:formatCode="yyyy/mm/dd">
+                        <c:v>44615</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18198,7 +18231,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -18511,9 +18544,17 @@
       <c r="A20" s="2">
         <v>44615</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="5">
+        <v>143784.73</v>
+      </c>
+      <c r="C20" s="5">
+        <f>(VLOOKUP(A20,$A$1:$D117,2,FALSE)*0.012)</f>
+        <v>1725.41676</v>
+      </c>
+      <c r="D20" s="5">
+        <f>(VLOOKUP(A20,$A$1:$D$99,2,FALSE)*0.06)</f>
+        <v>8627.0838</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">

--- a/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/计划执行结果汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19940" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="19940" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>交易计划执行结果编码</t>
   </si>
@@ -720,12 +720,6 @@
   </si>
   <si>
     <t>JG_0000041</t>
-  </si>
-  <si>
-    <t>002393</t>
-  </si>
-  <si>
-    <t>力生制药</t>
   </si>
   <si>
     <t>日期</t>
@@ -6821,14 +6815,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BJ558"/>
+  <dimension ref="A1:BJ557"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="17.6"/>
@@ -9959,17 +9953,11 @@
       <c r="T49" s="127"/>
       <c r="U49" s="143"/>
     </row>
-    <row r="50" ht="18" spans="1:21">
-      <c r="A50" s="50" t="s">
-        <v>136</v>
-      </c>
+    <row r="50" spans="1:21">
+      <c r="A50" s="67"/>
       <c r="B50" s="63"/>
-      <c r="C50" s="147" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>138</v>
-      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="88"/>
       <c r="F50" s="89"/>
       <c r="G50" s="90"/>
@@ -10057,28 +10045,21 @@
       <c r="T53" s="127"/>
       <c r="U53" s="143"/>
     </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="67"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="89"/>
-      <c r="Q54" s="89"/>
-      <c r="R54" s="89"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="127"/>
-      <c r="U54" s="143"/>
+    <row r="54" spans="2:19">
+      <c r="B54" s="39"/>
+      <c r="C54" s="68"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="91"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="39"/>
     </row>
     <row r="55" spans="2:19">
       <c r="B55" s="39"/>
@@ -16960,21 +16941,9 @@
       <c r="R484" s="91"/>
       <c r="S484" s="39"/>
     </row>
-    <row r="485" spans="2:19">
+    <row r="485" spans="2:3">
       <c r="B485" s="39"/>
       <c r="C485" s="68"/>
-      <c r="F485" s="91"/>
-      <c r="G485" s="92"/>
-      <c r="H485" s="91"/>
-      <c r="I485" s="91"/>
-      <c r="J485" s="91"/>
-      <c r="M485" s="117"/>
-      <c r="N485" s="91"/>
-      <c r="O485" s="39"/>
-      <c r="P485" s="91"/>
-      <c r="Q485" s="91"/>
-      <c r="R485" s="91"/>
-      <c r="S485" s="39"/>
     </row>
     <row r="486" spans="2:3">
       <c r="B486" s="39"/>
@@ -17263,10 +17232,6 @@
     <row r="557" spans="2:3">
       <c r="B557" s="39"/>
       <c r="C557" s="68"/>
-    </row>
-    <row r="558" spans="2:3">
-      <c r="B558" s="39"/>
-      <c r="C558" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="95">
@@ -17435,40 +17400,40 @@
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:104">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="J1" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="K1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="CZ1" t="s">
         <v>147</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" ht="14.8" spans="1:11">
@@ -18082,8 +18047,8 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
@@ -18096,16 +18061,16 @@
   <sheetData>
     <row r="1" ht="24" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
